--- a/sriramModel-nelson-atypical-patientID_1-sims-cort-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-atypical-patientID_1-sims-cort-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.427406622844916</v>
+        <v>7.427868242843622</v>
       </c>
       <c r="C2">
-        <v>7.427416837383335</v>
+        <v>7.427431785851718</v>
       </c>
       <c r="D2">
-        <v>7.427581903062117</v>
+        <v>7.427444993881352</v>
       </c>
       <c r="E2">
-        <v>7.427356937863915</v>
+        <v>7.427661989756974</v>
       </c>
       <c r="F2">
-        <v>7.427414003606344</v>
+        <v>7.427401655213409</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.454728341000919</v>
+        <v>7.455664868951713</v>
       </c>
       <c r="C3">
-        <v>7.454735887282025</v>
+        <v>7.454791152037225</v>
       </c>
       <c r="D3">
-        <v>7.455056353957513</v>
+        <v>7.454803535837788</v>
       </c>
       <c r="E3">
-        <v>7.4546484465017</v>
+        <v>7.455355428994465</v>
       </c>
       <c r="F3">
-        <v>7.454698009625402</v>
+        <v>7.454706097898631</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.481966357035303</v>
+        <v>7.483392067615129</v>
       </c>
       <c r="C4">
-        <v>7.481959607225333</v>
+        <v>7.482078613830565</v>
       </c>
       <c r="D4">
-        <v>7.482428416692087</v>
+        <v>7.482077017701569</v>
       </c>
       <c r="E4">
-        <v>7.48187498509061</v>
+        <v>7.48309986819037</v>
       </c>
       <c r="F4">
-        <v>7.481855317259845</v>
+        <v>7.481916956793978</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.509121819519456</v>
+        <v>7.511051783833043</v>
       </c>
       <c r="C5">
-        <v>7.50909033411254</v>
+        <v>7.50929466252879</v>
       </c>
       <c r="D5">
-        <v>7.509702763590973</v>
+        <v>7.509266841903035</v>
       </c>
       <c r="E5">
-        <v>7.509036959631335</v>
+        <v>7.510909154531542</v>
       </c>
       <c r="F5">
-        <v>7.508889216570869</v>
+        <v>7.509037553267212</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.536195823647543</v>
+        <v>7.538645722654586</v>
       </c>
       <c r="C6">
-        <v>7.536130286605681</v>
+        <v>7.53643973676238</v>
       </c>
       <c r="D6">
-        <v>7.536883690733508</v>
+        <v>7.536374331341475</v>
       </c>
       <c r="E6">
-        <v>7.536134724436802</v>
+        <v>7.538787293209423</v>
       </c>
       <c r="F6">
-        <v>7.535802988628003</v>
+        <v>7.536070921481819</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.563189411844085</v>
+        <v>7.566175351581827</v>
       </c>
       <c r="C7">
-        <v>7.563081567575042</v>
+        <v>7.563514230523576</v>
       </c>
       <c r="D7">
-        <v>7.563975133653339</v>
+        <v>7.563400746390318</v>
       </c>
       <c r="E7">
-        <v>7.563168583615553</v>
+        <v>7.566725077415436</v>
       </c>
       <c r="F7">
-        <v>7.562599905644708</v>
+        <v>7.563019831443504</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.590103574410534</v>
+        <v>7.593641903699064</v>
       </c>
       <c r="C8">
-        <v>7.589946166546443</v>
+        <v>7.590518497883907</v>
       </c>
       <c r="D8">
-        <v>7.590980683279282</v>
+        <v>7.59034728641706</v>
       </c>
       <c r="E8">
-        <v>7.590138792527137</v>
+        <v>7.594700547428191</v>
       </c>
       <c r="F8">
-        <v>7.589283231098965</v>
+        <v>7.589886805439759</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.616939250172866</v>
+        <v>7.621046382953375</v>
       </c>
       <c r="C9">
-        <v>7.61672596218635</v>
+        <v>7.617452849703474</v>
       </c>
       <c r="D9">
-        <v>7.617903602053427</v>
+        <v>7.617215087613665</v>
       </c>
       <c r="E9">
-        <v>7.617045559218903</v>
+        <v>7.622684285408266</v>
       </c>
       <c r="F9">
-        <v>7.615856219839402</v>
+        <v>7.616674130832018</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.643697327154769</v>
+        <v>7.648389570668725</v>
       </c>
       <c r="C10">
-        <v>7.64342272480312</v>
+        <v>7.644317556515086</v>
       </c>
       <c r="D10">
-        <v>7.644746840140899</v>
+        <v>7.644005228712971</v>
       </c>
       <c r="E10">
-        <v>7.643889045839188</v>
+        <v>7.650646488153577</v>
       </c>
       <c r="F10">
-        <v>7.64232211817672</v>
+        <v>7.643383872672016</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.670378643268632</v>
+        <v>7.675672032699427</v>
       </c>
       <c r="C11">
-        <v>7.670038118861371</v>
+        <v>7.671112848631818</v>
       </c>
       <c r="D11">
-        <v>7.671513051636063</v>
+        <v>7.670718729793903</v>
       </c>
       <c r="E11">
-        <v>7.670669370037959</v>
+        <v>7.678561873429377</v>
       </c>
       <c r="F11">
-        <v>7.668684163959648</v>
+        <v>7.670017889890131</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.696983987021381</v>
+        <v>7.702894127238359</v>
       </c>
       <c r="C12">
-        <v>7.6965737055147</v>
+        <v>7.697838918529992</v>
       </c>
       <c r="D12">
-        <v>7.698204610668797</v>
+        <v>7.697356554593793</v>
       </c>
       <c r="E12">
-        <v>7.697386606352373</v>
+        <v>7.706411270262147</v>
       </c>
       <c r="F12">
-        <v>7.694945586633888</v>
+        <v>7.696577848784391</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.723514098235421</v>
+        <v>7.730056012747067</v>
       </c>
       <c r="C13">
-        <v>7.723030945148513</v>
+        <v>7.724495922755861</v>
       </c>
       <c r="D13">
-        <v>7.724823627318662</v>
+        <v>7.723919610936745</v>
       </c>
       <c r="E13">
-        <v>7.724040787566818</v>
+        <v>7.734181064427259</v>
       </c>
       <c r="F13">
-        <v>7.721109607281678</v>
+        <v>7.723065234908743</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.749969668784456</v>
+        <v>7.757157656016305</v>
       </c>
       <c r="C14">
-        <v>7.749411199931272</v>
+        <v>7.75108398133355</v>
       </c>
       <c r="D14">
-        <v>7.751371963252616</v>
+        <v>7.750408750771881</v>
       </c>
       <c r="E14">
-        <v>7.750631906059126</v>
+        <v>7.761861911620092</v>
       </c>
       <c r="F14">
-        <v>7.747179438638451</v>
+        <v>7.749481364148005</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.776351343344396</v>
+        <v>7.784198840128724</v>
       </c>
       <c r="C15">
-        <v>7.775715736372133</v>
+        <v>7.777603180145836</v>
       </c>
       <c r="D15">
-        <v>7.777851247011539</v>
+        <v>7.776824771802543</v>
       </c>
       <c r="E15">
-        <v>7.777159915130357</v>
+        <v>7.789447489137014</v>
       </c>
       <c r="F15">
-        <v>7.773158285081789</v>
+        <v>7.775827393497247</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.802659720156983</v>
+        <v>7.811179173271639</v>
       </c>
       <c r="C16">
-        <v>7.80194572788146</v>
+        <v>7.804053571647597</v>
       </c>
       <c r="D16">
-        <v>7.804262888882493</v>
+        <v>7.803168417813376</v>
       </c>
       <c r="E16">
-        <v>7.803624730315554</v>
+        <v>7.81693353070039</v>
       </c>
       <c r="F16">
-        <v>7.799049342586123</v>
+        <v>7.802104333249828</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.828895351807084</v>
+        <v>7.838098097204948</v>
       </c>
       <c r="C17">
-        <v>7.828102257331964</v>
+        <v>7.830435175672483</v>
       </c>
       <c r="D17">
-        <v>7.830608095301588</v>
+        <v>7.829440379539893</v>
       </c>
       <c r="E17">
-        <v>7.830026230678314</v>
+        <v>7.844317148161904</v>
       </c>
       <c r="F17">
-        <v>7.824855798634546</v>
+        <v>7.828313058369404</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.85505874601183</v>
+        <v>7.864954897096488</v>
       </c>
       <c r="C18">
-        <v>7.854186319617537</v>
+        <v>7.856747979771378</v>
       </c>
       <c r="D18">
-        <v>7.856887882747262</v>
+        <v>7.855641295286385</v>
       </c>
       <c r="E18">
-        <v>7.856364260088212</v>
+        <v>7.87159637398373</v>
       </c>
       <c r="F18">
-        <v>7.850580832076426</v>
+        <v>7.854454298931768</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.881150366421889</v>
+        <v>7.891748712557975</v>
       </c>
       <c r="C19">
-        <v>7.880198824207588</v>
+        <v>7.88299194160567</v>
       </c>
       <c r="D19">
-        <v>7.88310309108984</v>
+        <v>7.881771751978557</v>
       </c>
       <c r="E19">
-        <v>7.882638628481126</v>
+        <v>7.898769858305752</v>
       </c>
       <c r="F19">
-        <v>7.876227612916163</v>
+        <v>7.880528674294637</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.907170633433228</v>
+        <v>7.91847855065491</v>
       </c>
       <c r="C20">
-        <v>7.906140597693966</v>
+        <v>7.909166991400455</v>
       </c>
       <c r="D20">
-        <v>7.909254396374022</v>
+        <v>7.90783228529247</v>
       </c>
       <c r="E20">
-        <v>7.908849113102798</v>
+        <v>7.925836669256823</v>
       </c>
       <c r="F20">
-        <v>7.901799302014307</v>
+        <v>7.906536690406694</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.933119925009708</v>
+        <v>7.945143298992483</v>
       </c>
       <c r="C21">
-        <v>7.93201238632809</v>
+        <v>7.93527302706805</v>
       </c>
       <c r="D21">
-        <v>7.935342323019104</v>
+        <v>7.933823381762233</v>
       </c>
       <c r="E21">
-        <v>7.934995459735479</v>
+        <v>7.952796161003085</v>
       </c>
       <c r="F21">
-        <v>7.927299050677042</v>
+        <v>7.932478752561486</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.958998577514874</v>
+        <v>7.971741742550388</v>
       </c>
       <c r="C22">
-        <v>7.957814858545946</v>
+        <v>7.961309919975458</v>
       </c>
       <c r="D22">
-        <v>7.961367255428305</v>
+        <v>7.959745477207071</v>
       </c>
       <c r="E22">
-        <v>7.961077383907559</v>
+        <v>7.979647885590992</v>
       </c>
       <c r="F22">
-        <v>7.952730000103657</v>
+        <v>7.958355169434975</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.984806886553146</v>
+        <v>7.998272580367283</v>
       </c>
       <c r="C23">
-        <v>7.983548607478525</v>
+        <v>7.987277520298551</v>
       </c>
       <c r="D23">
-        <v>7.987329449005308</v>
+        <v>7.985598961288899</v>
       </c>
       <c r="E23">
-        <v>7.987094572086298</v>
+        <v>8.006391533794298</v>
       </c>
       <c r="F23">
-        <v>7.978095280653609</v>
+        <v>7.984166155180131</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.01054510781891</v>
+        <v>8.024734442030475</v>
       </c>
       <c r="C24">
-        <v>8.0092141534454</v>
+        <v>8.013175639869266</v>
       </c>
       <c r="D24">
-        <v>8.013229040581386</v>
+        <v>8.011384174338906</v>
       </c>
       <c r="E24">
-        <v>8.013046682853528</v>
+        <v>8.033026894493091</v>
       </c>
       <c r="F24">
-        <v>8.003398010885144</v>
+        <v>8.009911839287659</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.036213457953595</v>
+        <v>8.051125904834809</v>
       </c>
       <c r="C25">
-        <v>8.034811946429263</v>
+        <v>8.039004072541738</v>
       </c>
       <c r="D25">
-        <v>8.039066058260678</v>
+        <v>8.037101411829878</v>
       </c>
       <c r="E25">
-        <v>8.038933348064305</v>
+        <v>8.059553827229694</v>
       </c>
       <c r="F25">
-        <v>8.028641296305441</v>
+        <v>8.035592271858947</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>8.061812115409356</v>
+        <v>8.077445509725159</v>
       </c>
       <c r="C26">
-        <v>8.060342368529271</v>
+        <v>8.064762591035924</v>
       </c>
       <c r="D26">
-        <v>8.064840430695494</v>
+        <v>8.06275092271553</v>
       </c>
       <c r="E26">
-        <v>8.064754173988346</v>
+        <v>8.085972242956151</v>
       </c>
       <c r="F26">
-        <v>8.053828227757711</v>
+        <v>8.061207431439518</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8.087341221319301</v>
+        <v>8.103691775974164</v>
       </c>
       <c r="C27">
-        <v>8.085805736391148</v>
+        <v>8.090450942523645</v>
       </c>
       <c r="D27">
-        <v>8.090551995805933</v>
+        <v>8.088332911358382</v>
       </c>
       <c r="E27">
-        <v>8.09050874243421</v>
+        <v>8.112282090169545</v>
       </c>
       <c r="F27">
-        <v>8.078961879353329</v>
+        <v>8.086757229882908</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8.112800880373026</v>
+        <v>8.129863214312037</v>
       </c>
       <c r="C28">
-        <v>8.111202303612018</v>
+        <v>8.116068855687127</v>
       </c>
       <c r="D28">
-        <v>8.116200508961018</v>
+        <v>8.113847538273113</v>
       </c>
       <c r="E28">
-        <v>8.116196611856159</v>
+        <v>8.138483345392107</v>
       </c>
       <c r="F28">
-        <v>8.104045305835896</v>
+        <v>8.11224151427928</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8.138191161697291</v>
+        <v>8.155958338444231</v>
       </c>
       <c r="C29">
-        <v>8.136532263118179</v>
+        <v>8.141616037261638</v>
       </c>
       <c r="D29">
-        <v>8.141785650640214</v>
+        <v>8.139294920348048</v>
       </c>
       <c r="E29">
-        <v>8.141817318443552</v>
+        <v>8.164576006182196</v>
       </c>
       <c r="F29">
-        <v>8.129081539239099</v>
+        <v>8.137660080956689</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8.16351209974068</v>
+        <v>8.181975674337469</v>
       </c>
       <c r="C30">
-        <v>8.16179574951388</v>
+        <v>8.167092172994103</v>
       </c>
       <c r="D30">
-        <v>8.167307033595444</v>
+        <v>8.164675132354406</v>
       </c>
       <c r="E30">
-        <v>8.167370377192661</v>
+        <v>8.190560086028389</v>
       </c>
       <c r="F30">
-        <v>8.154073584671364</v>
+        <v>8.163012672290877</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8.188763695161994</v>
+        <v>8.207913768715665</v>
       </c>
       <c r="C31">
-        <v>8.18699284139951</v>
+        <v>8.192496930024559</v>
       </c>
       <c r="D31">
-        <v>8.192764209535046</v>
+        <v>8.18998820750649</v>
       </c>
       <c r="E31">
-        <v>8.192855282960743</v>
+        <v>8.216435610440955</v>
       </c>
       <c r="F31">
-        <v>8.179024415025326</v>
+        <v>8.188298979896754</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>8.213945915721338</v>
+        <v>8.233771196035914</v>
       </c>
       <c r="C32">
-        <v>8.212123563657494</v>
+        <v>8.217829955114976</v>
       </c>
       <c r="D32">
-        <v>8.218156675351356</v>
+        <v>8.215234138239198</v>
       </c>
       <c r="E32">
-        <v>8.218271511502381</v>
+        <v>8.242202614409655</v>
       </c>
       <c r="F32">
-        <v>8.203936964372176</v>
+        <v>8.213518652266066</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>8.239058697173551</v>
+        <v>8.25954656326412</v>
       </c>
       <c r="C33">
-        <v>8.237187889704353</v>
+        <v>8.243090878084706</v>
       </c>
       <c r="D33">
-        <v>8.243483878914077</v>
+        <v>8.240412878073712</v>
       </c>
       <c r="E33">
-        <v>8.243618520487853</v>
+        <v>8.267861140356912</v>
       </c>
       <c r="F33">
-        <v>8.228814119754826</v>
+        <v>8.238671294243149</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>8.264101944163041</v>
+        <v>8.285238514265513</v>
       </c>
       <c r="C34">
-        <v>8.262185743707553</v>
+        <v>8.268279311699354</v>
       </c>
       <c r="D34">
-        <v>8.268745224451761</v>
+        <v>8.265524340853588</v>
       </c>
       <c r="E34">
-        <v>8.268895750503505</v>
+        <v>8.293411236380209</v>
       </c>
       <c r="F34">
-        <v>8.253658711050566</v>
+        <v>8.263756474420077</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>8.289075531119591</v>
+        <v>8.310845732831268</v>
       </c>
       <c r="C35">
-        <v>8.287117002765742</v>
+        <v>8.293394852443694</v>
       </c>
       <c r="D35">
-        <v>8.293940077543191</v>
+        <v>8.29056840239255</v>
       </c>
       <c r="E35">
-        <v>8.294102626033849</v>
+        <v>8.318852955090563</v>
       </c>
       <c r="F35">
-        <v>8.278473498518913</v>
+        <v>8.288773725674181</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>8.313979303154301</v>
+        <v>8.336366945055135</v>
       </c>
       <c r="C36">
-        <v>8.311981499051136</v>
+        <v>8.318437082364904</v>
       </c>
       <c r="D36">
-        <v>8.319067769740588</v>
+        <v>8.315544902984554</v>
       </c>
       <c r="E36">
-        <v>8.3192385564255</v>
+        <v>8.344186352731008</v>
       </c>
       <c r="F36">
-        <v>8.303261157603215</v>
+        <v>8.313722551353022</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>8.33881307695515</v>
+        <v>8.361800920811408</v>
       </c>
       <c r="C37">
-        <v>8.336779021912873</v>
+        <v>8.343405568745508</v>
       </c>
       <c r="D37">
-        <v>8.344127602845695</v>
+        <v>8.340453645803484</v>
       </c>
       <c r="E37">
-        <v>8.344302936832653</v>
+        <v>8.369411488441049</v>
       </c>
       <c r="F37">
-        <v>8.328024260509279</v>
+        <v>8.338602426787348</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>8.36357664168148</v>
+        <v>8.387146474768169</v>
       </c>
       <c r="C38">
-        <v>8.361509319940296</v>
+        <v>8.368299865632018</v>
       </c>
       <c r="D38">
-        <v>8.369118852859364</v>
+        <v>8.36529439827879</v>
       </c>
       <c r="E38">
-        <v>8.369295149144174</v>
+        <v>8.39452842370858</v>
       </c>
       <c r="F38">
-        <v>8.352765254051532</v>
+        <v>8.363412801557521</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>8.38826975985676</v>
+        <v>8.412402466687464</v>
       </c>
       <c r="C39">
-        <v>8.386172102985169</v>
+        <v>8.393119514106617</v>
       </c>
       <c r="D39">
-        <v>8.394040773624679</v>
+        <v>8.390066894731637</v>
       </c>
       <c r="E39">
-        <v>8.394214562891907</v>
+        <v>8.419537221927667</v>
       </c>
       <c r="F39">
-        <v>8.377486433245837</v>
+        <v>8.388153103542759</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>8.412892168259061</v>
+        <v>8.437567801526967</v>
       </c>
       <c r="C40">
-        <v>8.410767044141966</v>
+        <v>8.417864042846377</v>
       </c>
       <c r="D40">
-        <v>8.418892600182589</v>
+        <v>8.41477083708063</v>
       </c>
       <c r="E40">
-        <v>8.419060536140472</v>
+        <v>8.44443794799159</v>
       </c>
       <c r="F40">
-        <v>8.402189910152234</v>
+        <v>8.412822739327011</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>8.437443578808548</v>
+        <v>8.462641429120911</v>
       </c>
       <c r="C41">
-        <v>8.43529378168537</v>
+        <v>8.44253296920887</v>
       </c>
       <c r="D41">
-        <v>8.443673551858158</v>
+        <v>8.439405893052784</v>
       </c>
       <c r="E41">
-        <v>8.443832416358214</v>
+        <v>8.469230668026642</v>
       </c>
       <c r="F41">
-        <v>8.426877577548623</v>
+        <v>8.437421097041964</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>8.461923679451489</v>
+        <v>8.487622343666411</v>
       </c>
       <c r="C42">
-        <v>8.459751920964379</v>
+        <v>8.467125799422938</v>
       </c>
       <c r="D42">
-        <v>8.468382835097751</v>
+        <v>8.463971699787265</v>
       </c>
       <c r="E42">
-        <v>8.468529541269382</v>
+        <v>8.493915449185499</v>
       </c>
       <c r="F42">
-        <v>8.451551067167175</v>
+        <v>8.461947547975962</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>8.486332135040062</v>
+        <v>8.512509582867665</v>
       </c>
       <c r="C43">
-        <v>8.484141036251684</v>
+        <v>8.491642029724579</v>
       </c>
       <c r="D43">
-        <v>8.493019646068046</v>
+        <v>8.48846786554895</v>
       </c>
       <c r="E43">
-        <v>8.493151239687252</v>
+        <v>8.518492359545657</v>
       </c>
       <c r="F43">
-        <v>8.476211702476862</v>
+        <v>8.48640144924936</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>8.510668588207542</v>
+        <v>8.537302226903526</v>
       </c>
       <c r="C44">
-        <v>8.50846067254915</v>
+        <v>8.516081146840127</v>
       </c>
       <c r="D44">
-        <v>8.517583173037938</v>
+        <v>8.512893967545732</v>
       </c>
       <c r="E44">
-        <v>8.517696832328406</v>
+        <v>8.542961467912885</v>
       </c>
       <c r="F44">
-        <v>8.500860446369293</v>
+        <v>8.510782145406605</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>8.534932660238075</v>
+        <v>8.561999397251117</v>
       </c>
       <c r="C45">
-        <v>8.532710347351168</v>
+        <v>8.54044262872341</v>
       </c>
       <c r="D45">
-        <v>8.542072598557828</v>
+        <v>8.537249555103573</v>
       </c>
       <c r="E45">
-        <v>8.54216563260794</v>
+        <v>8.567322843640433</v>
       </c>
       <c r="F45">
-        <v>8.525497844622674</v>
+        <v>8.535088969821665</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>8.559123951930781</v>
+        <v>8.586600255691719</v>
       </c>
       <c r="C46">
-        <v>8.556889552358465</v>
+        <v>8.564725945259257</v>
       </c>
       <c r="D46">
-        <v>8.566487101447821</v>
+        <v>8.561534151113021</v>
       </c>
       <c r="E46">
-        <v>8.56655694741567</v>
+        <v>8.59157655655539</v>
       </c>
       <c r="F46">
-        <v>8.550123966684595</v>
+        <v>8.559321247076145</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>8.583242044457261</v>
+        <v>8.611104002982247</v>
       </c>
       <c r="C47">
-        <v>8.580997755144246</v>
+        <v>8.588930558853903</v>
       </c>
       <c r="D47">
-        <v>8.590825858610803</v>
+        <v>8.585747251406497</v>
       </c>
       <c r="E47">
-        <v>8.590870077873159</v>
+        <v>8.615722676898178</v>
       </c>
       <c r="F47">
-        <v>8.574738346113014</v>
+        <v>8.583478293470003</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>8.607286500212426</v>
+        <v>8.635509877482088</v>
       </c>
       <c r="C48">
-        <v>8.605034400779395</v>
+        <v>8.613055925178605</v>
       </c>
       <c r="D48">
-        <v>8.615088046681759</v>
+        <v>8.609888326511891</v>
       </c>
       <c r="E48">
-        <v>8.615104320071703</v>
+        <v>8.639761275254902</v>
       </c>
       <c r="F48">
-        <v>8.599339923886118</v>
+        <v>8.607559419365753</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>8.631256863657649</v>
+        <v>8.659817153827101</v>
       </c>
       <c r="C49">
-        <v>8.628998913411442</v>
+        <v>8.637101492652356</v>
       </c>
       <c r="D49">
-        <v>8.639272843526093</v>
+        <v>8.633956823067029</v>
       </c>
       <c r="E49">
-        <v>8.639258965791218</v>
+        <v>8.663692422489746</v>
       </c>
       <c r="F49">
-        <v>8.623926998643078</v>
+        <v>8.631563929578974</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>8.655152662156219</v>
+        <v>8.684025141685813</v>
       </c>
       <c r="C50">
-        <v>8.652890697796302</v>
+        <v>8.661066705280476</v>
       </c>
       <c r="D50">
-        <v>8.663379429596882</v>
+        <v>8.657952164543103</v>
       </c>
       <c r="E50">
-        <v>8.663333303200073</v>
+        <v>8.687516189704512</v>
       </c>
       <c r="F50">
-        <v>8.648497188587847</v>
+        <v>8.655491125116257</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>8.678973406800132</v>
+        <v>8.708133184440214</v>
       </c>
       <c r="C51">
-        <v>8.676709140782512</v>
+        <v>8.684951001851498</v>
       </c>
       <c r="D51">
-        <v>8.687406989162737</v>
+        <v>8.681873751739719</v>
       </c>
       <c r="E51">
-        <v>8.687326617535749</v>
+        <v>8.711232648203119</v>
       </c>
       <c r="F51">
-        <v>8.673047410091842</v>
+        <v>8.679340304069866</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>8.702718593228246</v>
+        <v>8.732140657691314</v>
       </c>
       <c r="C52">
-        <v>8.700453612751298</v>
+        <v>8.708753816312173</v>
       </c>
       <c r="D52">
-        <v>8.711354711415398</v>
+        <v>8.705720964514711</v>
       </c>
       <c r="E52">
-        <v>8.711238191766524</v>
+        <v>8.734841869457588</v>
       </c>
       <c r="F52">
-        <v>8.697573877769353</v>
+        <v>8.703110762450036</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>8.726387702434792</v>
+        <v>8.756046968125258</v>
       </c>
       <c r="C53">
-        <v>8.724123469010623</v>
+        <v>8.732474577088574</v>
       </c>
       <c r="D53">
-        <v>8.735221791466385</v>
+        <v>8.729493163129307</v>
       </c>
       <c r="E53">
-        <v>8.735067307234168</v>
+        <v>8.758343925068528</v>
       </c>
       <c r="F53">
-        <v>8.722072129819972</v>
+        <v>8.726801795697979</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>8.749980201568418</v>
+        <v>8.779851552109664</v>
       </c>
       <c r="C54">
-        <v>8.747718051144714</v>
+        <v>8.756112711733234</v>
       </c>
       <c r="D54">
-        <v>8.759007431241074</v>
+        <v>8.753189688026298</v>
       </c>
       <c r="E54">
-        <v>8.758813244277723</v>
+        <v>8.781738886751761</v>
       </c>
       <c r="F54">
-        <v>8.746537080695264</v>
+        <v>8.750412698886828</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>8.773495544720674</v>
+        <v>8.803553874497563</v>
       </c>
       <c r="C55">
-        <v>8.771236688316289</v>
+        <v>8.779667644357865</v>
       </c>
       <c r="D55">
-        <v>8.782710840278273</v>
+        <v>8.776809861773526</v>
       </c>
       <c r="E55">
-        <v>8.782475282837959</v>
+        <v>8.805026826286664</v>
       </c>
       <c r="F55">
-        <v>8.77096310077564</v>
+        <v>8.773942768260669</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>8.796933173704225</v>
+        <v>8.827153427445758</v>
       </c>
       <c r="C56">
-        <v>8.794678698525292</v>
+        <v>8.803138795037016</v>
       </c>
       <c r="D56">
-        <v>8.806331236442798</v>
+        <v>8.800352990684523</v>
       </c>
       <c r="E56">
-        <v>8.806052703043646</v>
+        <v>8.828207815525888</v>
       </c>
       <c r="F56">
-        <v>8.795344120042133</v>
+        <v>8.797391301377052</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>8.8202925188197</v>
+        <v>8.850649729273593</v>
       </c>
       <c r="C57">
-        <v>8.818043389822446</v>
+        <v>8.826525581921844</v>
       </c>
       <c r="D57">
-        <v>8.829867846557692</v>
+        <v>8.82381836443634</v>
       </c>
       <c r="E57">
-        <v>8.82954478578033</v>
+        <v>8.851281926383217</v>
       </c>
       <c r="F57">
-        <v>8.819673750141003</v>
+        <v>8.820757598366407</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>8.843572999611515</v>
+        <v>8.874042323246346</v>
       </c>
       <c r="C58">
-        <v>8.841330061480656</v>
+        <v>8.849827423632913</v>
       </c>
       <c r="D58">
-        <v>8.853319906962666</v>
+        <v>8.847205258007625</v>
       </c>
       <c r="E58">
-        <v>8.852950813238639</v>
+        <v>8.874249230846077</v>
       </c>
       <c r="F58">
-        <v>8.843945417245102</v>
+        <v>8.844040962134613</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>8.866774025611591</v>
+        <v>8.897330776681949</v>
       </c>
       <c r="C59">
-        <v>8.864538005120364</v>
+        <v>8.873043737289747</v>
       </c>
       <c r="D59">
-        <v>8.876686664004639</v>
+        <v>8.87051293284765</v>
       </c>
       <c r="E59">
-        <v>8.876270069442931</v>
+        <v>8.897109800921788</v>
       </c>
       <c r="F59">
-        <v>8.868152497097752</v>
+        <v>8.867240699263121</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>8.889894997071368</v>
+        <v>8.920514679638563</v>
       </c>
       <c r="C60">
-        <v>8.887666505793351</v>
+        <v>8.896173936597672</v>
       </c>
       <c r="D60">
-        <v>8.899967374466076</v>
+        <v>8.893740637652542</v>
       </c>
       <c r="E60">
-        <v>8.899501840764207</v>
+        <v>8.919863708665117</v>
       </c>
       <c r="F60">
-        <v>8.892288443759041</v>
+        <v>8.890356120436383</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>8.912935305681051</v>
+        <v>8.943593644198133</v>
       </c>
       <c r="C61">
-        <v>8.910714843023191</v>
+        <v>8.919217437869843</v>
       </c>
       <c r="D61">
-        <v>8.923161305935951</v>
+        <v>8.916887609272475</v>
       </c>
       <c r="E61">
-        <v>8.922645416414781</v>
+        <v>8.942511026125693</v>
       </c>
       <c r="F61">
-        <v>8.916346904779971</v>
+        <v>8.913386540868458</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>8.935894335276547</v>
+        <v>8.96656730323881</v>
       </c>
       <c r="C62">
-        <v>8.933682291806264</v>
+        <v>8.942173657479323</v>
       </c>
       <c r="D62">
-        <v>8.946267737128343</v>
+        <v>8.939953074048065</v>
       </c>
       <c r="E62">
-        <v>8.94570008892372</v>
+        <v>8.965051825354925</v>
       </c>
       <c r="F62">
-        <v>8.940321817508481</v>
+        <v>8.936331281056567</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>8.958771462533031</v>
+        <v>8.98943530967461</v>
       </c>
       <c r="C63">
-        <v>8.956568123568866</v>
+        <v>8.965042012120172</v>
       </c>
       <c r="D63">
-        <v>8.969285958152977</v>
+        <v>8.962936248817625</v>
       </c>
       <c r="E63">
-        <v>8.968665154594735</v>
+        <v>8.987486178443573</v>
       </c>
       <c r="F63">
-        <v>8.964207483565721</v>
+        <v>8.959189666823123</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>8.981566057645667</v>
+        <v>9.012197335545343</v>
       </c>
       <c r="C64">
-        <v>8.979371607085445</v>
+        <v>8.987821917506563</v>
       </c>
       <c r="D64">
-        <v>8.992215270741811</v>
+        <v>8.985836341863248</v>
       </c>
       <c r="E64">
-        <v>8.991539913946664</v>
+        <v>9.009814157445062</v>
       </c>
       <c r="F64">
-        <v>8.987998620802715</v>
+        <v>8.98196103006522</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>9.004277484996445</v>
+        <v>9.034853071072236</v>
       </c>
       <c r="C65">
-        <v>9.002092009356087</v>
+        <v>9.01051279356914</v>
       </c>
       <c r="D65">
-        <v>9.015054988435409</v>
+        <v>9.008652554042119</v>
       </c>
       <c r="E65">
-        <v>9.01432367213623</v>
+        <v>9.032035834369578</v>
       </c>
       <c r="F65">
-        <v>9.011690393942574</v>
+        <v>9.004644708620821</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>9.026905103807717</v>
+        <v>9.057402224084962</v>
       </c>
       <c r="C66">
-        <v>9.024728596447398</v>
+        <v>9.033114061347058</v>
       </c>
       <c r="D66">
-        <v>9.037804436732616</v>
+        <v>9.031384079498901</v>
       </c>
       <c r="E66">
-        <v>9.037015739363698</v>
+        <v>9.054151281285915</v>
       </c>
       <c r="F66">
-        <v>9.035278426454132</v>
+        <v>9.027240047569974</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>9.049448268781395</v>
+        <v>9.079844518945983</v>
       </c>
       <c r="C67">
-        <v>9.047280634292667</v>
+        <v>9.055625143202318</v>
       </c>
       <c r="D67">
-        <v>9.060462953206779</v>
+        <v>9.054030107306794</v>
       </c>
       <c r="E67">
-        <v>9.059615431261282</v>
+        <v>9.076160570249536</v>
       </c>
       <c r="F67">
-        <v>9.058758796960099</v>
+        <v>9.049746398435431</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>9.071906330724444</v>
+        <v>9.102179696121111</v>
       </c>
       <c r="C68">
-        <v>9.069747389455953</v>
+        <v>9.078045463437116</v>
       </c>
       <c r="D68">
-        <v>9.083029887591497</v>
+        <v>9.076589822114357</v>
       </c>
       <c r="E68">
-        <v>9.082122069264624</v>
+        <v>9.098063773171599</v>
       </c>
       <c r="F68">
-        <v>9.082128023725918</v>
+        <v>9.072163120017803</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>9.094278637159704</v>
+        <v>9.124407511237303</v>
       </c>
       <c r="C69">
-        <v>9.092128129858912</v>
+        <v>9.100374450961128</v>
       </c>
       <c r="D69">
-        <v>9.105504601838609</v>
+        <v>9.099062404761508</v>
       </c>
       <c r="E69">
-        <v>9.104534980968042</v>
+        <v>9.119860962005379</v>
       </c>
       <c r="F69">
-        <v>9.105383040632509</v>
+        <v>9.094489579718573</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>9.116564532922652</v>
+        <v>9.146527734584156</v>
       </c>
       <c r="C70">
-        <v>9.114422125473485</v>
+        <v>9.12261153742074</v>
       </c>
       <c r="D70">
-        <v>9.127886470150985</v>
+        <v>9.121447033929341</v>
       </c>
       <c r="E70">
-        <v>9.126853500463207</v>
+        <v>9.141552208818313</v>
       </c>
       <c r="F70">
-        <v>9.1285211676456</v>
+        <v>9.116725150406534</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>9.138763360742766</v>
+        <v>9.168540150419553</v>
       </c>
       <c r="C71">
-        <v>9.136628648978318</v>
+        <v>9.144756156155591</v>
       </c>
       <c r="D71">
-        <v>9.150174878992537</v>
+        <v>9.143742887128981</v>
       </c>
       <c r="E71">
-        <v>9.149076968661417</v>
+        <v>9.16313758543289</v>
       </c>
       <c r="F71">
-        <v>9.151540078281217</v>
+        <v>9.138869214665984</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>9.160874461810826</v>
+        <v>9.19044455630166</v>
       </c>
       <c r="C72">
-        <v>9.158746976381616</v>
+        <v>9.166807745601</v>
       </c>
       <c r="D72">
-        <v>9.172369227077478</v>
+        <v>9.1659491410485</v>
       </c>
       <c r="E72">
-        <v>9.171204733600256</v>
+        <v>9.184617163699688</v>
       </c>
       <c r="F72">
-        <v>9.174437766023715</v>
+        <v>9.160921163016278</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>9.18289717633321</v>
+        <v>9.212240762671648</v>
       </c>
       <c r="C73">
-        <v>9.180776387610649</v>
+        <v>9.188765748677127</v>
       </c>
       <c r="D73">
-        <v>9.194468925340948</v>
+        <v>9.188064972463701</v>
       </c>
       <c r="E73">
-        <v>9.193236150734561</v>
+        <v>9.205991015585939</v>
       </c>
       <c r="F73">
-        <v>9.197212511144082</v>
+        <v>9.182880392554887</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>9.204830844069518</v>
+        <v>9.233928592086006</v>
       </c>
       <c r="C74">
-        <v>9.202716167069999</v>
+        <v>9.210629612363579</v>
       </c>
       <c r="D74">
-        <v>9.216473396892731</v>
+        <v>9.210089560475248</v>
       </c>
       <c r="E74">
-        <v>9.215170583211897</v>
+        <v>9.227259212868407</v>
       </c>
       <c r="F74">
-        <v>9.219862848923599</v>
+        <v>9.204746310410679</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>9.226674804853554</v>
+        <v>9.255507878917408</v>
       </c>
       <c r="C75">
-        <v>9.224565604167863</v>
+        <v>9.2323987857189</v>
       </c>
       <c r="D75">
-        <v>9.238382076955881</v>
+        <v>9.232022086279089</v>
       </c>
       <c r="E75">
-        <v>9.237007402133322</v>
+        <v>9.248421827338362</v>
       </c>
       <c r="F75">
-        <v>9.242387539924508</v>
+        <v>9.226518331449261</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>9.248428399100488</v>
+        <v>9.276978468669508</v>
       </c>
       <c r="C76">
-        <v>9.246323993811734</v>
+        <v>9.25407272563792</v>
       </c>
       <c r="D76">
-        <v>9.260194412791696</v>
+        <v>9.253861732951943</v>
       </c>
       <c r="E76">
-        <v>9.258745986799141</v>
+        <v>9.269478930780009</v>
       </c>
       <c r="F76">
-        <v>9.264785542674222</v>
+        <v>9.248195878701432</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>9.270090968300327</v>
+        <v>9.298340217627619</v>
       </c>
       <c r="C77">
-        <v>9.267990636874638</v>
+        <v>9.27565089324921</v>
       </c>
       <c r="D77">
-        <v>9.281909863612519</v>
+        <v>9.275607689386213</v>
       </c>
       <c r="E77">
-        <v>9.280385724939997</v>
+        <v>9.290430594928875</v>
       </c>
       <c r="F77">
-        <v>9.287055988912627</v>
+        <v>9.269778384533021</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>9.2916618554964</v>
+        <v>9.319592992369667</v>
       </c>
       <c r="C78">
-        <v>9.289564840633201</v>
+        <v>9.297132754341803</v>
       </c>
       <c r="D78">
-        <v>9.303527900483697</v>
+        <v>9.297259149164688</v>
       </c>
       <c r="E78">
-        <v>9.30192601293396</v>
+        <v>9.311276891483478</v>
       </c>
       <c r="F78">
-        <v>9.309198161411533</v>
+        <v>9.291265289436536</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>9.313140405747909</v>
+        <v>9.340736669281327</v>
       </c>
       <c r="C79">
-        <v>9.311045919177975</v>
+        <v>9.318517779061974</v>
       </c>
       <c r="D79">
-        <v>9.32504800621588</v>
+        <v>9.318815310090647</v>
       </c>
       <c r="E79">
-        <v>9.323366256009658</v>
+        <v>9.332017892086771</v>
       </c>
       <c r="F79">
-        <v>9.33121147427287</v>
+        <v>9.312656042885667</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>9.334525966577118</v>
+        <v>9.361771134272374</v>
       </c>
       <c r="C80">
-        <v>9.332433193796264</v>
+        <v>9.339805445265572</v>
       </c>
       <c r="D80">
-        <v>9.346469675248764</v>
+        <v>9.340275377815857</v>
       </c>
       <c r="E80">
-        <v>9.344705868435637</v>
+        <v>9.352653668328317</v>
       </c>
       <c r="F80">
-        <v>9.353095455551717</v>
+        <v>9.33395010340459</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>9.355817888401841</v>
+        <v>9.382696282222987</v>
       </c>
       <c r="C81">
-        <v>9.353725993329347</v>
+        <v>9.360995236104548</v>
       </c>
       <c r="D81">
-        <v>9.367792413527321</v>
+        <v>9.361638565718842</v>
       </c>
       <c r="E81">
-        <v>9.365944273696842</v>
+        <v>9.373184291776363</v>
       </c>
       <c r="F81">
-        <v>9.374849732016049</v>
+        <v>9.35514693788407</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>9.377015524953295</v>
+        <v>9.403512016772501</v>
       </c>
       <c r="C82">
-        <v>9.374923654504672</v>
+        <v>9.382086639479096</v>
       </c>
       <c r="D82">
-        <v>9.389015738371423</v>
+        <v>9.382904094206008</v>
       </c>
       <c r="E82">
-        <v>9.387080904657777</v>
+        <v>9.393609833950476</v>
       </c>
       <c r="F82">
-        <v>9.396474015840345</v>
+        <v>9.376246022680903</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>9.398118233679071</v>
+        <v>9.42421824983286</v>
       </c>
       <c r="C83">
-        <v>9.396025522244313</v>
+        <v>9.403079150009773</v>
       </c>
       <c r="D83">
-        <v>9.410139178339746</v>
+        <v>9.404071192004803</v>
       </c>
       <c r="E83">
-        <v>9.40811520371297</v>
+        <v>9.413930366355928</v>
       </c>
       <c r="F83">
-        <v>9.417968093029167</v>
+        <v>9.397246842867409</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>9.419125376131163</v>
+        <v>9.444814901333109</v>
       </c>
       <c r="C84">
-        <v>9.417030949949115</v>
+        <v>9.423972269476989</v>
       </c>
       <c r="D84">
-        <v>9.431162273088647</v>
+        <v>9.425139099159908</v>
       </c>
       <c r="E84">
-        <v>9.429046622925208</v>
+        <v>9.434145960414572</v>
       </c>
       <c r="F84">
-        <v>9.43933181337392</v>
+        <v>9.418148891939756</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>9.44003631833912</v>
+        <v>9.465301898877348</v>
       </c>
       <c r="C85">
-        <v>9.437939299760854</v>
+        <v>9.444765505959893</v>
       </c>
       <c r="D85">
-        <v>9.452084573226932</v>
+        <v>9.446107065185375</v>
       </c>
       <c r="E85">
-        <v>9.449874624151697</v>
+        <v>9.45425668751551</v>
       </c>
       <c r="F85">
-        <v>9.460565081758874</v>
+        <v>9.438951672979753</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>9.460850431168755</v>
+        <v>9.485679177391333</v>
       </c>
       <c r="C86">
-        <v>9.458749942802569</v>
+        <v>9.465458372097473</v>
       </c>
       <c r="D86">
-        <v>9.472905640167051</v>
+        <v>9.466974348170806</v>
       </c>
       <c r="E86">
-        <v>9.470598679158361</v>
+        <v>9.474262619042479</v>
       </c>
       <c r="F86">
-        <v>9.48166785064755</v>
+        <v>9.459654697507682</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>9.481567090666392</v>
+        <v>9.505946678925778</v>
       </c>
       <c r="C87">
-        <v>9.479462259398776</v>
+        <v>9.48605038968504</v>
       </c>
       <c r="D87">
-        <v>9.493625045972964</v>
+        <v>9.487740220684808</v>
       </c>
       <c r="E87">
-        <v>9.491218269723147</v>
+        <v>9.494163826287357</v>
       </c>
       <c r="F87">
-        <v>9.502640113597232</v>
+        <v>9.480257485847261</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>9.502185678388726</v>
+        <v>9.526104352258351</v>
       </c>
       <c r="C88">
-        <v>9.500075639274591</v>
+        <v>9.506541086812058</v>
       </c>
       <c r="D88">
-        <v>9.514242373205915</v>
+        <v>9.508403966772581</v>
       </c>
       <c r="E88">
-        <v>9.511732887727888</v>
+        <v>9.513960380508092</v>
       </c>
       <c r="F88">
-        <v>9.52348189966593</v>
+        <v>9.500759567456333</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>9.522705581718423</v>
+        <v>9.546152152742616</v>
       </c>
       <c r="C89">
-        <v>9.520589481736211</v>
+        <v>9.526929998300972</v>
       </c>
       <c r="D89">
-        <v>9.534757214768206</v>
+        <v>9.52896487999733</v>
       </c>
       <c r="E89">
-        <v>9.532142035239458</v>
+        <v>9.533652352912952</v>
       </c>
       <c r="F89">
-        <v>9.544193268591593</v>
+        <v>9.521160480182306</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>9.543126194165589</v>
+        <v>9.566090041960889</v>
       </c>
       <c r="C90">
-        <v>9.54100319583266</v>
+        <v>9.547216664872826</v>
       </c>
       <c r="D90">
-        <v>9.555169173745393</v>
+        <v>9.549422269933959</v>
       </c>
       <c r="E90">
-        <v>9.552445224580586</v>
+        <v>9.553239814660936</v>
       </c>
       <c r="F90">
-        <v>9.564774306638357</v>
+        <v>9.54145977087909</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>9.563446915655382</v>
+        <v>9.585917987537652</v>
       </c>
       <c r="C91">
-        <v>9.561316200500714</v>
+        <v>9.567400636305134</v>
       </c>
       <c r="D91">
-        <v>9.575477863247391</v>
+        <v>9.569775459557761</v>
       </c>
       <c r="E91">
-        <v>9.572641978390539</v>
+        <v>9.572722836956427</v>
       </c>
       <c r="F91">
-        <v>9.585225123017956</v>
+        <v>9.561656995075328</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>9.583667152801853</v>
+        <v>9.605635962896416</v>
       </c>
       <c r="C92">
-        <v>9.581527924691823</v>
+        <v>9.587481469192801</v>
       </c>
       <c r="D92">
-        <v>9.59568290624895</v>
+        <v>9.590023783973143</v>
       </c>
       <c r="E92">
-        <v>9.592731829675888</v>
+        <v>9.592101490835818</v>
       </c>
       <c r="F92">
-        <v>9.605545846806431</v>
+        <v>9.581751716762474</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>9.603786319168243</v>
+        <v>9.625243947002408</v>
       </c>
       <c r="C93">
-        <v>9.601637807483462</v>
+        <v>9.607458726684028</v>
       </c>
       <c r="D93">
-        <v>9.615783935429679</v>
+        <v>9.610166592601045</v>
       </c>
       <c r="E93">
-        <v>9.612714321852158</v>
+        <v>9.611375847327908</v>
       </c>
       <c r="F93">
-        <v>9.625736624287065</v>
+        <v>9.601743508762931</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>9.623803835513854</v>
+        <v>9.644741924220897</v>
       </c>
       <c r="C94">
-        <v>9.621645298174659</v>
+        <v>9.627331979347005</v>
       </c>
       <c r="D94">
-        <v>9.635780593014049</v>
+        <v>9.630203251641786</v>
       </c>
       <c r="E94">
-        <v>9.632589008776012</v>
+        <v>9.630545977410765</v>
       </c>
       <c r="F94">
-        <v>9.645797616659852</v>
+        <v>9.621631952335292</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>9.643719130027774</v>
+        <v>9.664129884031823</v>
       </c>
       <c r="C95">
-        <v>9.641549856367652</v>
+        <v>9.647100806259772</v>
       </c>
       <c r="D95">
-        <v>9.655672530611598</v>
+        <v>9.650133141146123</v>
       </c>
       <c r="E95">
-        <v>9.652355454768639</v>
+        <v>9.649611952011899</v>
       </c>
       <c r="F95">
-        <v>9.66572899806612</v>
+        <v>9.641416637148561</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>9.663531638549598</v>
+        <v>9.683407820917033</v>
       </c>
       <c r="C96">
-        <v>9.661350952034448</v>
+        <v>9.666764793813705</v>
       </c>
       <c r="D96">
-        <v>9.675459409057586</v>
+        <v>9.669955654106971</v>
       </c>
       <c r="E96">
-        <v>9.672013234630715</v>
+        <v>9.668573842117251</v>
       </c>
       <c r="F96">
-        <v>9.685530953884044</v>
+        <v>9.66109716146628</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>9.683240804777411</v>
+        <v>9.702575734146354</v>
       </c>
       <c r="C97">
-        <v>9.681048065570558</v>
+        <v>9.686323534610954</v>
       </c>
       <c r="D97">
-        <v>9.695140898254349</v>
+        <v>9.68967020274736</v>
       </c>
       <c r="E97">
-        <v>9.691561933649124</v>
+        <v>9.687431718528027</v>
       </c>
       <c r="F97">
-        <v>9.705203679257062</v>
+        <v>9.680673131717382</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>9.702846080463226</v>
+        <v>9.721633627600152</v>
       </c>
       <c r="C98">
-        <v>9.700640687835667</v>
+        <v>9.705776630274233</v>
       </c>
       <c r="D98">
-        <v>9.714716677013532</v>
+        <v>9.709276214477756</v>
       </c>
       <c r="E98">
-        <v>9.71100114759567</v>
+        <v>9.706185652045848</v>
       </c>
       <c r="F98">
-        <v>9.724747377822574</v>
+        <v>9.700144162684008</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>9.722346925596103</v>
+        <v>9.740581509481363</v>
       </c>
       <c r="C99">
-        <v>9.720128320182877</v>
+        <v>9.725123690054069</v>
       </c>
       <c r="D99">
-        <v>9.734186432899426</v>
+        <v>9.728773130242494</v>
       </c>
       <c r="E99">
-        <v>9.73033048271853</v>
+        <v>9.724835713423655</v>
       </c>
       <c r="F99">
-        <v>9.744162260612969</v>
+        <v>9.719509877414474</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>9.741742808573195</v>
+        <v>9.759419392522222</v>
       </c>
       <c r="C100">
-        <v>9.739510474475738</v>
+        <v>9.744364330751564</v>
       </c>
       <c r="D100">
-        <v>9.753549862073477</v>
+        <v>9.748160409193718</v>
       </c>
       <c r="E100">
-        <v>9.749549555726086</v>
+        <v>9.743381973365446</v>
       </c>
       <c r="F100">
-        <v>9.763448545104673</v>
+        <v>9.738769906884922</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>9.761033206358947</v>
+        <v>9.778147293231445</v>
       </c>
       <c r="C101">
-        <v>9.758786673094738</v>
+        <v>9.763498175787754</v>
       </c>
       <c r="D101">
-        <v>9.772806669140202</v>
+        <v>9.767437525932708</v>
       </c>
       <c r="E101">
-        <v>9.768657993763844</v>
+        <v>9.761824502587574</v>
       </c>
       <c r="F101">
-        <v>9.782606454394925</v>
+        <v>9.757923890294347</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>9.780217604632723</v>
+        <v>9.796765232196041</v>
       </c>
       <c r="C102">
-        <v>9.777956448933296</v>
+        <v>9.782524857891199</v>
       </c>
       <c r="D102">
-        <v>9.791956566994628</v>
+        <v>9.786603971229935</v>
       </c>
       <c r="E102">
-        <v>9.787655434384737</v>
+        <v>9.780163371683784</v>
       </c>
       <c r="F102">
-        <v>9.801636216488964</v>
+        <v>9.776971474740566</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>9.799295497925067</v>
+        <v>9.815273234090261</v>
       </c>
       <c r="C103">
-        <v>9.797019345384404</v>
+        <v>9.801444017187624</v>
       </c>
       <c r="D103">
-        <v>9.810999276671298</v>
+        <v>9.805659252571644</v>
       </c>
       <c r="E103">
-        <v>9.806541525512962</v>
+        <v>9.79839865122791</v>
       </c>
       <c r="F103">
-        <v>9.820538063681308</v>
+        <v>9.795912315120646</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>9.818266389742892</v>
+        <v>9.833671326846334</v>
       </c>
       <c r="C104">
-        <v>9.815974916317739</v>
+        <v>9.820255301171677</v>
       </c>
       <c r="D104">
-        <v>9.829934527195048</v>
+        <v>9.824602893771312</v>
       </c>
       <c r="E104">
-        <v>9.825315925401631</v>
+        <v>9.816530411746838</v>
       </c>
       <c r="F104">
-        <v>9.839312232019187</v>
+        <v>9.814746074229314</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>9.83712979268382</v>
+        <v>9.851959542307794</v>
       </c>
       <c r="C105">
-        <v>9.834822726048138</v>
+        <v>9.83895836482559</v>
       </c>
       <c r="D105">
-        <v>9.848762055433525</v>
+        <v>9.843434435520933</v>
       </c>
       <c r="E105">
-        <v>9.843978302584866</v>
+        <v>9.834558723720397</v>
       </c>
       <c r="F105">
-        <v>9.857958960836591</v>
+        <v>9.833472422503503</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>9.855885228539973</v>
+        <v>9.870137915669536</v>
       </c>
       <c r="C106">
-        <v>9.853562349295911</v>
+        <v>9.857552871854409</v>
       </c>
       <c r="D106">
-        <v>9.867481605951633</v>
+        <v>9.862153434783185</v>
       </c>
       <c r="E106">
-        <v>9.862528335824004</v>
+        <v>9.852483657586893</v>
       </c>
       <c r="F106">
-        <v>9.876478492349175</v>
+        <v>9.852091037996052</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>9.874532228391432</v>
+        <v>9.888206485323359</v>
       </c>
       <c r="C107">
-        <v>9.872193371139645</v>
+        <v>9.876038493523032</v>
       </c>
       <c r="D107">
-        <v>9.88609293086788</v>
+        <v>9.88075946516032</v>
       </c>
       <c r="E107">
-        <v>9.880965714048665</v>
+        <v>9.870305283730758</v>
       </c>
       <c r="F107">
-        <v>9.894871071302008</v>
+        <v>9.870601606333985</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>9.893070332689677</v>
+        <v>9.906165293149964</v>
       </c>
       <c r="C108">
-        <v>9.890715386961713</v>
+        <v>9.894414908060096</v>
       </c>
       <c r="D108">
-        <v>9.904595789712744</v>
+        <v>9.899252117078992</v>
       </c>
       <c r="E108">
-        <v>9.89929013629278</v>
+        <v>9.888023672491713</v>
       </c>
       <c r="F108">
-        <v>9.913136944662918</v>
+        <v>9.889003820529402</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>9.911499091331235</v>
+        <v>9.924014383892054</v>
       </c>
       <c r="C109">
-        <v>9.909128002386947</v>
+        <v>9.912681802059158</v>
       </c>
       <c r="D109">
-        <v>9.922989949289049</v>
+        <v>9.917630996293925</v>
       </c>
       <c r="E109">
-        <v>9.917501311625871</v>
+        <v>9.905638894162307</v>
       </c>
       <c r="F109">
-        <v>9.931276361355401</v>
+        <v>9.907297380992489</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>9.929818063721839</v>
+        <v>9.941753805363797</v>
       </c>
       <c r="C110">
-        <v>9.927430833215054</v>
+        <v>9.930838870071698</v>
       </c>
       <c r="D110">
-        <v>9.941275183534467</v>
+        <v>9.935895725898533</v>
       </c>
       <c r="E110">
-        <v>9.935598959079734</v>
+        <v>9.923151018987818</v>
       </c>
       <c r="F110">
-        <v>9.949289572025767</v>
+        <v>9.925481995393412</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>9.948026818831343</v>
+        <v>9.959383608299596</v>
       </c>
       <c r="C111">
-        <v>9.945623505347221</v>
+        <v>9.948885814256515</v>
       </c>
       <c r="D111">
-        <v>9.959451273386065</v>
+        <v>9.954045944297887</v>
       </c>
       <c r="E111">
-        <v>9.953582807571117</v>
+        <v>9.940560117159922</v>
       </c>
       <c r="F111">
-        <v>9.967176828840053</v>
+        <v>9.943557378544147</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>9.966124935239678</v>
+        <v>9.97690384611326</v>
       </c>
       <c r="C112">
-        <v>9.963705654707274</v>
+        <v>9.966822343531383</v>
       </c>
       <c r="D112">
-        <v>9.977518006647053</v>
+        <v>9.972081306085759</v>
       </c>
       <c r="E112">
-        <v>9.971452595820104</v>
+        <v>9.957866258829927</v>
       </c>
       <c r="F112">
-        <v>9.984938385306748</v>
+        <v>9.961523252381106</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>9.984112001174113</v>
+        <v>9.994314575083056</v>
       </c>
       <c r="C113">
-        <v>9.981676927157583</v>
+        <v>9.984648175623873</v>
       </c>
       <c r="D113">
-        <v>9.995475177855594</v>
+        <v>9.990001481753184</v>
       </c>
       <c r="E113">
-        <v>9.989208072264883</v>
+        <v>9.975069514098736</v>
       </c>
       <c r="F113">
-        <v>10.00257449612196</v>
+        <v>9.979379345816634</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>10.0019876145381</v>
+        <v>10.01161585399206</v>
       </c>
       <c r="C114">
-        <v>9.999536978410346</v>
+        <v>10.00236303558842</v>
       </c>
       <c r="D114">
-        <v>10.01332258815589</v>
+        <v>10.00780615707071</v>
       </c>
       <c r="E114">
-        <v>10.00684899497294</v>
+        <v>9.992169953019109</v>
       </c>
       <c r="F114">
-        <v>10.02008541703409</v>
+        <v>9.997125394655464</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>10.01975138293199</v>
+        <v>10.02880774411803</v>
       </c>
       <c r="C115">
-        <v>10.01728547393452</v>
+        <v>10.01996665586823</v>
       </c>
       <c r="D115">
-        <v>10.03106004517132</v>
+        <v>10.0254950336104</v>
       </c>
       <c r="E115">
-        <v>10.02437513154894</v>
+        <v>10.00916764559562</v>
       </c>
       <c r="F115">
-        <v>10.03747140472558</v>
+        <v>10.01476114153578</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>10.03740292366579</v>
+        <v>10.04589030936078</v>
       </c>
       <c r="C116">
-        <v>10.03492208885885</v>
+        <v>10.03745877605648</v>
       </c>
       <c r="D116">
-        <v>10.04868736287985</v>
+        <v>10.0430678277298</v>
       </c>
       <c r="E116">
-        <v>10.04178625903953</v>
+        <v>10.02606266179398</v>
       </c>
       <c r="F116">
-        <v>10.0547327167094</v>
+        <v>10.03228633580133</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>10.05494186376446</v>
+        <v>10.06286361580107</v>
       </c>
       <c r="C117">
-        <v>10.052446507871</v>
+        <v>10.05483914397753</v>
       </c>
       <c r="D117">
-        <v>10.06620436149149</v>
+        <v>10.06052427109588</v>
       </c>
       <c r="E117">
-        <v>10.05908216383535</v>
+        <v>10.04285507152085</v>
       </c>
       <c r="F117">
-        <v>10.07186961123855</v>
+        <v>10.0497007334308</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>10.07236783996568</v>
+        <v>10.07972773190298</v>
       </c>
       <c r="C118">
-        <v>10.06985842511346</v>
+        <v>10.07210751471074</v>
       </c>
       <c r="D118">
-        <v>10.08361086732812</v>
+        <v>10.07786411006124</v>
       </c>
       <c r="E118">
-        <v>10.07626264157027</v>
+        <v>10.05954494463846</v>
       </c>
       <c r="F118">
-        <v>10.08888234722652</v>
+        <v>10.06700409694562</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>10.08968049871071</v>
+        <v>10.09648272838588</v>
       </c>
       <c r="C119">
-        <v>10.08715754407633</v>
+        <v>10.08926365030966</v>
       </c>
       <c r="D119">
-        <v>10.1009067127052</v>
+        <v>10.09508710538427</v>
       </c>
       <c r="E119">
-        <v>10.0933274970182</v>
+        <v>10.07613235096116</v>
       </c>
       <c r="F119">
-        <v>10.10577118417827</v>
+        <v>10.08419619531888</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>10.10687949612834</v>
+        <v>10.11312867802047</v>
       </c>
       <c r="C120">
-        <v>10.10434357748739</v>
+        <v>10.10630732033849</v>
       </c>
       <c r="D120">
-        <v>10.11809173581591</v>
+        <v>10.11219303237969</v>
       </c>
       <c r="E120">
-        <v>10.11027654398772</v>
+        <v>10.09261736025515</v>
       </c>
       <c r="F120">
-        <v>10.12253638212934</v>
+        <v>10.10127680388089</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>10.1239644980123</v>
+        <v>10.12966565578206</v>
       </c>
       <c r="C121">
-        <v>10.12141624719969</v>
+        <v>10.12323830192696</v>
       </c>
       <c r="D121">
-        <v>10.13516578061717</v>
+        <v>10.12918167985297</v>
       </c>
       <c r="E121">
-        <v>10.12710960521453</v>
+        <v>10.10900004225403</v>
       </c>
       <c r="F121">
-        <v>10.13917820159249</v>
+        <v>10.11824570423687</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>10.1409351797924</v>
+        <v>10.14609373857703</v>
       </c>
       <c r="C122">
-        <v>10.13837528407678</v>
+        <v>10.14005637935558</v>
       </c>
       <c r="D122">
-        <v>10.15212869671796</v>
+        <v>10.14605285076603</v>
       </c>
       <c r="E122">
-        <v>10.14382651225212</v>
+        <v>10.12528046662588</v>
       </c>
       <c r="F122">
-        <v>10.15569690351129</v>
+        <v>10.13510268418425</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>10.15779122649964</v>
+        <v>10.1624130052773</v>
       </c>
       <c r="C123">
-        <v>10.15522042787594</v>
+        <v>10.15676134343899</v>
       </c>
       <c r="D123">
-        <v>10.16898033926965</v>
+        <v>10.16280636128854</v>
       </c>
       <c r="E123">
-        <v>10.16042710536073</v>
+        <v>10.14145870299693</v>
       </c>
       <c r="F123">
-        <v>10.17209274921922</v>
+        <v>10.15184753760322</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>10.17453233272552</v>
+        <v>10.17862353673163</v>
       </c>
       <c r="C124">
-        <v>10.1719514271298</v>
+        <v>10.17335299280522</v>
       </c>
       <c r="D124">
-        <v>10.18572056885842</v>
+        <v>10.17944204066389</v>
       </c>
       <c r="E124">
-        <v>10.17691123339476</v>
+        <v>10.15753482094645</v>
       </c>
       <c r="F124">
-        <v>10.18836600040404</v>
+        <v>10.16848006439516</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>10.19115820257581</v>
+        <v>10.19472541552482</v>
       </c>
       <c r="C125">
-        <v>10.18856803902634</v>
+        <v>10.18983113293736</v>
       </c>
       <c r="D125">
-        <v>10.20234925139972</v>
+        <v>10.19595973114357</v>
       </c>
       <c r="E125">
-        <v>10.19327875368885</v>
+        <v>10.17350889000636</v>
       </c>
       <c r="F125">
-        <v>10.20451691907657</v>
+        <v>10.18500007038335</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>10.20766854961903</v>
+        <v>10.21071872609184</v>
       </c>
       <c r="C126">
-        <v>10.20507002928754</v>
+        <v>10.20619557621256</v>
       </c>
       <c r="D126">
-        <v>10.21886625803484</v>
+        <v>10.2123592873883</v>
       </c>
       <c r="E126">
-        <v>10.20952953194272</v>
+        <v>10.18938097966678</v>
       </c>
       <c r="F126">
-        <v>10.22054576754348</v>
+        <v>10.20140736721484</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>10.22406309682995</v>
+        <v>10.22660355460431</v>
       </c>
       <c r="C127">
-        <v>10.22145717204693</v>
+        <v>10.2224461415803</v>
       </c>
       <c r="D127">
-        <v>10.23527146502934</v>
+        <v>10.22864057643442</v>
       </c>
       <c r="E127">
-        <v>10.22566344210505</v>
+        <v>10.2051511593645</v>
       </c>
       <c r="F127">
-        <v>10.23645280838342</v>
+        <v>10.21770177231208</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>10.24034157652821</v>
+        <v>10.24237998885146</v>
       </c>
       <c r="C128">
-        <v>10.23772924972632</v>
+        <v>10.2385826552993</v>
       </c>
       <c r="D128">
-        <v>10.25156475367363</v>
+        <v>10.24480347725035</v>
       </c>
       <c r="E128">
-        <v>10.24168036625646</v>
+        <v>10.22081949849115</v>
       </c>
       <c r="F128">
-        <v>10.25223830442637</v>
+        <v>10.23388310874179</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>10.25650373031236</v>
+        <v>10.25804811835702</v>
       </c>
       <c r="C129">
-        <v>10.25388605291162</v>
+        <v>10.25460495024881</v>
       </c>
       <c r="D129">
-        <v>10.26774601018534</v>
+        <v>10.26084788050381</v>
       </c>
       <c r="E129">
-        <v>10.25758019449174</v>
+        <v>10.23638606639166</v>
       </c>
       <c r="F129">
-        <v>10.2679025187356</v>
+        <v>10.24995120515579</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>10.27254930898967</v>
+        <v>10.2736080341366</v>
       </c>
       <c r="C130">
-        <v>10.26992738022821</v>
+        <v>10.27051286580403</v>
       </c>
       <c r="D130">
-        <v>10.28381512561379</v>
+        <v>10.27677368827391</v>
       </c>
       <c r="E130">
-        <v>10.27336282480148</v>
+        <v>10.25185093236409</v>
       </c>
       <c r="F130">
-        <v>10.28344571459201</v>
+        <v>10.26590589572695</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>10.28847807250171</v>
+        <v>10.2890598287721</v>
       </c>
       <c r="C131">
-        <v>10.28585303821584</v>
+        <v>10.28630624792875</v>
       </c>
       <c r="D131">
-        <v>10.29977199574616</v>
+        <v>10.29258081370559</v>
       </c>
       <c r="E131">
-        <v>10.28902816295327</v>
+        <v>10.26721416565593</v>
       </c>
       <c r="F131">
-        <v>10.29886815548064</v>
+        <v>10.28174702001533</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>10.30428978984611</v>
+        <v>10.30440359638623</v>
       </c>
       <c r="C132">
-        <v>10.30166284120329</v>
+        <v>10.30198494933616</v>
       </c>
       <c r="D132">
-        <v>10.31561652101573</v>
+        <v>10.30826918079411</v>
       </c>
       <c r="E132">
-        <v>10.30457612237254</v>
+        <v>10.28247583547189</v>
       </c>
       <c r="F132">
-        <v>10.31417010507892</v>
+        <v>10.29747442294582</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>10.31998423899462</v>
+        <v>10.31963943248218</v>
       </c>
       <c r="C133">
-        <v>10.31735661118296</v>
+        <v>10.31754882912329</v>
       </c>
       <c r="D133">
-        <v>10.33134860641178</v>
+        <v>10.32383872402563</v>
       </c>
       <c r="E133">
-        <v>10.32000662402321</v>
+        <v>10.29763601096854</v>
       </c>
       <c r="F133">
-        <v>10.32935182724675</v>
+        <v>10.31308795470967</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>10.33556120680771</v>
+        <v>10.334767434028</v>
       </c>
       <c r="C134">
-        <v>10.33293417768539</v>
+        <v>10.33299775248735</v>
       </c>
       <c r="D134">
-        <v>10.34696816139145</v>
+        <v>10.3392893881203</v>
       </c>
       <c r="E134">
-        <v>10.33531959628825</v>
+        <v>10.31269476125537</v>
       </c>
       <c r="F134">
-        <v>10.34441358601791</v>
+        <v>10.32858747062027</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>10.35102048894595</v>
+        <v>10.34978769935275</v>
       </c>
       <c r="C135">
-        <v>10.34839537765405</v>
+        <v>10.3483315911663</v>
       </c>
       <c r="D135">
-        <v>10.36247509979325</v>
+        <v>10.35462112774704</v>
       </c>
       <c r="E135">
-        <v>10.35051497485031</v>
+        <v>10.32765215539492</v>
       </c>
       <c r="F135">
-        <v>10.35935564559281</v>
+        <v>10.34397283108047</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>10.36636188977831</v>
+        <v>10.36470032808753</v>
       </c>
       <c r="C136">
-        <v>10.36374005532029</v>
+        <v>10.36355022309291</v>
       </c>
       <c r="D136">
-        <v>10.37786933975245</v>
+        <v>10.3698339072511</v>
       </c>
       <c r="E136">
-        <v>10.36559270257243</v>
+        <v>10.34250826239995</v>
       </c>
       <c r="F136">
-        <v>10.37417827033241</v>
+        <v>10.35924390158023</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>10.38158522228765</v>
+        <v>10.37950542122744</v>
       </c>
       <c r="C137">
-        <v>10.37896806207872</v>
+        <v>10.37865353229374</v>
       </c>
       <c r="D137">
-        <v>10.39315080361805</v>
+        <v>10.3849277003169</v>
       </c>
       <c r="E137">
-        <v>10.38055272937896</v>
+        <v>10.35726315123937</v>
       </c>
       <c r="F137">
-        <v>10.38888172475307</v>
+        <v>10.37440055261292</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>10.39669030797346</v>
+        <v>10.39420308096557</v>
       </c>
       <c r="C138">
-        <v>10.39407925636313</v>
+        <v>10.39364140865688</v>
       </c>
       <c r="D138">
-        <v>10.40831941787155</v>
+        <v>10.39990248983976</v>
       </c>
       <c r="E138">
-        <v>10.39539501213691</v>
+        <v>10.37191689083424</v>
       </c>
       <c r="F138">
-        <v>10.40346627352244</v>
+        <v>10.38944265934205</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>10.41167697675231</v>
+        <v>10.40879341074723</v>
       </c>
       <c r="C139">
-        <v>10.4090735035229</v>
+        <v>10.40851374827463</v>
       </c>
       <c r="D139">
-        <v>10.42337511304733</v>
+        <v>10.41475826746371</v>
       </c>
       <c r="E139">
-        <v>10.41011951453764</v>
+        <v>10.38646955005843</v>
       </c>
       <c r="F139">
-        <v>10.41793218145623</v>
+        <v>10.40437010175906</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>10.42654506685586</v>
+        <v>10.42327651523862</v>
       </c>
       <c r="C140">
-        <v>10.42395067570017</v>
+        <v>10.42327045305272</v>
       </c>
       <c r="D140">
-        <v>10.43831782365467</v>
+        <v>10.42949503346966</v>
       </c>
       <c r="E140">
-        <v>10.4247262069792</v>
+        <v>10.40092119773879</v>
       </c>
       <c r="F140">
-        <v>10.43227971351553</v>
+        <v>10.41918276464576</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>10.4412944247268</v>
+        <v>10.43765250022209</v>
       </c>
       <c r="C141">
-        <v>10.4387106517077</v>
+        <v>10.43791143064235</v>
       </c>
       <c r="D141">
-        <v>10.45314748810135</v>
+        <v>10.44411279649925</v>
       </c>
       <c r="E141">
-        <v>10.43921506644909</v>
+        <v>10.41527190265718</v>
       </c>
       <c r="F141">
-        <v>10.44650913480481</v>
+        <v>10.4338805375707</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>10.45592490491297</v>
+        <v>10.45192147265645</v>
       </c>
       <c r="C142">
-        <v>10.45335331690764</v>
+        <v>10.45243659436713</v>
       </c>
       <c r="D142">
-        <v>10.46786404861885</v>
+        <v>10.4586115731833</v>
       </c>
       <c r="E142">
-        <v>10.45358607640788</v>
+        <v>10.42952173354636</v>
       </c>
       <c r="F142">
-        <v>10.46062071057056</v>
+        <v>10.44846331435765</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>10.47043636995957</v>
+        <v>10.46608354058456</v>
       </c>
       <c r="C143">
-        <v>10.46787856309117</v>
+        <v>10.46684586329142</v>
       </c>
       <c r="D143">
-        <v>10.48246745118905</v>
+        <v>10.47299138811806</v>
       </c>
       <c r="E143">
-        <v>10.46783922667349</v>
+        <v>10.44367075909276</v>
       </c>
       <c r="F143">
-        <v>10.47461470620051</v>
+        <v>10.46293099340894</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>10.48482869029987</v>
+        <v>10.48013881311108</v>
       </c>
       <c r="C144">
-        <v>10.48228628835918</v>
+        <v>10.48113916199349</v>
       </c>
       <c r="D144">
-        <v>10.49695764547249</v>
+        <v>10.48725227335438</v>
       </c>
       <c r="E144">
-        <v>10.48197451330637</v>
+        <v>10.45771904793607</v>
       </c>
       <c r="F144">
-        <v>10.4884913872232</v>
+        <v>10.47728347761135</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>10.49910174414448</v>
+        <v>10.49408740043137</v>
       </c>
       <c r="C145">
-        <v>10.49657639700387</v>
+        <v>10.4953164204494</v>
       </c>
       <c r="D145">
-        <v>10.51133458473803</v>
+        <v>10.50139426838368</v>
       </c>
       <c r="E145">
-        <v>10.49599193849552</v>
+        <v>10.47166666866916</v>
       </c>
       <c r="F145">
-        <v>10.50225101930802</v>
+        <v>10.49152067442711</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>10.51325541736929</v>
+        <v>10.50792941371581</v>
       </c>
       <c r="C146">
-        <v>10.51074879939161</v>
+        <v>10.50937757405981</v>
       </c>
       <c r="D146">
-        <v>10.52559822579407</v>
+        <v>10.51541741981672</v>
       </c>
       <c r="E146">
-        <v>10.50989151044549</v>
+        <v>10.48551368984131</v>
       </c>
       <c r="F146">
-        <v>10.51589386826565</v>
+        <v>10.50564249523336</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>10.52728960340233</v>
+        <v>10.52166496515152</v>
       </c>
       <c r="C147">
-        <v>10.52480341184686</v>
+        <v>10.52332256353685</v>
       </c>
       <c r="D147">
-        <v>10.53974852892107</v>
+        <v>10.52932178109749</v>
       </c>
       <c r="E147">
-        <v>10.52367324326448</v>
+        <v>10.49926017995177</v>
       </c>
       <c r="F147">
-        <v>10.52942020004882</v>
+        <v>10.51964885573477</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>10.54120420310963</v>
+        <v>10.53529416790925</v>
       </c>
       <c r="C148">
-        <v>10.53874015653735</v>
+        <v>10.53715133479453</v>
       </c>
       <c r="D148">
-        <v>10.55378545780558</v>
+        <v>10.54310741248658</v>
       </c>
       <c r="E148">
-        <v>10.53733715685338</v>
+        <v>10.51290620745399</v>
       </c>
       <c r="F148">
-        <v>10.54283028075342</v>
+        <v>10.53353967581592</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>10.55499912468017</v>
+        <v>10.54881713607454</v>
       </c>
       <c r="C149">
-        <v>10.5525589613604</v>
+        <v>10.55086383884184</v>
       </c>
       <c r="D149">
-        <v>10.56770897947553</v>
+        <v>10.55677438056007</v>
       </c>
       <c r="E149">
-        <v>10.55088327679609</v>
+        <v>10.52645184075512</v>
       </c>
       <c r="F149">
-        <v>10.55612437661978</v>
+        <v>10.54731487967186</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>10.56867428351021</v>
+        <v>10.56223398472752</v>
       </c>
       <c r="C150">
-        <v>10.56625975983064</v>
+        <v>10.5644600317741</v>
       </c>
       <c r="D150">
-        <v>10.58151906423698</v>
+        <v>10.57032275828928</v>
       </c>
       <c r="E150">
-        <v>10.56431163425094</v>
+        <v>10.53989714821584</v>
       </c>
       <c r="F150">
-        <v>10.56930275403439</v>
+        <v>10.56097439518251</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>10.582229602087</v>
+        <v>10.57554482979218</v>
       </c>
       <c r="C151">
-        <v>10.57984249096904</v>
+        <v>10.57793987463665</v>
       </c>
       <c r="D151">
-        <v>10.59521568561211</v>
+        <v>10.5837526246498</v>
       </c>
       <c r="E151">
-        <v>10.57762226584335</v>
+        <v>10.55324219815117</v>
       </c>
       <c r="F151">
-        <v>10.58236567953166</v>
+        <v>10.57451815428039</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>10.59566500987196</v>
+        <v>10.5887497880581</v>
       </c>
       <c r="C152">
-        <v>10.59330709919328</v>
+        <v>10.59130333335874</v>
       </c>
       <c r="D152">
-        <v>10.60879882027831</v>
+        <v>10.59706406446297</v>
       </c>
       <c r="E152">
-        <v>10.5908152135598</v>
+        <v>10.56648705882898</v>
       </c>
       <c r="F152">
-        <v>10.595313419796</v>
+        <v>10.58794609279633</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>10.60898044318363</v>
+        <v>10.60184897715452</v>
       </c>
       <c r="C153">
-        <v>10.6066535342094</v>
+        <v>10.60455037867363</v>
       </c>
       <c r="D153">
-        <v>10.62226844800876</v>
+        <v>10.61025716834404</v>
       </c>
       <c r="E153">
-        <v>10.60389052464303</v>
+        <v>10.57963179847099</v>
       </c>
       <c r="F153">
-        <v>10.60814624166411</v>
+        <v>10.60125815061132</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>10.62217584508033</v>
+        <v>10.6148425157222</v>
       </c>
       <c r="C154">
-        <v>10.61988175090505</v>
+        <v>10.61768098602048</v>
       </c>
       <c r="D154">
-        <v>10.63562455161431</v>
+        <v>10.62333203225358</v>
       </c>
       <c r="E154">
-        <v>10.61684825148865</v>
+        <v>10.59267648525271</v>
       </c>
       <c r="F154">
-        <v>10.62086441212737</v>
+        <v>10.61445427106847</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>10.63525116524267</v>
+        <v>10.62773052303182</v>
       </c>
       <c r="C155">
-        <v>10.63299170924402</v>
+        <v>10.63069513547434</v>
       </c>
       <c r="D155">
-        <v>10.64886711688654</v>
+        <v>10.63628875763993</v>
       </c>
       <c r="E155">
-        <v>10.62968845154315</v>
+        <v>10.60562118730344</v>
       </c>
       <c r="F155">
-        <v>10.63346819833441</v>
+        <v>10.62753440130125</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>10.64820635985618</v>
+        <v>10.64051311914938</v>
       </c>
       <c r="C156">
-        <v>10.64598337416233</v>
+        <v>10.64359281169579</v>
       </c>
       <c r="D156">
-        <v>10.66199613254175</v>
+        <v>10.64912745097747</v>
       </c>
       <c r="E156">
-        <v>10.64241118720321</v>
+        <v>10.61846597270528</v>
       </c>
       <c r="F156">
-        <v>10.64595786759392</v>
+        <v>10.64049849207911</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>10.66104139149386</v>
+        <v>10.65319042490424</v>
       </c>
       <c r="C157">
-        <v>10.65885671546563</v>
+        <v>10.65637400380907</v>
       </c>
       <c r="D157">
-        <v>10.67501159016624</v>
+        <v>10.66184822376261</v>
       </c>
       <c r="E157">
-        <v>10.65501652571662</v>
+        <v>10.63121090949519</v>
       </c>
       <c r="F157">
-        <v>10.65833368737747</v>
+        <v>10.65334649799948</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>10.67375622899905</v>
+        <v>10.66576256219983</v>
       </c>
       <c r="C158">
-        <v>10.67161170772828</v>
+        <v>10.66903870531206</v>
       </c>
       <c r="D158">
-        <v>10.68791348416279</v>
+        <v>10.67445119238176</v>
       </c>
       <c r="E158">
-        <v>10.66750453908448</v>
+        <v>10.64385606566379</v>
       </c>
       <c r="F158">
-        <v>10.67059592532256</v>
+        <v>10.66607837687326</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>10.68635084736853</v>
+        <v>10.67822965337565</v>
       </c>
       <c r="C159">
-        <v>10.68424833019376</v>
+        <v>10.68158691402176</v>
       </c>
       <c r="D159">
-        <v>10.70070181169819</v>
+        <v>10.68693647776334</v>
       </c>
       <c r="E159">
-        <v>10.67987530396497</v>
+        <v>10.65640150915549</v>
       </c>
       <c r="F159">
-        <v>10.68274484923564</v>
+        <v>10.67869409006605</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>10.69882522763602</v>
+        <v>10.69059182152045</v>
       </c>
       <c r="C160">
-        <v>10.69676656667667</v>
+        <v>10.69401863208139</v>
       </c>
       <c r="D160">
-        <v>10.71337657265189</v>
+        <v>10.69930420552044</v>
       </c>
       <c r="E160">
-        <v>10.69212890157865</v>
+        <v>10.66884730786862</v>
       </c>
       <c r="F160">
-        <v>10.69478072709546</v>
+        <v>10.69119360233244</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>10.71117935675606</v>
+        <v>10.70284919044355</v>
       </c>
       <c r="C161">
-        <v>10.70916640546617</v>
+        <v>10.70633386569613</v>
       </c>
       <c r="D161">
-        <v>10.72593776956571</v>
+        <v>10.71155450548818</v>
       </c>
       <c r="E161">
-        <v>10.7042654176152</v>
+        <v>10.68119352965487</v>
       </c>
       <c r="F161">
-        <v>10.70670382705635</v>
+        <v>10.70357688207847</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>10.72341322748853</v>
+        <v>10.71500188490505</v>
       </c>
       <c r="C162">
-        <v>10.721447839231</v>
+        <v>10.71853262517695</v>
       </c>
       <c r="D162">
-        <v>10.7383854075945</v>
+        <v>10.7236875118147</v>
       </c>
       <c r="E162">
-        <v>10.71628494214208</v>
+        <v>10.69344024232046</v>
       </c>
       <c r="F162">
-        <v>10.71851441745166</v>
+        <v>10.71584390065562</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>10.73552683828371</v>
+        <v>10.72705003011024</v>
       </c>
       <c r="C163">
-        <v>10.73361086492595</v>
+        <v>10.73061492485886</v>
       </c>
       <c r="D163">
-        <v>10.75071949445793</v>
+        <v>10.73570336276655</v>
       </c>
       <c r="E163">
-        <v>10.72818756951393</v>
+        <v>10.70558751362556</v>
       </c>
       <c r="F163">
-        <v>10.73021276679735</v>
+        <v>10.72799463276091</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>10.74752019316806</v>
+        <v>10.73899375195324</v>
       </c>
       <c r="C164">
-        <v>10.74565548369992</v>
+        <v>10.74258078308355</v>
       </c>
       <c r="D164">
-        <v>10.76294004039322</v>
+        <v>10.74760220049209</v>
       </c>
       <c r="E164">
-        <v>10.73997339828404</v>
+        <v>10.71763541128424</v>
       </c>
       <c r="F164">
-        <v>10.74179914379555</v>
+        <v>10.74002905626486</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>10.75939330163072</v>
+        <v>10.75083317699812</v>
       </c>
       <c r="C165">
-        <v>10.75758170080537</v>
+        <v>10.75443022193917</v>
       </c>
       <c r="D165">
-        <v>10.77504705810888</v>
+        <v>10.7593841711173</v>
       </c>
       <c r="E165">
-        <v>10.75164253111757</v>
+        <v>10.72958400296468</v>
       </c>
       <c r="F165">
-        <v>10.75327381733823</v>
+        <v>10.75194715244555</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>10.77114617851086</v>
+        <v>10.76256843260376</v>
       </c>
       <c r="C166">
-        <v>10.76938952550943</v>
+        <v>10.76616326732497</v>
       </c>
       <c r="D166">
-        <v>10.78704056273933</v>
+        <v>10.77104942435262</v>
       </c>
       <c r="E166">
-        <v>10.76319507470514</v>
+        <v>10.7414333562896</v>
       </c>
       <c r="F166">
-        <v>10.76463705651097</v>
+        <v>10.76374890538894</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>10.78277884388591</v>
+        <v>10.77419964662104</v>
       </c>
       <c r="C167">
-        <v>10.78107897100638</v>
+        <v>10.77777994891202</v>
       </c>
       <c r="D167">
-        <v>10.79892057180056</v>
+        <v>10.78259811369996</v>
       </c>
       <c r="E167">
-        <v>10.77463113968049</v>
+        <v>10.7531835388354</v>
       </c>
       <c r="F167">
-        <v>10.77588913059681</v>
+        <v>10.77543430226514</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>10.79429132296072</v>
+        <v>10.785726947529</v>
       </c>
       <c r="C168">
-        <v>10.79265005433173</v>
+        <v>10.78928030001604</v>
       </c>
       <c r="D168">
-        <v>10.8106871051466</v>
+        <v>10.79403039607558</v>
       </c>
       <c r="E168">
-        <v>10.78595084053796</v>
+        <v>10.76483461813274</v>
       </c>
       <c r="F168">
-        <v>10.78703030908021</v>
+        <v>10.78700333323167</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>10.80568364595769</v>
+        <v>10.79715046442166</v>
       </c>
       <c r="C169">
-        <v>10.80410279627776</v>
+        <v>10.80066435744117</v>
       </c>
       <c r="D169">
-        <v>10.82234018492696</v>
+        <v>10.80534643163617</v>
       </c>
       <c r="E169">
-        <v>10.79715429555154</v>
+        <v>10.77638666166657</v>
       </c>
       <c r="F169">
-        <v>10.79806086165097</v>
+        <v>10.79845599159423</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>10.81695584800799</v>
+        <v>10.80847032704471</v>
       </c>
       <c r="C170">
-        <v>10.81543722131048</v>
+        <v>10.81193216150661</v>
       </c>
       <c r="D170">
-        <v>10.8338798355449</v>
+        <v>10.81654638377072</v>
       </c>
       <c r="E170">
-        <v>10.80824162669543</v>
+        <v>10.78783973687607</v>
       </c>
       <c r="F170">
-        <v>10.80898105820832</v>
+        <v>10.80979227336211</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>10.82810796904385</v>
+        <v>10.81968666566687</v>
       </c>
       <c r="C171">
-        <v>10.82665335748817</v>
+        <v>10.82308375609047</v>
       </c>
       <c r="D171">
-        <v>10.84530608361656</v>
+        <v>10.8276304197633</v>
       </c>
       <c r="E171">
-        <v>10.81921295956661</v>
+        <v>10.79919391115538</v>
       </c>
       <c r="F171">
-        <v>10.81979116886496</v>
+        <v>10.82101217738078</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>10.839140053692</v>
+        <v>10.83079961112491</v>
       </c>
       <c r="C172">
-        <v>10.83775123638138</v>
+        <v>10.83411918830651</v>
       </c>
       <c r="D172">
-        <v>10.85661895793101</v>
+        <v>10.83859870903471</v>
       </c>
       <c r="E172">
-        <v>10.83006842330933</v>
+        <v>10.81044925185242</v>
       </c>
       <c r="F172">
-        <v>10.83049146395131</v>
+        <v>10.83211570530317</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>10.85005215116823</v>
+        <v>10.84180929481146</v>
       </c>
       <c r="C173">
-        <v>10.84873089299426</v>
+        <v>10.84503850856114</v>
       </c>
       <c r="D173">
-        <v>10.86781848941096</v>
+        <v>10.84945142414083</v>
       </c>
       <c r="E173">
-        <v>10.84080815054065</v>
+        <v>10.82160582626957</v>
       </c>
       <c r="F173">
-        <v>10.84108221401967</v>
+        <v>10.84310286169819</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>10.86084431517328</v>
+        <v>10.85271584879299</v>
       </c>
       <c r="C174">
-        <v>10.85959236568747</v>
+        <v>10.85584177050397</v>
       </c>
       <c r="D174">
-        <v>10.87890471107444</v>
+        <v>10.86018874075186</v>
       </c>
       <c r="E174">
-        <v>10.85143227727753</v>
+        <v>10.83266370166375</v>
       </c>
       <c r="F174">
-        <v>10.85156368984853</v>
+        <v>10.85397365372127</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>10.87151660378994</v>
+        <v>10.86351940556193</v>
       </c>
       <c r="C175">
-        <v>10.87033569610244</v>
+        <v>10.86652903107799</v>
       </c>
       <c r="D175">
-        <v>10.88987765799715</v>
+        <v>10.87081083801078</v>
       </c>
       <c r="E175">
-        <v>10.86194094286547</v>
+        <v>10.84362294524639</v>
       </c>
       <c r="F175">
-        <v>10.86193616244688</v>
+        <v>10.86472809113969</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>10.88206907938136</v>
+        <v>10.87422009814389</v>
       </c>
       <c r="C176">
-        <v>10.88096092908713</v>
+        <v>10.87710035014004</v>
       </c>
       <c r="D176">
-        <v>10.90073736727563</v>
+        <v>10.88131789661477</v>
       </c>
       <c r="E176">
-        <v>10.87233428990952</v>
+        <v>10.85448362418354</v>
       </c>
       <c r="F176">
-        <v>10.87219990305864</v>
+        <v>10.87536618635638</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>10.89250180849081</v>
+        <v>10.88481806009181</v>
       </c>
       <c r="C177">
-        <v>10.89146811262308</v>
+        <v>10.88755579062097</v>
       </c>
       <c r="D177">
-        <v>10.91148387799119</v>
+        <v>10.89171010020105</v>
       </c>
       <c r="E177">
-        <v>10.88261246420583</v>
+        <v>10.86524580559577</v>
       </c>
       <c r="F177">
-        <v>10.88235518316706</v>
+        <v>10.88588795448561</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>10.90281486174268</v>
+        <v>10.89531342558664</v>
       </c>
       <c r="C178">
-        <v>10.90185729775389</v>
+        <v>10.89789541847513</v>
       </c>
       <c r="D178">
-        <v>10.92211723117456</v>
+        <v>10.90198763555337</v>
       </c>
       <c r="E178">
-        <v>10.89277561467519</v>
+        <v>10.87590955655829</v>
       </c>
       <c r="F178">
-        <v>10.89240227449925</v>
+        <v>10.89629341310544</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.9130083137449</v>
+        <v>10.90570632921327</v>
       </c>
       <c r="C179">
-        <v>10.91212853851514</v>
+        <v>10.90811930260845</v>
       </c>
       <c r="D179">
-        <v>10.93263746977125</v>
+        <v>10.91215069181605</v>
       </c>
       <c r="E179">
-        <v>10.90282389329745</v>
+        <v>10.88647494410098</v>
       </c>
       <c r="F179">
-        <v>10.9023414490307</v>
+        <v>10.9065825821978</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>10.92308224299281</v>
+        <v>10.91599690605637</v>
       </c>
       <c r="C180">
-        <v>10.92228189186558</v>
+        <v>10.91822751463955</v>
       </c>
       <c r="D180">
-        <v>10.94304463860764</v>
+        <v>10.92219946007736</v>
       </c>
       <c r="E180">
-        <v>10.91275745504914</v>
+        <v>10.89694203520844</v>
       </c>
       <c r="F180">
-        <v>10.91217297898987</v>
+        <v>10.9167554842205</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10.93303673177436</v>
+        <v>10.92618529169799</v>
       </c>
       <c r="C181">
-        <v>10.93231741761971</v>
+        <v>10.92822012900057</v>
       </c>
       <c r="D181">
-        <v>10.95333878435776</v>
+        <v>10.93213413394219</v>
       </c>
       <c r="E181">
-        <v>10.92257645784098</v>
+        <v>10.90731089681978</v>
       </c>
       <c r="F181">
-        <v>10.92189713686285</v>
+        <v>10.92681214415087</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.94287186607681</v>
+        <v>10.9362716222829</v>
       </c>
       <c r="C182">
-        <v>10.9422351783816</v>
+        <v>10.9380972229743</v>
       </c>
       <c r="D182">
-        <v>10.96351995551075</v>
+        <v>10.94195490995903</v>
       </c>
       <c r="E182">
-        <v>10.93228106245765</v>
+        <v>10.91758159582913</v>
       </c>
       <c r="F182">
-        <v>10.93151419539806</v>
+        <v>10.93675258931357</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10.95258773549483</v>
+        <v>10.94625603436109</v>
       </c>
       <c r="C183">
-        <v>10.95203523948014</v>
+        <v>10.94785887641868</v>
       </c>
       <c r="D183">
-        <v>10.97358820233897</v>
+        <v>10.95166198622208</v>
       </c>
       <c r="E183">
-        <v>10.94187143249808</v>
+        <v>10.92775419908541</v>
       </c>
       <c r="F183">
-        <v>10.94102442761096</v>
+        <v>10.94657684924521</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>10.96218443314016</v>
+        <v>10.95613866495108</v>
       </c>
       <c r="C184">
-        <v>10.9617176689055</v>
+        <v>10.95750517175931</v>
       </c>
       <c r="D184">
-        <v>10.98354357686676</v>
+        <v>10.96125556313462</v>
       </c>
       <c r="E184">
-        <v>10.95134773431904</v>
+        <v>10.93782877339239</v>
       </c>
       <c r="F184">
-        <v>10.95042810678886</v>
+        <v>10.9562849558082</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10.97166205555265</v>
+        <v>10.96591965153803</v>
       </c>
       <c r="C185">
-        <v>10.97128253724685</v>
+        <v>10.96703619400301</v>
       </c>
       <c r="D185">
-        <v>10.99338613283983</v>
+        <v>10.9707358432786</v>
       </c>
       <c r="E185">
-        <v>10.9607101369787</v>
+        <v>10.94780538550871</v>
       </c>
       <c r="F185">
-        <v>10.95972550649575</v>
+        <v>10.96587694320162</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>10.98102070261288</v>
+        <v>10.97559913212672</v>
       </c>
       <c r="C186">
-        <v>10.98072991763139</v>
+        <v>10.97645203103084</v>
       </c>
       <c r="D186">
-        <v>11.00311592569535</v>
+        <v>10.98010303160485</v>
       </c>
       <c r="E186">
-        <v>10.96995881218226</v>
+        <v>10.95768410214786</v>
       </c>
       <c r="F186">
-        <v>10.96891690057718</v>
+        <v>10.97535284785894</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>10.99026047745623</v>
+        <v>10.98517724511495</v>
       </c>
       <c r="C187">
-        <v>10.99005988566453</v>
+        <v>10.98575277265163</v>
       </c>
       <c r="D187">
-        <v>11.0127330125325</v>
+        <v>10.98935733461235</v>
       </c>
       <c r="E187">
-        <v>10.97909393422813</v>
+        <v>10.96746498997839</v>
       </c>
       <c r="F187">
-        <v>10.97800256316519</v>
+        <v>10.98471270825345</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>10.99938148638848</v>
+        <v>10.99465412934219</v>
       </c>
       <c r="C188">
-        <v>10.99927251937139</v>
+        <v>10.99493851119301</v>
       </c>
       <c r="D188">
-        <v>11.0222374520838</v>
+        <v>10.99849896086259</v>
       </c>
       <c r="E188">
-        <v>10.9881156799571</v>
+        <v>10.97714811562387</v>
       </c>
       <c r="F188">
-        <v>10.98698276868327</v>
+        <v>10.99395656504027</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>11.00838383880297</v>
+        <v>11.00402992408867</v>
       </c>
       <c r="C189">
-        <v>11.00836789913942</v>
+        <v>11.00400934127027</v>
       </c>
       <c r="D189">
-        <v>11.03162930468685</v>
+        <v>11.00752812100831</v>
       </c>
       <c r="E189">
-        <v>10.99702422870183</v>
+        <v>10.98673354566291</v>
       </c>
       <c r="F189">
-        <v>10.99585779185141</v>
+        <v>11.00308446104107</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>11.01726764709917</v>
+        <v>11.01330476912857</v>
       </c>
       <c r="C190">
-        <v>11.0173461076622</v>
+        <v>11.01296535972097</v>
       </c>
       <c r="D190">
-        <v>11.04090863225677</v>
+        <v>11.01644502760755</v>
       </c>
       <c r="E190">
-        <v>11.00581976223797</v>
+        <v>10.99622134662919</v>
       </c>
       <c r="F190">
-        <v>11.00462790769113</v>
+        <v>11.01209644119955</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>11.0260330266029</v>
+        <v>11.02247880460933</v>
       </c>
       <c r="C191">
-        <v>11.02620722988444</v>
+        <v>11.02180666554275</v>
       </c>
       <c r="D191">
-        <v>11.05007549825917</v>
+        <v>11.02524989473396</v>
       </c>
       <c r="E191">
-        <v>11.01450246473619</v>
+        <v>11.00561158501162</v>
       </c>
       <c r="F191">
-        <v>11.01329339153063</v>
+        <v>11.02099255234348</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>11.03468009548805</v>
+        <v>11.03155217109773</v>
       </c>
       <c r="C192">
-        <v>11.0349513529481</v>
+        <v>11.03053336168202</v>
       </c>
       <c r="D192">
-        <v>11.05912996768365</v>
+        <v>11.03394293829918</v>
       </c>
       <c r="E192">
-        <v>11.02307252271653</v>
+        <v>11.01490432725423</v>
       </c>
       <c r="F192">
-        <v>11.02185451900992</v>
+        <v>11.02977284334526</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>11.04320897469973</v>
+        <v>11.0405250095811</v>
       </c>
       <c r="C193">
-        <v>11.04357856613966</v>
+        <v>11.03914555070955</v>
       </c>
       <c r="D193">
-        <v>11.06807210701783</v>
+        <v>11.04252437635472</v>
       </c>
       <c r="E193">
-        <v>11.03153012500356</v>
+        <v>11.02409963975622</v>
       </c>
       <c r="F193">
-        <v>11.03031156608603</v>
+        <v>11.03843736508762</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>11.05161978787907</v>
+        <v>11.04939746151772</v>
       </c>
       <c r="C194">
-        <v>11.05208896083839</v>
+        <v>11.04764333812646</v>
       </c>
       <c r="D194">
-        <v>11.07690198422197</v>
+        <v>11.05099442828891</v>
       </c>
       <c r="E194">
-        <v>11.03987546268291</v>
+        <v>11.03319758887208</v>
       </c>
       <c r="F194">
-        <v>11.03866480903825</v>
+        <v>11.04698617046604</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>11.05991266128951</v>
+        <v>11.05816966872413</v>
       </c>
       <c r="C195">
-        <v>11.06048263046588</v>
+        <v>11.05602683139434</v>
       </c>
       <c r="D195">
-        <v>11.08561966870405</v>
+        <v>11.05935331512589</v>
       </c>
       <c r="E195">
-        <v>11.04810872905872</v>
+        <v>11.04219824091159</v>
       </c>
       <c r="F195">
-        <v>11.04691452447343</v>
+        <v>11.05541931411513</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>11.06808772374454</v>
+        <v>11.06684177341783</v>
       </c>
       <c r="C196">
-        <v>11.06875967043646</v>
+        <v>11.06429613987299</v>
       </c>
       <c r="D196">
-        <v>11.09422523129542</v>
+        <v>11.06760125957071</v>
       </c>
       <c r="E196">
-        <v>11.05623011961296</v>
+        <v>11.05110166214</v>
       </c>
       <c r="F196">
-        <v>11.05506098933134</v>
+        <v>11.06373685258537</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>11.07614510653707</v>
+        <v>11.07541391822012</v>
       </c>
       <c r="C197">
-        <v>11.0769201781088</v>
+        <v>11.07245137475835</v>
       </c>
       <c r="D197">
-        <v>11.10271874422684</v>
+        <v>11.07573848629706</v>
       </c>
       <c r="E197">
-        <v>11.0642398319661</v>
+        <v>11.05990791877783</v>
       </c>
       <c r="F197">
-        <v>11.06310448089009</v>
+        <v>11.07193884429337</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>11.08408494337023</v>
+        <v>11.08388624620069</v>
       </c>
       <c r="C198">
-        <v>11.08496425273846</v>
+        <v>11.0804926518764</v>
       </c>
       <c r="D198">
-        <v>11.11110028110517</v>
+        <v>11.08376522106058</v>
       </c>
       <c r="E198">
-        <v>11.07213806583859</v>
+        <v>11.068617077001</v>
       </c>
       <c r="F198">
-        <v>11.07104527677135</v>
+        <v>11.08002534956356</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>11.09190737028969</v>
+        <v>11.09225890077812</v>
       </c>
       <c r="C199">
-        <v>11.0928919954315</v>
+        <v>11.08842008534842</v>
       </c>
       <c r="D199">
-        <v>11.11936991689038</v>
+        <v>11.0916816912791</v>
       </c>
       <c r="E199">
-        <v>11.07992502301366</v>
+        <v>11.07722920294094</v>
       </c>
       <c r="F199">
-        <v>11.07888365494617</v>
+        <v>11.08799643032478</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>11.09961252561752</v>
+        <v>11.10053202575677</v>
       </c>
       <c r="C200">
-        <v>11.10070350909901</v>
+        <v>11.0962337920359</v>
       </c>
       <c r="D200">
-        <v>11.12752772787315</v>
+        <v>11.09948812598274</v>
       </c>
       <c r="E200">
-        <v>11.08760090730124</v>
+        <v>11.08574436268457</v>
       </c>
       <c r="F200">
-        <v>11.08661989374001</v>
+        <v>11.09585215030125</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.1072005498875</v>
+        <v>11.10870576533074</v>
       </c>
       <c r="C201">
-        <v>11.10839889841276</v>
+        <v>11.10393389067255</v>
       </c>
       <c r="D201">
-        <v>11.13557379165289</v>
+        <v>11.10718475579955</v>
       </c>
       <c r="E201">
-        <v>11.09516592450388</v>
+        <v>11.09416262227439</v>
       </c>
       <c r="F201">
-        <v>11.09425427183888</v>
+        <v>11.10359257494921</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>11.11467158578189</v>
+        <v>11.11678026412401</v>
       </c>
       <c r="C202">
-        <v>11.11597826976161</v>
+        <v>11.11152050164235</v>
       </c>
       <c r="D202">
-        <v>11.14350818711617</v>
+        <v>11.11477181253938</v>
       </c>
       <c r="E202">
-        <v>11.10262028238296</v>
+        <v>11.10248404770845</v>
       </c>
       <c r="F202">
-        <v>11.10178706829435</v>
+        <v>11.11121777153029</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>11.12202577806975</v>
+        <v>11.12475566710205</v>
       </c>
       <c r="C203">
-        <v>11.12344173120904</v>
+        <v>11.1189937469254</v>
       </c>
       <c r="D203">
-        <v>11.15133099441569</v>
+        <v>11.122249529516</v>
       </c>
       <c r="E203">
-        <v>11.10996419062654</v>
+        <v>11.11070870494044</v>
       </c>
       <c r="F203">
-        <v>11.10921856252982</v>
+        <v>11.11872780878853</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>11.12926327354665</v>
+        <v>11.13263211960395</v>
       </c>
       <c r="C204">
-        <v>11.13078939245147</v>
+        <v>11.12635375258383</v>
       </c>
       <c r="D204">
-        <v>11.1590422949496</v>
+        <v>11.12961814158949</v>
       </c>
       <c r="E204">
-        <v>11.1171978608176</v>
+        <v>11.11883665987972</v>
       </c>
       <c r="F204">
-        <v>11.1165490343457</v>
+        <v>11.12612275714918</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>11.13638422097586</v>
+        <v>11.14040976734732</v>
       </c>
       <c r="C205">
-        <v>11.13802136477757</v>
+        <v>11.13360064347904</v>
       </c>
       <c r="D205">
-        <v>11.16664217134132</v>
+        <v>11.13687788490366</v>
       </c>
       <c r="E205">
-        <v>11.12432150640501</v>
+        <v>11.12686797839137</v>
       </c>
       <c r="F205">
-        <v>11.1237787639255</v>
+        <v>11.13340268864507</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>11.14338877103098</v>
+        <v>11.14808875646585</v>
       </c>
       <c r="C206">
-        <v>11.14513776102845</v>
+        <v>11.1407345464074</v>
       </c>
       <c r="D206">
-        <v>11.17413070741972</v>
+        <v>11.14402899689588</v>
       </c>
       <c r="E206">
-        <v>11.13133534267417</v>
+        <v>11.13480272629617</v>
       </c>
       <c r="F206">
-        <v>11.13090803184144</v>
+        <v>11.1405676770136</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>11.15027707623999</v>
+        <v>11.15566923342854</v>
       </c>
       <c r="C207">
-        <v>11.1521386955586</v>
+        <v>11.14775558999224</v>
       </c>
       <c r="D207">
-        <v>11.18150798819974</v>
+        <v>11.15107171635813</v>
       </c>
       <c r="E207">
-        <v>11.13823958671948</v>
+        <v>11.14264096937073</v>
       </c>
       <c r="F207">
-        <v>11.13793711906029</v>
+        <v>11.14761779736476</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>11.15704929093072</v>
+        <v>11.16315134506883</v>
       </c>
       <c r="C208">
-        <v>11.15902428419787</v>
+        <v>11.15466390430733</v>
       </c>
       <c r="D208">
-        <v>11.18877409986346</v>
+        <v>11.15800628370257</v>
       </c>
       <c r="E208">
-        <v>11.14503445741712</v>
+        <v>11.15038277334748</v>
       </c>
       <c r="F208">
-        <v>11.14486630694936</v>
+        <v>11.15455312638127</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>11.16370557117774</v>
+        <v>11.17053523859033</v>
       </c>
       <c r="C209">
-        <v>11.16579464421417</v>
+        <v>11.16145962083099</v>
       </c>
       <c r="D209">
-        <v>11.19592912974151</v>
+        <v>11.16483294028898</v>
       </c>
       <c r="E209">
-        <v>11.15172017540024</v>
+        <v>11.15802820391473</v>
       </c>
       <c r="F209">
-        <v>11.15169587728218</v>
+        <v>11.16137374223813</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>11.1702460747506</v>
+        <v>11.17782106160189</v>
       </c>
       <c r="C210">
-        <v>11.17244989427699</v>
+        <v>11.16814287400564</v>
       </c>
       <c r="D210">
-        <v>11.20297316629487</v>
+        <v>11.17155192885928</v>
       </c>
       <c r="E210">
-        <v>11.15829696303419</v>
+        <v>11.1655773267167</v>
       </c>
       <c r="F210">
-        <v>11.1584261122448</v>
+        <v>11.16807972471732</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>11.17667096106348</v>
+        <v>11.18500896204398</v>
       </c>
       <c r="C211">
-        <v>11.17899015442178</v>
+        <v>11.17471379815762</v>
       </c>
       <c r="D211">
-        <v>11.20990629909716</v>
+        <v>11.17816349348422</v>
       </c>
       <c r="E211">
-        <v>11.16476504439314</v>
+        <v>11.17303020735354</v>
       </c>
       <c r="F211">
-        <v>11.1650572944414</v>
+        <v>11.17467115487262</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>11.18298039112621</v>
+        <v>11.19209908821486</v>
       </c>
       <c r="C212">
-        <v>11.18541554601514</v>
+        <v>11.1811725288393</v>
       </c>
       <c r="D212">
-        <v>11.21672861881713</v>
+        <v>11.18466787963988</v>
       </c>
       <c r="E212">
-        <v>11.17112464523725</v>
+        <v>11.18038691138143</v>
       </c>
       <c r="F212">
-        <v>11.17158970690083</v>
+        <v>11.18114811522813</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>11.18917452749658</v>
+        <v>11.19909158877729</v>
       </c>
       <c r="C213">
-        <v>11.19172619172055</v>
+        <v>11.18751920325339</v>
       </c>
       <c r="D213">
-        <v>11.22344021720174</v>
+        <v>11.19106533380888</v>
       </c>
       <c r="E213">
-        <v>11.17737599299184</v>
+        <v>11.18764750431256</v>
       </c>
       <c r="F213">
-        <v>11.17802363308211</v>
+        <v>11.18751068969358</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>11.19525353423406</v>
+        <v>11.20598661279123</v>
       </c>
       <c r="C214">
-        <v>11.19792221546508</v>
+        <v>11.19375395986679</v>
       </c>
       <c r="D214">
-        <v>11.23004118705942</v>
+        <v>11.19735610377745</v>
       </c>
       <c r="E214">
-        <v>11.18351931672687</v>
+        <v>11.1948120516152</v>
       </c>
       <c r="F214">
-        <v>11.18435935688128</v>
+        <v>11.19375896369178</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>11.20121757685482</v>
+        <v>11.21278430964666</v>
       </c>
       <c r="C215">
-        <v>11.2040037424066</v>
+        <v>11.19987693837079</v>
       </c>
       <c r="D215">
-        <v>11.23653162224382</v>
+        <v>11.20354043866896</v>
       </c>
       <c r="E215">
-        <v>11.18955484713761</v>
+        <v>11.20188061871372</v>
       </c>
       <c r="F215">
-        <v>11.19059716263683</v>
+        <v>11.19989302382475</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>11.20706682228799</v>
+        <v>11.21948482908735</v>
       </c>
       <c r="C216">
-        <v>11.20997089890234</v>
+        <v>11.20588828065849</v>
       </c>
       <c r="D216">
-        <v>11.24291161763783</v>
+        <v>11.20961858879348</v>
       </c>
       <c r="E216">
-        <v>11.19548281652592</v>
+        <v>11.20885327098873</v>
       </c>
       <c r="F216">
-        <v>11.19673733513666</v>
+        <v>11.20591295806793</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>11.2128014388333</v>
+        <v>11.2260883212182</v>
       </c>
       <c r="C217">
-        <v>11.21582381247765</v>
+        <v>11.2117881290713</v>
       </c>
       <c r="D217">
-        <v>11.24918126913804</v>
+        <v>11.21559080557442</v>
       </c>
       <c r="E217">
-        <v>11.20130345878311</v>
+        <v>11.21573007377698</v>
       </c>
       <c r="F217">
-        <v>11.20278015962367</v>
+        <v>11.21181885569007</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>11.21842159611997</v>
+        <v>11.23259493653688</v>
       </c>
       <c r="C218">
-        <v>11.22156261179535</v>
+        <v>11.21757662675237</v>
       </c>
       <c r="D218">
-        <v>11.25534067363948</v>
+        <v>11.22145734165722</v>
       </c>
       <c r="E218">
-        <v>11.20701700937356</v>
+        <v>11.22251109237145</v>
       </c>
       <c r="F218">
-        <v>11.20872592180271</v>
+        <v>11.21761080735728</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>11.22392746506682</v>
+        <v>11.23900482587108</v>
       </c>
       <c r="C219">
-        <v>11.22718742662594</v>
+        <v>11.22325391829471</v>
       </c>
       <c r="D219">
-        <v>11.26138992902072</v>
+        <v>11.22721845104705</v>
       </c>
       <c r="E219">
-        <v>11.21262370531912</v>
+        <v>11.22919639202143</v>
       </c>
       <c r="F219">
-        <v>11.21457490784634</v>
+        <v>11.22328890486829</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>11.22931921784367</v>
+        <v>11.24531814040055</v>
       </c>
       <c r="C220">
-        <v>11.23269838781856</v>
+        <v>11.22882014938013</v>
       </c>
       <c r="D220">
-        <v>11.26732913412934</v>
+        <v>11.23287438874685</v>
       </c>
       <c r="E220">
-        <v>11.21812378518432</v>
+        <v>11.23578603793252</v>
       </c>
       <c r="F220">
-        <v>11.22032740440182</v>
+        <v>11.22885324127814</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>11.23459702783396</v>
+        <v>11.25153503166545</v>
       </c>
       <c r="C221">
-        <v>11.23809562727229</v>
+        <v>11.23427546674369</v>
       </c>
       <c r="D221">
-        <v>11.27315838876765</v>
+        <v>11.23842541097016</v>
       </c>
       <c r="E221">
-        <v>11.22351748906275</v>
+        <v>11.24228009526677</v>
       </c>
       <c r="F221">
-        <v>11.22598369859697</v>
+        <v>11.2343039108552</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>11.2397610695986</v>
+        <v>11.25765565159769</v>
       </c>
       <c r="C222">
-        <v>11.24337927790865</v>
+        <v>11.2396200190111</v>
       </c>
       <c r="D222">
-        <v>11.27887779367888</v>
+        <v>11.24387177512449</v>
       </c>
       <c r="E222">
-        <v>11.22880505856459</v>
+        <v>11.24867862914258</v>
       </c>
       <c r="F222">
-        <v>11.23154407804723</v>
+        <v>11.23964100915797</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>11.24481151884098</v>
+        <v>11.26368015246089</v>
       </c>
       <c r="C223">
-        <v>11.24854947364423</v>
+        <v>11.24485395541733</v>
       </c>
       <c r="D223">
-        <v>11.28448745053354</v>
+        <v>11.24921373990238</v>
       </c>
       <c r="E223">
-        <v>11.2339867368045</v>
+        <v>11.2549817046348</v>
       </c>
       <c r="F223">
-        <v>11.23700883086167</v>
+        <v>11.24486463283034</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>11.24974855237323</v>
+        <v>11.26960868687144</v>
       </c>
       <c r="C224">
-        <v>11.25360634936412</v>
+        <v>11.24997742558687</v>
       </c>
       <c r="D224">
-        <v>11.2899874619162</v>
+        <v>11.25445156498737</v>
       </c>
       <c r="E224">
-        <v>11.23906276839066</v>
+        <v>11.26118938677478</v>
       </c>
       <c r="F224">
-        <v>11.24237824564999</v>
+        <v>11.24997487966595</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>11.2545723480836</v>
+        <v>11.27544140780799</v>
       </c>
       <c r="C225">
-        <v>11.25855004089588</v>
+        <v>11.25499058050681</v>
       </c>
       <c r="D225">
-        <v>11.29537793131257</v>
+        <v>11.25958551126668</v>
       </c>
       <c r="E225">
-        <v>11.24403339941442</v>
+        <v>11.26730174055042</v>
       </c>
       <c r="F225">
-        <v>11.2476526115288</v>
+        <v>11.25497184859579</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>11.25928308490505</v>
+        <v>11.28117846864257</v>
       </c>
       <c r="C226">
-        <v>11.26338068498417</v>
+        <v>11.25989357210251</v>
       </c>
       <c r="D226">
-        <v>11.30065896309687</v>
+        <v>11.2646158408538</v>
       </c>
       <c r="E226">
-        <v>11.2488988774415</v>
+        <v>11.27331883090624</v>
       </c>
       <c r="F226">
-        <v>11.25283221812854</v>
+        <v>11.25985563974175</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>11.2638809427849</v>
+        <v>11.28682002308293</v>
       </c>
       <c r="C227">
-        <v>11.26809841926578</v>
+        <v>11.26468655320632</v>
       </c>
       <c r="D227">
-        <v>11.30583066251955</v>
+        <v>11.2695428170357</v>
       </c>
       <c r="E227">
-        <v>11.25365945150335</v>
+        <v>11.27924072274337</v>
       </c>
       <c r="F227">
-        <v>11.25791735559996</v>
+        <v>11.26462635426332</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>11.26836610265575</v>
+        <v>11.29236622519274</v>
       </c>
       <c r="C228">
-        <v>11.27270338224556</v>
+        <v>11.26936967833552</v>
       </c>
       <c r="D228">
-        <v>11.31089313569527</v>
+        <v>11.2743667041526</v>
       </c>
       <c r="E228">
-        <v>11.2583153720897</v>
+        <v>11.28506748091957</v>
       </c>
       <c r="F228">
-        <v>11.26290831462101</v>
+        <v>11.2692840943728</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>11.27273874640738</v>
+        <v>11.29781722940223</v>
       </c>
       <c r="C229">
-        <v>11.27719571327256</v>
+        <v>11.27394310277455</v>
       </c>
       <c r="D229">
-        <v>11.31584648959121</v>
+        <v>11.27908776772652</v>
       </c>
       <c r="E229">
-        <v>11.26286689114139</v>
+        <v>11.29079917024934</v>
       </c>
       <c r="F229">
-        <v>11.26780538640356</v>
+        <v>11.27382896334772</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>11.27699905685981</v>
+        <v>11.30317319053905</v>
       </c>
       <c r="C230">
-        <v>11.28157555251689</v>
+        <v>11.27840698175023</v>
       </c>
       <c r="D230">
-        <v>11.3206908320157</v>
+        <v>11.28370627455838</v>
       </c>
       <c r="E230">
-        <v>11.26731426204509</v>
+        <v>11.29643585550392</v>
       </c>
       <c r="F230">
-        <v>11.27260886270013</v>
+        <v>11.27826106556502</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>11.2811472177375</v>
+        <v>11.308434263773</v>
       </c>
       <c r="C231">
-        <v>11.28584304094704</v>
+        <v>11.2827614718345</v>
       </c>
       <c r="D231">
-        <v>11.32542627160715</v>
+        <v>11.28822249249782</v>
       </c>
       <c r="E231">
-        <v>11.27165773962794</v>
+        <v>11.30197760141143</v>
       </c>
       <c r="F231">
-        <v>11.277319035811</v>
+        <v>11.28258050639087</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>11.28518341364458</v>
+        <v>11.31360060463539</v>
       </c>
       <c r="C232">
-        <v>11.28999832030765</v>
+        <v>11.28700673041789</v>
       </c>
       <c r="D232">
-        <v>11.33005291782319</v>
+        <v>11.29263669054791</v>
       </c>
       <c r="E232">
-        <v>11.27589758015338</v>
+        <v>11.30742447265678</v>
       </c>
       <c r="F232">
-        <v>11.28193619859068</v>
+        <v>11.28678739215604</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>11.28910783004114</v>
+        <v>11.31867236903078</v>
       </c>
       <c r="C233">
-        <v>11.29404153309796</v>
+        <v>11.29114291568278</v>
       </c>
       <c r="D233">
-        <v>11.33457088093027</v>
+        <v>11.29694913888975</v>
       </c>
       <c r="E233">
-        <v>11.28003404131726</v>
+        <v>11.31277653388173</v>
       </c>
       <c r="F233">
-        <v>11.28646064445539</v>
+        <v>11.29088183018817</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>11.29292065322056</v>
+        <v>11.32364971326804</v>
       </c>
       <c r="C234">
-        <v>11.29797282255061</v>
+        <v>11.2951701869734</v>
       </c>
       <c r="D234">
-        <v>11.33898027199339</v>
+        <v>11.30116010898135</v>
       </c>
       <c r="E234">
-        <v>11.2840673822457</v>
+        <v>11.31803384968501</v>
       </c>
       <c r="F234">
-        <v>11.29089266738942</v>
+        <v>11.29486392882997</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>11.29662207028798</v>
+        <v>11.32853279400674</v>
       </c>
       <c r="C235">
-        <v>11.30179233261099</v>
+        <v>11.29908870466948</v>
       </c>
       <c r="D235">
-        <v>11.34328120286623</v>
+        <v>11.3052698733028</v>
       </c>
       <c r="E235">
-        <v>11.28799786349297</v>
+        <v>11.32319648462231</v>
       </c>
       <c r="F235">
-        <v>11.29523256195272</v>
+        <v>11.29873379736496</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>11.30021226913972</v>
+        <v>11.33332176827597</v>
       </c>
       <c r="C236">
-        <v>11.30550020791699</v>
+        <v>11.30289862925283</v>
       </c>
       <c r="D236">
-        <v>11.34747378618152</v>
+        <v>11.30927870554387</v>
       </c>
       <c r="E236">
-        <v>11.29182574704047</v>
+        <v>11.32826450320643</v>
       </c>
       <c r="F236">
-        <v>11.29948062328739</v>
+        <v>11.3024915459608</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>11.30369143844372</v>
+        <v>11.33801679348726</v>
       </c>
       <c r="C237">
-        <v>11.30909659377929</v>
+        <v>11.30660012228416</v>
       </c>
       <c r="D237">
-        <v>11.35155813534187</v>
+        <v>11.31318688060803</v>
       </c>
       <c r="E237">
-        <v>11.29555129629606</v>
+        <v>11.33323796990717</v>
       </c>
       <c r="F237">
-        <v>11.30363714712532</v>
+        <v>11.30613728571726</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>11.30705976762103</v>
+        <v>11.34261802746656</v>
       </c>
       <c r="C238">
-        <v>11.31258163616199</v>
+        <v>11.31019334608509</v>
       </c>
       <c r="D238">
-        <v>11.3555343645104</v>
+        <v>11.31699467462004</v>
       </c>
       <c r="E238">
-        <v>11.29917477609481</v>
+        <v>11.33811694915143</v>
       </c>
       <c r="F238">
-        <v>11.30770242979469</v>
+        <v>11.30967112867133</v>
       </c>
     </row>
   </sheetData>

--- a/sriramModel-nelson-atypical-patientID_1-sims-cort-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-atypical-patientID_1-sims-cort-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.427868242843622</v>
+        <v>7.428295863785702</v>
       </c>
       <c r="C2">
-        <v>7.427431785851718</v>
+        <v>7.427603917941134</v>
       </c>
       <c r="D2">
-        <v>7.427444993881352</v>
+        <v>7.428162528848386</v>
       </c>
       <c r="E2">
-        <v>7.427661989756974</v>
+        <v>7.427604901403359</v>
       </c>
       <c r="F2">
-        <v>7.427401655213409</v>
+        <v>7.427924309974693</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.455664868951713</v>
+        <v>7.456542289809279</v>
       </c>
       <c r="C3">
-        <v>7.454791152037225</v>
+        <v>7.455216322234041</v>
       </c>
       <c r="D3">
-        <v>7.454803535837788</v>
+        <v>7.456316222317283</v>
       </c>
       <c r="E3">
-        <v>7.455355428994465</v>
+        <v>7.455242574832473</v>
       </c>
       <c r="F3">
-        <v>7.454706097898631</v>
+        <v>7.455985511805822</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.483392067615129</v>
+        <v>7.484744622096446</v>
       </c>
       <c r="C4">
-        <v>7.482078613830565</v>
+        <v>7.482843306647687</v>
       </c>
       <c r="D4">
-        <v>7.482077017701569</v>
+        <v>7.484457736797155</v>
       </c>
       <c r="E4">
-        <v>7.48309986819037</v>
+        <v>7.482904259734899</v>
       </c>
       <c r="F4">
-        <v>7.481916956793978</v>
+        <v>7.484156952905342</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.511051783833043</v>
+        <v>7.512907596602001</v>
       </c>
       <c r="C5">
-        <v>7.50929466252879</v>
+        <v>7.510487355831082</v>
       </c>
       <c r="D5">
-        <v>7.509266841903035</v>
+        <v>7.512583386201629</v>
       </c>
       <c r="E5">
-        <v>7.510909154531542</v>
+        <v>7.510580924603472</v>
       </c>
       <c r="F5">
-        <v>7.509037553267212</v>
+        <v>7.512399700647816</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.538645722654586</v>
+        <v>7.541035313491661</v>
       </c>
       <c r="C6">
-        <v>7.53643973676238</v>
+        <v>7.538147827708667</v>
       </c>
       <c r="D6">
-        <v>7.536374331341475</v>
+        <v>7.540689222102531</v>
       </c>
       <c r="E6">
-        <v>7.538787293209423</v>
+        <v>7.538263571903034</v>
       </c>
       <c r="F6">
-        <v>7.536070921481819</v>
+        <v>7.540672062985005</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.566175351581827</v>
+        <v>7.569131190624569</v>
       </c>
       <c r="C7">
-        <v>7.563514230523576</v>
+        <v>7.565821478042401</v>
       </c>
       <c r="D7">
-        <v>7.563400746390318</v>
+        <v>7.568771110964073</v>
       </c>
       <c r="E7">
-        <v>7.566725077415436</v>
+        <v>7.565943450198645</v>
       </c>
       <c r="F7">
-        <v>7.563019831443504</v>
+        <v>7.568936951641943</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.593641903699064</v>
+        <v>7.597197924441233</v>
       </c>
       <c r="C8">
-        <v>7.590518497883907</v>
+        <v>7.593503015042547</v>
       </c>
       <c r="D8">
-        <v>7.59034728641706</v>
+        <v>7.596824810660384</v>
       </c>
       <c r="E8">
-        <v>7.594700547428191</v>
+        <v>7.593612206424087</v>
       </c>
       <c r="F8">
-        <v>7.589886805439759</v>
+        <v>7.597165030907537</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.621046382953375</v>
+        <v>7.625237465391835</v>
       </c>
       <c r="C9">
-        <v>7.617452849703474</v>
+        <v>7.621185639267173</v>
       </c>
       <c r="D9">
-        <v>7.617215087613665</v>
+        <v>7.624846038004592</v>
       </c>
       <c r="E9">
-        <v>7.622684285408266</v>
+        <v>7.621261962142773</v>
       </c>
       <c r="F9">
-        <v>7.616674130832018</v>
+        <v>7.625334685879628</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.648389570668725</v>
+        <v>7.653251005207837</v>
       </c>
       <c r="C10">
-        <v>7.644317556515086</v>
+        <v>7.648861544218681</v>
       </c>
       <c r="D10">
-        <v>7.644005228712971</v>
+        <v>7.652830527531679</v>
       </c>
       <c r="E10">
-        <v>7.650646488153577</v>
+        <v>7.648885359284179</v>
       </c>
       <c r="F10">
-        <v>7.643383872672016</v>
+        <v>7.653430599404334</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.675672032699427</v>
+        <v>7.681238978530049</v>
       </c>
       <c r="C11">
-        <v>7.671112848631818</v>
+        <v>7.67652235122553</v>
       </c>
       <c r="D11">
-        <v>7.670718729793903</v>
+        <v>7.680774081501363</v>
       </c>
       <c r="E11">
-        <v>7.678561873429377</v>
+        <v>7.676475578647082</v>
       </c>
       <c r="F11">
-        <v>7.670017889890131</v>
+        <v>7.681442113461383</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.702894127238359</v>
+        <v>7.709201081536262</v>
       </c>
       <c r="C12">
-        <v>7.697838918529992</v>
+        <v>7.704159474450983</v>
       </c>
       <c r="D12">
-        <v>7.697356554593793</v>
+        <v>7.708672610105942</v>
       </c>
       <c r="E12">
-        <v>7.706411270262147</v>
+        <v>7.704026322605717</v>
       </c>
       <c r="F12">
-        <v>7.696577848784391</v>
+        <v>7.709361852234585</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.730056012747067</v>
+        <v>7.73713630714212</v>
       </c>
       <c r="C13">
-        <v>7.724495922755861</v>
+        <v>7.731764404481207</v>
       </c>
       <c r="D13">
-        <v>7.723919610936745</v>
+        <v>7.736522162427681</v>
       </c>
       <c r="E13">
-        <v>7.734181064427259</v>
+        <v>7.731531799553529</v>
       </c>
       <c r="F13">
-        <v>7.723065234908743</v>
+        <v>7.737184701719217</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.757157656016305</v>
+        <v>7.76504299544662</v>
       </c>
       <c r="C14">
-        <v>7.75108398133355</v>
+        <v>7.759328922162321</v>
       </c>
       <c r="D14">
-        <v>7.750408750771881</v>
+        <v>7.7643189490478</v>
       </c>
       <c r="E14">
-        <v>7.761861911620092</v>
+        <v>7.758986699836697</v>
       </c>
       <c r="F14">
-        <v>7.749481364148005</v>
+        <v>7.764907095965837</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.784198840128724</v>
+        <v>7.792918898102664</v>
       </c>
       <c r="C15">
-        <v>7.777603180145836</v>
+        <v>7.786845242569117</v>
       </c>
       <c r="D15">
-        <v>7.776824771802543</v>
+        <v>7.792059357289345</v>
       </c>
       <c r="E15">
-        <v>7.789447489137014</v>
+        <v>7.786386158744613</v>
       </c>
       <c r="F15">
-        <v>7.775827393497247</v>
+        <v>7.792526530053286</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.811179173271639</v>
+        <v>7.820761254058154</v>
       </c>
       <c r="C16">
-        <v>7.804053571647597</v>
+        <v>7.814306113192176</v>
       </c>
       <c r="D16">
-        <v>7.803168417813376</v>
+        <v>7.819739961420606</v>
       </c>
       <c r="E16">
-        <v>7.81693353070039</v>
+        <v>7.813725720935572</v>
       </c>
       <c r="F16">
-        <v>7.802104333249828</v>
+        <v>7.820041231049005</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.838098097204948</v>
+        <v>7.848566872997135</v>
       </c>
       <c r="C17">
-        <v>7.830435175672483</v>
+        <v>7.841704863391358</v>
       </c>
       <c r="D17">
-        <v>7.829440379539893</v>
+        <v>7.847357526324199</v>
       </c>
       <c r="E17">
-        <v>7.844317148161904</v>
+        <v>7.841001311162414</v>
       </c>
       <c r="F17">
-        <v>7.828313058369404</v>
+        <v>7.847449935773549</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.864954897096488</v>
+        <v>7.876332222542549</v>
       </c>
       <c r="C18">
-        <v>7.856747979771378</v>
+        <v>7.869035421831423</v>
       </c>
       <c r="D18">
-        <v>7.855641295286385</v>
+        <v>7.874909007836668</v>
       </c>
       <c r="E18">
-        <v>7.87159637398373</v>
+        <v>7.868209200806203</v>
       </c>
       <c r="F18">
-        <v>7.854454298931768</v>
+        <v>7.87475173990515</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.891748712557975</v>
+        <v>7.904053515861761</v>
       </c>
       <c r="C19">
-        <v>7.88299194160567</v>
+        <v>7.896292309418818</v>
       </c>
       <c r="D19">
-        <v>7.881771751978557</v>
+        <v>7.902391549553577</v>
       </c>
       <c r="E19">
-        <v>7.898769858305752</v>
+        <v>7.89534597678351</v>
       </c>
       <c r="F19">
-        <v>7.880528674294637</v>
+        <v>7.901945993951606</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.91847855065491</v>
+        <v>7.931726796172837</v>
       </c>
       <c r="C20">
-        <v>7.909166991400455</v>
+        <v>7.923470616652152</v>
       </c>
       <c r="D20">
-        <v>7.90783228529247</v>
+        <v>7.929802477402043</v>
       </c>
       <c r="E20">
-        <v>7.925836669256823</v>
+        <v>7.922408512472352</v>
       </c>
       <c r="F20">
-        <v>7.906536690406694</v>
+        <v>7.929032232601127</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.945143298992483</v>
+        <v>7.959348015261815</v>
       </c>
       <c r="C21">
-        <v>7.93527302706805</v>
+        <v>7.950565968990468</v>
       </c>
       <c r="D21">
-        <v>7.933823381762233</v>
+        <v>7.957139293272077</v>
       </c>
       <c r="E21">
-        <v>7.952796161003085</v>
+        <v>7.949393942437887</v>
       </c>
       <c r="F21">
-        <v>7.932478752561486</v>
+        <v>7.956010124168589</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.971741742550388</v>
+        <v>7.98691310382695</v>
       </c>
       <c r="C22">
-        <v>7.961309919975458</v>
+        <v>7.977574487716528</v>
       </c>
       <c r="D22">
-        <v>7.959745477207071</v>
+        <v>7.984399667111963</v>
       </c>
       <c r="E22">
-        <v>7.979647885590992</v>
+        <v>7.976299638681359</v>
       </c>
       <c r="F22">
-        <v>7.958355169434975</v>
+        <v>7.982879435346356</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.998272580367283</v>
+        <v>8.014418033416474</v>
       </c>
       <c r="C23">
-        <v>7.987277520298551</v>
+        <v>8.004492746739837</v>
       </c>
       <c r="D23">
-        <v>7.985598961288899</v>
+        <v>8.01158142797472</v>
       </c>
       <c r="E23">
-        <v>8.006391533794298</v>
+        <v>8.003123188223073</v>
       </c>
       <c r="F23">
-        <v>7.984166155180131</v>
+        <v>8.009640006029464</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.024734442030475</v>
+        <v>8.041858867442805</v>
       </c>
       <c r="C24">
-        <v>8.013175639869266</v>
+        <v>8.031317729303346</v>
       </c>
       <c r="D24">
-        <v>8.011384174338906</v>
+        <v>8.038682554827517</v>
       </c>
       <c r="E24">
-        <v>8.033026894493091</v>
+        <v>8.02986237309632</v>
       </c>
       <c r="F24">
-        <v>8.009911839287659</v>
+        <v>8.036291731049191</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.051125904834809</v>
+        <v>8.069231802465298</v>
       </c>
       <c r="C25">
-        <v>8.039004072541738</v>
+        <v>8.058046786494664</v>
       </c>
       <c r="D25">
-        <v>8.037101411829878</v>
+        <v>8.065701167190555</v>
       </c>
       <c r="E25">
-        <v>8.059553827229694</v>
+        <v>8.056515153081872</v>
       </c>
       <c r="F25">
-        <v>8.035592271858947</v>
+        <v>8.062834546934747</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>8.077445509725159</v>
+        <v>8.096533199106409</v>
       </c>
       <c r="C26">
-        <v>8.064762591035924</v>
+        <v>8.084677597764308</v>
       </c>
       <c r="D26">
-        <v>8.06275092271553</v>
+        <v>8.092635516648832</v>
       </c>
       <c r="E26">
-        <v>8.085972242956151</v>
+        <v>8.083079649836504</v>
       </c>
       <c r="F26">
-        <v>8.061207431439518</v>
+        <v>8.089268421822569</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8.103691775974164</v>
+        <v>8.123759605138597</v>
       </c>
       <c r="C27">
-        <v>8.090450942523645</v>
+        <v>8.11120813416389</v>
       </c>
       <c r="D27">
-        <v>8.088332911358382</v>
+        <v>8.119483978432893</v>
       </c>
       <c r="E27">
-        <v>8.112282090169545</v>
+        <v>8.109554132426414</v>
       </c>
       <c r="F27">
-        <v>8.086757229882908</v>
+        <v>8.115593348505653</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8.129863214312037</v>
+        <v>8.150907770842963</v>
       </c>
       <c r="C28">
-        <v>8.116068855687127</v>
+        <v>8.137636624912743</v>
       </c>
       <c r="D28">
-        <v>8.113847538273113</v>
+        <v>8.146245042609094</v>
       </c>
       <c r="E28">
-        <v>8.138483345392107</v>
+        <v>8.135937004175146</v>
       </c>
       <c r="F28">
-        <v>8.11224151427928</v>
+        <v>8.141809339050717</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8.155958338444231</v>
+        <v>8.177974657262018</v>
       </c>
       <c r="C29">
-        <v>8.141616037261638</v>
+        <v>8.163961527061215</v>
       </c>
       <c r="D29">
-        <v>8.139294920348048</v>
+        <v>8.172917306096631</v>
       </c>
       <c r="E29">
-        <v>8.164576006182196</v>
+        <v>8.16222679068318</v>
       </c>
       <c r="F29">
-        <v>8.137660080956689</v>
+        <v>8.167916420396985</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8.181975674337469</v>
+        <v>8.204957439014059</v>
       </c>
       <c r="C30">
-        <v>8.167092172994103</v>
+        <v>8.190181498353754</v>
       </c>
       <c r="D30">
-        <v>8.164675132354406</v>
+        <v>8.199499464983665</v>
       </c>
       <c r="E30">
-        <v>8.190560086028389</v>
+        <v>8.188422129298383</v>
       </c>
       <c r="F30">
-        <v>8.163012672290877</v>
+        <v>8.193914631305317</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8.207913768715665</v>
+        <v>8.231853502737401</v>
       </c>
       <c r="C31">
-        <v>8.192496930024559</v>
+        <v>8.216295372946629</v>
       </c>
       <c r="D31">
-        <v>8.18998820750649</v>
+        <v>8.225990307409557</v>
       </c>
       <c r="E31">
-        <v>8.216435610440955</v>
+        <v>8.21452175975193</v>
       </c>
       <c r="F31">
-        <v>8.188298979896754</v>
+        <v>8.219804019953358</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>8.233771196035914</v>
+        <v>8.258660442180334</v>
       </c>
       <c r="C32">
-        <v>8.217829955114976</v>
+        <v>8.242302140021316</v>
       </c>
       <c r="D32">
-        <v>8.215234138239198</v>
+        <v>8.25238870691331</v>
       </c>
       <c r="E32">
-        <v>8.242202614409655</v>
+        <v>8.240524515588248</v>
       </c>
       <c r="F32">
-        <v>8.213518652266066</v>
+        <v>8.245584642068684</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>8.25954656326412</v>
+        <v>8.285376050697188</v>
       </c>
       <c r="C33">
-        <v>8.243090878084706</v>
+        <v>8.268200924762075</v>
       </c>
       <c r="D33">
-        <v>8.240412878073712</v>
+        <v>8.278693616342997</v>
       </c>
       <c r="E33">
-        <v>8.267861140356912</v>
+        <v>8.266429316441666</v>
       </c>
       <c r="F33">
-        <v>8.238671294243149</v>
+        <v>8.271256559514407</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>8.285238514265513</v>
+        <v>8.311998311920862</v>
       </c>
       <c r="C34">
-        <v>8.268279311699354</v>
+        <v>8.293990971732141</v>
       </c>
       <c r="D34">
-        <v>8.265524340853588</v>
+        <v>8.304904062101308</v>
       </c>
       <c r="E34">
-        <v>8.293411236380209</v>
+        <v>8.292235160705093</v>
       </c>
       <c r="F34">
-        <v>8.263756474420077</v>
+        <v>8.296819839024353</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>8.310845732831268</v>
+        <v>8.338525389263664</v>
       </c>
       <c r="C35">
-        <v>8.293394852443694</v>
+        <v>8.319671630172992</v>
       </c>
       <c r="D35">
-        <v>8.29056840239255</v>
+        <v>8.331019138741535</v>
       </c>
       <c r="E35">
-        <v>8.318852955090563</v>
+        <v>8.317941119390001</v>
       </c>
       <c r="F35">
-        <v>8.288773725674181</v>
+        <v>8.322274551191944</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>8.336366945055135</v>
+        <v>8.364955614592244</v>
       </c>
       <c r="C36">
-        <v>8.318437082364904</v>
+        <v>8.345242341203585</v>
       </c>
       <c r="D36">
-        <v>8.315544902984554</v>
+        <v>8.357038003971139</v>
       </c>
       <c r="E36">
-        <v>8.344186352731008</v>
+        <v>8.343546330406731</v>
       </c>
       <c r="F36">
-        <v>8.313722551353022</v>
+        <v>8.347620769975375</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>8.361800920811408</v>
+        <v>8.391287477099038</v>
       </c>
       <c r="C37">
-        <v>8.343405568745508</v>
+        <v>8.370702626544491</v>
       </c>
       <c r="D37">
-        <v>8.340453645803484</v>
+        <v>8.382959874063509</v>
       </c>
       <c r="E37">
-        <v>8.369411488441049</v>
+        <v>8.369049993370011</v>
       </c>
       <c r="F37">
-        <v>8.338602426787348</v>
+        <v>8.372858572122206</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>8.387146474768169</v>
+        <v>8.417519611675951</v>
       </c>
       <c r="C38">
-        <v>8.368299865632018</v>
+        <v>8.39605207878866</v>
       </c>
       <c r="D38">
-        <v>8.36529439827879</v>
+        <v>8.408784019643901</v>
       </c>
       <c r="E38">
-        <v>8.39452842370858</v>
+        <v>8.394451364845491</v>
       </c>
       <c r="F38">
-        <v>8.363412801557521</v>
+        <v>8.397988036711126</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>8.412402466687464</v>
+        <v>8.443650787593931</v>
       </c>
       <c r="C39">
-        <v>8.393119514106617</v>
+        <v>8.421290352590562</v>
       </c>
       <c r="D39">
-        <v>8.390066894731637</v>
+        <v>8.434509761809236</v>
       </c>
       <c r="E39">
-        <v>8.419537221927667</v>
+        <v>8.419749754034672</v>
       </c>
       <c r="F39">
-        <v>8.388153103542759</v>
+        <v>8.423009244600262</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>8.437567801526967</v>
+        <v>8.469679897774174</v>
       </c>
       <c r="C40">
-        <v>8.417864042846377</v>
+        <v>8.446417157128321</v>
       </c>
       <c r="D40">
-        <v>8.41477083708063</v>
+        <v>8.460136468518481</v>
       </c>
       <c r="E40">
-        <v>8.44443794799159</v>
+        <v>8.444944518837994</v>
       </c>
       <c r="F40">
-        <v>8.412822739327011</v>
+        <v>8.447922278222263</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>8.462641429120911</v>
+        <v>8.495605948772223</v>
       </c>
       <c r="C41">
-        <v>8.44253296920887</v>
+        <v>8.471432249685076</v>
       </c>
       <c r="D41">
-        <v>8.439405893052784</v>
+        <v>8.485663551267647</v>
       </c>
       <c r="E41">
-        <v>8.469230668026642</v>
+        <v>8.470035062309107</v>
       </c>
       <c r="F41">
-        <v>8.437421097041964</v>
+        <v>8.472727221308181</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>8.487622343666411</v>
+        <v>8.521428050775276</v>
       </c>
       <c r="C42">
-        <v>8.467125799422938</v>
+        <v>8.496335429989124</v>
       </c>
       <c r="D42">
-        <v>8.463971699787265</v>
+        <v>8.511090462030054</v>
       </c>
       <c r="E42">
-        <v>8.493915449185499</v>
+        <v>8.49502082940711</v>
       </c>
       <c r="F42">
-        <v>8.461947547975962</v>
+        <v>8.497424158744018</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>8.512509582867665</v>
+        <v>8.547145408743736</v>
       </c>
       <c r="C43">
-        <v>8.491642029724579</v>
+        <v>8.521126535141766</v>
       </c>
       <c r="D43">
-        <v>8.48846786554895</v>
+        <v>8.53641669042406</v>
       </c>
       <c r="E43">
-        <v>8.518492359545657</v>
+        <v>8.519901304020639</v>
       </c>
       <c r="F43">
-        <v>8.48640144924936</v>
+        <v>8.52201317635774</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>8.537302226903526</v>
+        <v>8.572757314208259</v>
       </c>
       <c r="C44">
-        <v>8.516081146840127</v>
+        <v>8.545805435042542</v>
       </c>
       <c r="D44">
-        <v>8.512893967545732</v>
+        <v>8.561641761118818</v>
       </c>
       <c r="E44">
-        <v>8.542961467912885</v>
+        <v>8.544676006242236</v>
       </c>
       <c r="F44">
-        <v>8.510782145406605</v>
+        <v>8.546494360792886</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>8.561999397251117</v>
+        <v>8.598263136011761</v>
       </c>
       <c r="C45">
-        <v>8.54044262872341</v>
+        <v>8.570372028569706</v>
       </c>
       <c r="D45">
-        <v>8.537249555103573</v>
+        <v>8.586765231438406</v>
       </c>
       <c r="E45">
-        <v>8.567322843640433</v>
+        <v>8.569344489880011</v>
       </c>
       <c r="F45">
-        <v>8.535088969821665</v>
+        <v>8.570867799427628</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>8.586600255691719</v>
+        <v>8.623662315344367</v>
       </c>
       <c r="C46">
-        <v>8.564725945259257</v>
+        <v>8.594826240272671</v>
       </c>
       <c r="D46">
-        <v>8.561534151113021</v>
+        <v>8.611786689147632</v>
       </c>
       <c r="E46">
-        <v>8.59157655655539</v>
+        <v>8.593906340142231</v>
       </c>
       <c r="F46">
-        <v>8.559321247076145</v>
+        <v>8.595133580192478</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>8.611104002982247</v>
+        <v>8.648954358349153</v>
       </c>
       <c r="C47">
-        <v>8.588930558853903</v>
+        <v>8.619168017444959</v>
       </c>
       <c r="D47">
-        <v>8.585747251406497</v>
+        <v>8.636705750407479</v>
       </c>
       <c r="E47">
-        <v>8.615722676898178</v>
+        <v>8.618361171580645</v>
       </c>
       <c r="F47">
-        <v>8.583478293470003</v>
+        <v>8.61929179159884</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>8.635509877482088</v>
+        <v>8.674138829490836</v>
       </c>
       <c r="C48">
-        <v>8.613055925178605</v>
+        <v>8.643397327508373</v>
       </c>
       <c r="D48">
-        <v>8.609888326511891</v>
+        <v>8.661522058035816</v>
       </c>
       <c r="E48">
-        <v>8.639761275254902</v>
+        <v>8.64270862621321</v>
       </c>
       <c r="F48">
-        <v>8.607559419365753</v>
+        <v>8.643342522502422</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>8.659817153827101</v>
+        <v>8.699215347292215</v>
       </c>
       <c r="C49">
-        <v>8.637101492652356</v>
+        <v>8.66751415570574</v>
       </c>
       <c r="D49">
-        <v>8.633956823067029</v>
+        <v>8.686235279386841</v>
       </c>
       <c r="E49">
-        <v>8.663692422489746</v>
+        <v>8.666948371665118</v>
       </c>
       <c r="F49">
-        <v>8.631563929578974</v>
+        <v>8.667285862174223</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>8.684025141685813</v>
+        <v>8.724183578772809</v>
       </c>
       <c r="C50">
-        <v>8.661066705280476</v>
+        <v>8.691518503090153</v>
       </c>
       <c r="D50">
-        <v>8.657952164543103</v>
+        <v>8.710845105201759</v>
       </c>
       <c r="E50">
-        <v>8.687516189704512</v>
+        <v>8.691080099596876</v>
       </c>
       <c r="F50">
-        <v>8.655491125116257</v>
+        <v>8.691121900258036</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>8.708133184440214</v>
+        <v>8.74904323437714</v>
       </c>
       <c r="C51">
-        <v>8.684951001851498</v>
+        <v>8.715410384770983</v>
       </c>
       <c r="D51">
-        <v>8.681873751739719</v>
+        <v>8.735351247026623</v>
       </c>
       <c r="E51">
-        <v>8.711232648203119</v>
+        <v>8.715103523555479</v>
       </c>
       <c r="F51">
-        <v>8.679340304069866</v>
+        <v>8.714850726733127</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>8.732140657691314</v>
+        <v>8.773794064638803</v>
       </c>
       <c r="C52">
-        <v>8.708753816312173</v>
+        <v>8.739189828356546</v>
       </c>
       <c r="D52">
-        <v>8.705720964514711</v>
+        <v>8.759753437811199</v>
       </c>
       <c r="E52">
-        <v>8.734841869457588</v>
+        <v>8.73901837858598</v>
       </c>
       <c r="F52">
-        <v>8.703110762450036</v>
+        <v>8.738472431864563</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>8.756046968125258</v>
+        <v>8.798435871779562</v>
       </c>
       <c r="C53">
-        <v>8.732474577088574</v>
+        <v>8.762856873337437</v>
       </c>
       <c r="D53">
-        <v>8.729493163129307</v>
+        <v>8.784051463171734</v>
       </c>
       <c r="E53">
-        <v>8.758343925068528</v>
+        <v>8.762824474289156</v>
       </c>
       <c r="F53">
-        <v>8.726801795697979</v>
+        <v>8.761987106191507</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>8.779851552109664</v>
+        <v>8.82296854787894</v>
       </c>
       <c r="C54">
-        <v>8.756112711733234</v>
+        <v>8.786411571692895</v>
       </c>
       <c r="D54">
-        <v>8.753189688026298</v>
+        <v>8.808245295871421</v>
       </c>
       <c r="E54">
-        <v>8.781738886751761</v>
+        <v>8.78652184639521</v>
       </c>
       <c r="F54">
-        <v>8.750412698886828</v>
+        <v>8.785394840429765</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>8.803553874497563</v>
+        <v>8.847392013716517</v>
       </c>
       <c r="C55">
-        <v>8.779667644357865</v>
+        <v>8.809853984044457</v>
       </c>
       <c r="D55">
-        <v>8.776809861773526</v>
+        <v>8.83233493041819</v>
       </c>
       <c r="E55">
-        <v>8.805026826286664</v>
+        <v>8.810110582337321</v>
       </c>
       <c r="F55">
-        <v>8.773942768260669</v>
+        <v>8.808695725495397</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>8.827153427445758</v>
+        <v>8.871706202043654</v>
       </c>
       <c r="C56">
-        <v>8.803138795037016</v>
+        <v>8.833184178140353</v>
       </c>
       <c r="D56">
-        <v>8.800352990684523</v>
+        <v>8.856320365112946</v>
       </c>
       <c r="E56">
-        <v>8.828207815525888</v>
+        <v>8.833590765136428</v>
       </c>
       <c r="F56">
-        <v>8.797391301377052</v>
+        <v>8.831889852485817</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>8.850649729273593</v>
+        <v>8.89591105760638</v>
       </c>
       <c r="C57">
-        <v>8.826525581921844</v>
+        <v>8.856402228109737</v>
       </c>
       <c r="D57">
-        <v>8.82381836443634</v>
+        <v>8.880201596925309</v>
       </c>
       <c r="E57">
-        <v>8.851281926383217</v>
+        <v>8.85696247364403</v>
       </c>
       <c r="F57">
-        <v>8.820757598366407</v>
+        <v>8.854977312663236</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>8.874042323246346</v>
+        <v>8.920006537005893</v>
       </c>
       <c r="C58">
-        <v>8.849827423632913</v>
+        <v>8.879508214092343</v>
       </c>
       <c r="D58">
-        <v>8.847205258007625</v>
+        <v>8.903978622069561</v>
       </c>
       <c r="E58">
-        <v>8.874249230846077</v>
+        <v>8.880225783613819</v>
       </c>
       <c r="F58">
-        <v>8.844040962134613</v>
+        <v>8.877958197442549</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>8.897330776681949</v>
+        <v>8.943992608450111</v>
       </c>
       <c r="C59">
-        <v>8.873043737289747</v>
+        <v>8.902502221456636</v>
       </c>
       <c r="D59">
-        <v>8.87051293284765</v>
+        <v>8.927651436392404</v>
       </c>
       <c r="E59">
-        <v>8.897109800921788</v>
+        <v>8.903380768501824</v>
       </c>
       <c r="F59">
-        <v>8.867240699263121</v>
+        <v>8.900832598379038</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>8.920514679638563</v>
+        <v>8.967869251419799</v>
       </c>
       <c r="C60">
-        <v>8.896173936597672</v>
+        <v>8.925384340311398</v>
       </c>
       <c r="D60">
-        <v>8.893740637652542</v>
+        <v>8.951220035812703</v>
       </c>
       <c r="E60">
-        <v>8.919863708665117</v>
+        <v>8.926427499614789</v>
       </c>
       <c r="F60">
-        <v>8.890356120436383</v>
+        <v>8.923600607159035</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>8.943593644198133</v>
+        <v>8.991636456272033</v>
       </c>
       <c r="C61">
-        <v>8.919217437869843</v>
+        <v>8.94815466516312</v>
       </c>
       <c r="D61">
-        <v>8.916887609272475</v>
+        <v>8.974684416653497</v>
       </c>
       <c r="E61">
-        <v>8.942511026125693</v>
+        <v>8.949366046138156</v>
       </c>
       <c r="F61">
-        <v>8.913386540868458</v>
+        <v>8.946262315591516</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>8.96656730323881</v>
+        <v>9.015294223757682</v>
       </c>
       <c r="C62">
-        <v>8.942173657479323</v>
+        <v>8.970813294503285</v>
       </c>
       <c r="D62">
-        <v>8.939953074048065</v>
+        <v>8.99804457595147</v>
       </c>
       <c r="E62">
-        <v>8.965051825354925</v>
+        <v>8.972196476507381</v>
       </c>
       <c r="F62">
-        <v>8.936331281056567</v>
+        <v>8.968817815600659</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>8.98943530967461</v>
+        <v>9.038842564539843</v>
       </c>
       <c r="C63">
-        <v>8.965042012120172</v>
+        <v>8.993360330337534</v>
       </c>
       <c r="D63">
-        <v>8.962936248817625</v>
+        <v>9.021300511640156</v>
       </c>
       <c r="E63">
-        <v>8.987486178443573</v>
+        <v>8.994918858348552</v>
       </c>
       <c r="F63">
-        <v>8.959189666823123</v>
+        <v>8.991267199219624</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>9.012197335545343</v>
+        <v>9.062281498706389</v>
       </c>
       <c r="C64">
-        <v>8.987821917506563</v>
+        <v>9.015795877889063</v>
       </c>
       <c r="D64">
-        <v>8.985836341863248</v>
+        <v>9.044452222752787</v>
       </c>
       <c r="E64">
-        <v>9.009814157445062</v>
+        <v>9.017533258687537</v>
       </c>
       <c r="F64">
-        <v>8.98196103006522</v>
+        <v>9.013610558585091</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>9.034853071072236</v>
+        <v>9.08561105527515</v>
       </c>
       <c r="C65">
-        <v>9.01051279356914</v>
+        <v>9.038120045361365</v>
       </c>
       <c r="D65">
-        <v>9.008652554042119</v>
+        <v>9.067499709637611</v>
       </c>
       <c r="E65">
-        <v>9.032035834369578</v>
+        <v>9.040039744176887</v>
       </c>
       <c r="F65">
-        <v>9.004644708620821</v>
+        <v>9.035847985932847</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>9.057402224084962</v>
+        <v>9.108831271694701</v>
       </c>
       <c r="C66">
-        <v>9.033114061347058</v>
+        <v>9.060332943673515</v>
       </c>
       <c r="D66">
-        <v>9.031384079498901</v>
+        <v>9.090442974097261</v>
       </c>
       <c r="E66">
-        <v>9.054151281285915</v>
+        <v>9.062438381350661</v>
       </c>
       <c r="F66">
-        <v>9.027240047569974</v>
+        <v>9.057979573594126</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>9.079844518945983</v>
+        <v>9.131942193359926</v>
       </c>
       <c r="C67">
-        <v>9.055625143202318</v>
+        <v>9.082434686190354</v>
       </c>
       <c r="D67">
-        <v>9.054030107306794</v>
+        <v>9.113282019495683</v>
       </c>
       <c r="E67">
-        <v>9.076160570249536</v>
+        <v>9.084729236854294</v>
       </c>
       <c r="F67">
-        <v>9.049746398435431</v>
+        <v>9.080005413992364</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>9.102179696121111</v>
+        <v>9.154943873136805</v>
       </c>
       <c r="C68">
-        <v>9.078045463437116</v>
+        <v>9.104425388492627</v>
       </c>
       <c r="D68">
-        <v>9.076589822114357</v>
+        <v>9.136016850847737</v>
       </c>
       <c r="E68">
-        <v>9.098063773171599</v>
+        <v>9.106912377631778</v>
       </c>
       <c r="F68">
-        <v>9.072163120017803</v>
+        <v>9.101925599639744</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>9.124407511237303</v>
+        <v>9.177836370897618</v>
       </c>
       <c r="C69">
-        <v>9.100374450961128</v>
+        <v>9.12630516819452</v>
       </c>
       <c r="D69">
-        <v>9.099062404761508</v>
+        <v>9.158647474910708</v>
       </c>
       <c r="E69">
-        <v>9.119860962005379</v>
+        <v>9.12898787107653</v>
       </c>
       <c r="F69">
-        <v>9.094489579718573</v>
+        <v>9.123740223135826</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>9.146527734584156</v>
+        <v>9.200619753097548</v>
       </c>
       <c r="C70">
-        <v>9.12261153742074</v>
+        <v>9.14807414476341</v>
       </c>
       <c r="D70">
-        <v>9.121447033929341</v>
+        <v>9.181173900209112</v>
       </c>
       <c r="E70">
-        <v>9.141552208818313</v>
+        <v>9.150955785158576</v>
       </c>
       <c r="F70">
-        <v>9.116725150406534</v>
+        <v>9.145449377163875</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>9.168540150419553</v>
+        <v>9.223294092361678</v>
       </c>
       <c r="C71">
-        <v>9.144756156155591</v>
+        <v>9.169732439356691</v>
       </c>
       <c r="D71">
-        <v>9.143742887128981</v>
+        <v>9.203596137127157</v>
       </c>
       <c r="E71">
-        <v>9.16313758543289</v>
+        <v>9.172816188537752</v>
       </c>
       <c r="F71">
-        <v>9.138869214665984</v>
+        <v>9.167053154491041</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>9.19044455630166</v>
+        <v>9.245859467079203</v>
       </c>
       <c r="C72">
-        <v>9.166807745601</v>
+        <v>9.191280174714603</v>
       </c>
       <c r="D72">
-        <v>9.1659491410485</v>
+        <v>9.225914197894413</v>
       </c>
       <c r="E72">
-        <v>9.184617163699688</v>
+        <v>9.194569150659456</v>
       </c>
       <c r="F72">
-        <v>9.160921163016278</v>
+        <v>9.188551647966474</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>9.212240762671648</v>
+        <v>9.26831596105159</v>
       </c>
       <c r="C73">
-        <v>9.188765748677127</v>
+        <v>9.212717475004593</v>
       </c>
       <c r="D73">
-        <v>9.188064972463701</v>
+        <v>9.248128096667914</v>
       </c>
       <c r="E73">
-        <v>9.205991015585939</v>
+        <v>9.216214741866819</v>
       </c>
       <c r="F73">
-        <v>9.182880392554887</v>
+        <v>9.209944950519647</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>9.233928592086006</v>
+        <v>9.290663663129482</v>
       </c>
       <c r="C74">
-        <v>9.210629612363579</v>
+        <v>9.234044465699659</v>
       </c>
       <c r="D74">
-        <v>9.210089560475248</v>
+        <v>9.270237849523134</v>
       </c>
       <c r="E74">
-        <v>9.227259212868407</v>
+        <v>9.237753033406289</v>
       </c>
       <c r="F74">
-        <v>9.204746310410679</v>
+        <v>9.23123315516154</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>9.255507878917408</v>
+        <v>9.312902666884806</v>
       </c>
       <c r="C75">
-        <v>9.2323987857189</v>
+        <v>9.255261273469326</v>
       </c>
       <c r="D75">
-        <v>9.232022086279089</v>
+        <v>9.292243474468835</v>
       </c>
       <c r="E75">
-        <v>9.248421827338362</v>
+        <v>9.259184097590589</v>
       </c>
       <c r="F75">
-        <v>9.226518331449261</v>
+        <v>9.252416354982046</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>9.276978468669508</v>
+        <v>9.335033070286775</v>
       </c>
       <c r="C76">
-        <v>9.25407272563792</v>
+        <v>9.276368026091376</v>
       </c>
       <c r="D76">
-        <v>9.253861732951943</v>
+        <v>9.314144991434995</v>
       </c>
       <c r="E76">
-        <v>9.269478930780009</v>
+        <v>9.280508007684285</v>
       </c>
       <c r="F76">
-        <v>9.248195878701432</v>
+        <v>9.273494643150423</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>9.298340217627619</v>
+        <v>9.357054975428426</v>
       </c>
       <c r="C77">
-        <v>9.27565089324921</v>
+        <v>9.297364852365707</v>
       </c>
       <c r="D77">
-        <v>9.275607689386213</v>
+        <v>9.335942422254249</v>
       </c>
       <c r="E77">
-        <v>9.290430594928875</v>
+        <v>9.301724838156238</v>
       </c>
       <c r="F77">
-        <v>9.269778384533021</v>
+        <v>9.294468112912941</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>9.319592992369667</v>
+        <v>9.378968488246983</v>
       </c>
       <c r="C78">
-        <v>9.297132754341803</v>
+        <v>9.318251882035666</v>
       </c>
       <c r="D78">
-        <v>9.297259149164688</v>
+        <v>9.357635790670974</v>
       </c>
       <c r="E78">
-        <v>9.311276891483478</v>
+        <v>9.322834664561471</v>
       </c>
       <c r="F78">
-        <v>9.291265289436536</v>
+        <v>9.315336857598396</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>9.340736669281327</v>
+        <v>9.400773718270877</v>
       </c>
       <c r="C79">
-        <v>9.318517779061974</v>
+        <v>9.339029245715885</v>
       </c>
       <c r="D79">
-        <v>9.318815310090647</v>
+        <v>9.379225122306643</v>
       </c>
       <c r="E79">
-        <v>9.332017892086771</v>
+        <v>9.343837563682575</v>
       </c>
       <c r="F79">
-        <v>9.312656042885667</v>
+        <v>9.336100970611815</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>9.361771134272374</v>
+        <v>9.422470778371439</v>
       </c>
       <c r="C80">
-        <v>9.339805445265572</v>
+        <v>9.359697074831585</v>
       </c>
       <c r="D80">
-        <v>9.340275377815857</v>
+        <v>9.400710444667455</v>
       </c>
       <c r="E80">
-        <v>9.352653668328317</v>
+        <v>9.364733613446804</v>
       </c>
       <c r="F80">
-        <v>9.33395010340459</v>
+        <v>9.356760545433012</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>9.382696282222987</v>
+        <v>9.444059784555355</v>
       </c>
       <c r="C81">
-        <v>9.360995236104548</v>
+        <v>9.380255501558114</v>
       </c>
       <c r="D81">
-        <v>9.361638565718842</v>
+        <v>9.422091787099262</v>
       </c>
       <c r="E81">
-        <v>9.373184291776363</v>
+        <v>9.385522893038202</v>
       </c>
       <c r="F81">
-        <v>9.35514693788407</v>
+        <v>9.37731567563227</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>9.403512016772501</v>
+        <v>9.465540855749346</v>
       </c>
       <c r="C82">
-        <v>9.382086639479096</v>
+        <v>9.400704658768074</v>
       </c>
       <c r="D82">
-        <v>9.382904094206008</v>
+        <v>9.443369180766453</v>
       </c>
       <c r="E82">
-        <v>9.393609833950476</v>
+        <v>9.406205482832499</v>
       </c>
       <c r="F82">
-        <v>9.376246022680903</v>
+        <v>9.39776645484856</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>9.42421824983286</v>
+        <v>9.486914113609009</v>
       </c>
       <c r="C83">
-        <v>9.403079150009773</v>
+        <v>9.421044679981872</v>
       </c>
       <c r="D83">
-        <v>9.404071192004803</v>
+        <v>9.46454265869599</v>
       </c>
       <c r="E83">
-        <v>9.413930366355928</v>
+        <v>9.42678146444038</v>
       </c>
       <c r="F83">
-        <v>9.397246842867409</v>
+        <v>9.418112976801341</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>9.444814901333109</v>
+        <v>9.508179682330139</v>
       </c>
       <c r="C84">
-        <v>9.423972269476989</v>
+        <v>9.441275699326196</v>
       </c>
       <c r="D84">
-        <v>9.425139099159908</v>
+        <v>9.485612255692862</v>
       </c>
       <c r="E84">
-        <v>9.434145960414572</v>
+        <v>9.447250920668495</v>
       </c>
       <c r="F84">
-        <v>9.418148891939756</v>
+        <v>9.43835533529732</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>9.465301898877348</v>
+        <v>9.529337688489951</v>
       </c>
       <c r="C85">
-        <v>9.444765505959893</v>
+        <v>9.461397851494446</v>
       </c>
       <c r="D85">
-        <v>9.446107065185375</v>
+        <v>9.50657800820621</v>
       </c>
       <c r="E85">
-        <v>9.45425668751551</v>
+        <v>9.467613935585502</v>
       </c>
       <c r="F85">
-        <v>9.438951672979753</v>
+        <v>9.458493624225119</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>9.485679177391333</v>
+        <v>9.550388261584546</v>
       </c>
       <c r="C86">
-        <v>9.465458372097473</v>
+        <v>9.481411276707853</v>
       </c>
       <c r="D86">
-        <v>9.466974348170806</v>
+        <v>9.527439942061219</v>
       </c>
       <c r="E86">
-        <v>9.474262619042479</v>
+        <v>9.487870574883093</v>
       </c>
       <c r="F86">
-        <v>9.459654697507682</v>
+        <v>9.478527937552409</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>9.505946678925778</v>
+        <v>9.571331529213607</v>
       </c>
       <c r="C87">
-        <v>9.48605038968504</v>
+        <v>9.501316112566188</v>
       </c>
       <c r="D87">
-        <v>9.487740220684808</v>
+        <v>9.5481980383324</v>
       </c>
       <c r="E87">
-        <v>9.494163826287357</v>
+        <v>9.508020830324254</v>
       </c>
       <c r="F87">
-        <v>9.480257485847261</v>
+        <v>9.498458369331324</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>9.526104352258351</v>
+        <v>9.592167621886365</v>
       </c>
       <c r="C88">
-        <v>9.506541086812058</v>
+        <v>9.521112489104503</v>
       </c>
       <c r="D88">
-        <v>9.508403966772581</v>
+        <v>9.568852270617292</v>
       </c>
       <c r="E88">
-        <v>9.513960380508092</v>
+        <v>9.528064679943544</v>
       </c>
       <c r="F88">
-        <v>9.500759567456333</v>
+        <v>9.518285013702522</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>9.546152152742616</v>
+        <v>9.612896673447738</v>
       </c>
       <c r="C89">
-        <v>9.526929998300972</v>
+        <v>9.540800540241655</v>
       </c>
       <c r="D89">
-        <v>9.52896487999733</v>
+        <v>9.589402616235702</v>
       </c>
       <c r="E89">
-        <v>9.533652352912952</v>
+        <v>9.548002106213993</v>
       </c>
       <c r="F89">
-        <v>9.521160480182306</v>
+        <v>9.538007964888868</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>9.566090041960889</v>
+        <v>9.63351881875835</v>
       </c>
       <c r="C90">
-        <v>9.547216664872826</v>
+        <v>9.560380396394653</v>
       </c>
       <c r="D90">
-        <v>9.549422269933959</v>
+        <v>9.609849057380442</v>
       </c>
       <c r="E90">
-        <v>9.553239814660936</v>
+        <v>9.56783309692003</v>
       </c>
       <c r="F90">
-        <v>9.54145977087909</v>
+        <v>9.557627317190022</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>9.585917987537652</v>
+        <v>9.654034194503156</v>
       </c>
       <c r="C91">
-        <v>9.567400636305134</v>
+        <v>9.57985220062721</v>
       </c>
       <c r="D91">
-        <v>9.569775459557761</v>
+        <v>9.630191579720307</v>
       </c>
       <c r="E91">
-        <v>9.572722836956427</v>
+        <v>9.587557644372534</v>
       </c>
       <c r="F91">
-        <v>9.561656995075328</v>
+        <v>9.577143164985468</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>9.605635962896416</v>
+        <v>9.674442939257883</v>
       </c>
       <c r="C92">
-        <v>9.587481469192801</v>
+        <v>9.599216093610028</v>
       </c>
       <c r="D92">
-        <v>9.590023783973143</v>
+        <v>9.650430172935208</v>
       </c>
       <c r="E92">
-        <v>9.592101490835818</v>
+        <v>9.607175745595491</v>
       </c>
       <c r="F92">
-        <v>9.581751716762474</v>
+        <v>9.596555602742344</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>9.625243947002408</v>
+        <v>9.69474519311939</v>
       </c>
       <c r="C93">
-        <v>9.607458726684028</v>
+        <v>9.618472214120168</v>
       </c>
       <c r="D93">
-        <v>9.610166592601045</v>
+        <v>9.670564831098295</v>
       </c>
       <c r="E93">
-        <v>9.611375847327908</v>
+        <v>9.62668740250829</v>
       </c>
       <c r="F93">
-        <v>9.601743508762931</v>
+        <v>9.615864725035042</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>9.644741924220897</v>
+        <v>9.714941097623145</v>
       </c>
       <c r="C94">
-        <v>9.627331979347005</v>
+        <v>9.637620700526245</v>
       </c>
       <c r="D94">
-        <v>9.630203251641786</v>
+        <v>9.690595551841149</v>
       </c>
       <c r="E94">
-        <v>9.630545977410765</v>
+        <v>9.646092621408112</v>
       </c>
       <c r="F94">
-        <v>9.621631952335292</v>
+        <v>9.635070626523877</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>9.664129884031823</v>
+        <v>9.735030795644517</v>
       </c>
       <c r="C95">
-        <v>9.647100806259772</v>
+        <v>9.656661691430401</v>
       </c>
       <c r="D95">
-        <v>9.650133141146123</v>
+        <v>9.710522336274233</v>
       </c>
       <c r="E95">
-        <v>9.649611952011899</v>
+        <v>9.665391412562238</v>
       </c>
       <c r="F95">
-        <v>9.641416637148561</v>
+        <v>9.654173401952388</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>9.683407820917033</v>
+        <v>9.755014431340273</v>
       </c>
       <c r="C96">
-        <v>9.666764793813705</v>
+        <v>9.67559532617585</v>
       </c>
       <c r="D96">
-        <v>9.669955654106971</v>
+        <v>9.730345189198992</v>
       </c>
       <c r="E96">
-        <v>9.668573842117251</v>
+        <v>9.684583791018563</v>
       </c>
       <c r="F96">
-        <v>9.66109716146628</v>
+        <v>9.673173146168596</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>9.702575734146354</v>
+        <v>9.774892150054812</v>
       </c>
       <c r="C97">
-        <v>9.686323534610954</v>
+        <v>9.69442174388619</v>
       </c>
       <c r="D97">
-        <v>9.68967020274736</v>
+        <v>9.75006411840077</v>
       </c>
       <c r="E97">
-        <v>9.687431718528027</v>
+        <v>9.703669774744514</v>
       </c>
       <c r="F97">
-        <v>9.680673131717382</v>
+        <v>9.692069954100228</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>9.721633627600152</v>
+        <v>9.79466409824499</v>
       </c>
       <c r="C98">
-        <v>9.705776630274233</v>
+        <v>9.713141084504729</v>
       </c>
       <c r="D98">
-        <v>9.709276214477756</v>
+        <v>9.76967913496726</v>
       </c>
       <c r="E98">
-        <v>9.706185652045848</v>
+        <v>9.722649386690472</v>
       </c>
       <c r="F98">
-        <v>9.700144162684008</v>
+        <v>9.710863920776619</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>9.740581509481363</v>
+        <v>9.814330423388235</v>
       </c>
       <c r="C99">
-        <v>9.725123690054069</v>
+        <v>9.731753488009488</v>
       </c>
       <c r="D99">
-        <v>9.728773130242494</v>
+        <v>9.789190252636885</v>
       </c>
       <c r="E99">
-        <v>9.724835713423655</v>
+        <v>9.741522651862518</v>
       </c>
       <c r="F99">
-        <v>9.719509877414474</v>
+        <v>9.729555141322852</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>9.759419392522222</v>
+        <v>9.833891273936217</v>
       </c>
       <c r="C100">
-        <v>9.744364330751564</v>
+        <v>9.750259094658539</v>
       </c>
       <c r="D100">
-        <v>9.748160409193718</v>
+        <v>9.808597488257419</v>
       </c>
       <c r="E100">
-        <v>9.743381973365446</v>
+        <v>9.760289600010664</v>
       </c>
       <c r="F100">
-        <v>9.738769906884922</v>
+        <v>9.748143710955684</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>9.778147293231445</v>
+        <v>9.853346799218844</v>
       </c>
       <c r="C101">
-        <v>9.763498175787754</v>
+        <v>9.768658045277014</v>
       </c>
       <c r="D101">
-        <v>9.767437525932708</v>
+        <v>9.827900861458096</v>
       </c>
       <c r="E101">
-        <v>9.761824502587574</v>
+        <v>9.7789502633273</v>
       </c>
       <c r="F101">
-        <v>9.757923890294347</v>
+        <v>9.766629724988029</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>9.796765232196041</v>
+        <v>9.872697149395803</v>
       </c>
       <c r="C102">
-        <v>9.782524857891199</v>
+        <v>9.786950480503982</v>
       </c>
       <c r="D102">
-        <v>9.786603971229935</v>
+        <v>9.847100394309452</v>
       </c>
       <c r="E102">
-        <v>9.780163371683784</v>
+        <v>9.79750467787621</v>
       </c>
       <c r="F102">
-        <v>9.776971474740566</v>
+        <v>9.785013278841859</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>9.815273234090261</v>
+        <v>9.891942475499865</v>
       </c>
       <c r="C103">
-        <v>9.801444017187624</v>
+        <v>9.805136541587011</v>
       </c>
       <c r="D103">
-        <v>9.805659252571644</v>
+        <v>9.866196111766341</v>
       </c>
       <c r="E103">
-        <v>9.79839865122791</v>
+        <v>9.81595288224519</v>
       </c>
       <c r="F103">
-        <v>9.795912315120646</v>
+        <v>9.803294468026428</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>9.833671326846334</v>
+        <v>9.911082929234102</v>
       </c>
       <c r="C104">
-        <v>9.820255301171677</v>
+        <v>9.823216369917953</v>
       </c>
       <c r="D104">
-        <v>9.824602893771312</v>
+        <v>9.885188040855647</v>
       </c>
       <c r="E104">
-        <v>9.816530411746838</v>
+        <v>9.834294918517879</v>
       </c>
       <c r="F104">
-        <v>9.814746074229314</v>
+        <v>9.821473388158681</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>9.851959542307794</v>
+        <v>9.930118663000975</v>
       </c>
       <c r="C105">
-        <v>9.83895836482559</v>
+        <v>9.84119010698452</v>
       </c>
       <c r="D105">
-        <v>9.843434435520933</v>
+        <v>9.904076211447087</v>
       </c>
       <c r="E105">
-        <v>9.834558723720397</v>
+        <v>9.852530831252571</v>
       </c>
       <c r="F105">
-        <v>9.833472422503503</v>
+        <v>9.839550134968292</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>9.870137915669536</v>
+        <v>9.949049829830535</v>
       </c>
       <c r="C106">
-        <v>9.857552871854409</v>
+        <v>9.859057894817207</v>
       </c>
       <c r="D106">
-        <v>9.862153434783185</v>
+        <v>9.922860655268424</v>
       </c>
       <c r="E106">
-        <v>9.852483657586893</v>
+        <v>9.870660668181529</v>
       </c>
       <c r="F106">
-        <v>9.852091037996052</v>
+        <v>9.857524804270557</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>9.888206485323359</v>
+        <v>9.96787658336727</v>
       </c>
       <c r="C107">
-        <v>9.876038493523032</v>
+        <v>9.876819875338438</v>
       </c>
       <c r="D107">
-        <v>9.88075946516032</v>
+        <v>9.941541406638622</v>
       </c>
       <c r="E107">
-        <v>9.870305283730758</v>
+        <v>9.888684479434421</v>
       </c>
       <c r="F107">
-        <v>9.870601606333985</v>
+        <v>9.875397492041946</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>9.906165293149964</v>
+        <v>9.986599077843827</v>
       </c>
       <c r="C108">
-        <v>9.894414908060096</v>
+        <v>9.89447619090642</v>
       </c>
       <c r="D108">
-        <v>9.899252117078992</v>
+        <v>9.960118501364551</v>
       </c>
       <c r="E108">
-        <v>9.888023672491713</v>
+        <v>9.906602317833839</v>
       </c>
       <c r="F108">
-        <v>9.889003820529402</v>
+        <v>9.893168294303655</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>9.924014383892054</v>
+        <v>10.00521746802605</v>
       </c>
       <c r="C109">
-        <v>9.912681802059158</v>
+        <v>9.912026984158802</v>
       </c>
       <c r="D109">
-        <v>9.917630996293925</v>
+        <v>9.978591978097718</v>
       </c>
       <c r="E109">
-        <v>9.905638894162307</v>
+        <v>9.924414238376315</v>
       </c>
       <c r="F109">
-        <v>9.907297380992489</v>
+        <v>9.910837307193043</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>9.941753805363797</v>
+        <v>10.02373190919113</v>
       </c>
       <c r="C110">
-        <v>9.930838870071698</v>
+        <v>9.929472397684986</v>
       </c>
       <c r="D110">
-        <v>9.935895725898533</v>
+        <v>9.996961877721111</v>
       </c>
       <c r="E110">
-        <v>9.923151018987818</v>
+        <v>9.942120299348629</v>
       </c>
       <c r="F110">
-        <v>9.925481995393412</v>
+        <v>9.928404626947831</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>9.959383608299596</v>
+        <v>10.04214255708751</v>
       </c>
       <c r="C111">
-        <v>9.948885814256515</v>
+        <v>9.946812574638907</v>
       </c>
       <c r="D111">
-        <v>9.954045944297887</v>
+        <v>10.01522824147592</v>
       </c>
       <c r="E111">
-        <v>9.940560117159922</v>
+        <v>9.959720561738026</v>
       </c>
       <c r="F111">
-        <v>9.943557378544147</v>
+        <v>9.945870350037652</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>9.97690384611326</v>
+        <v>10.06044956790958</v>
       </c>
       <c r="C112">
-        <v>9.966822343531383</v>
+        <v>9.964047658116227</v>
       </c>
       <c r="D112">
-        <v>9.972081306085759</v>
+        <v>10.03339111377602</v>
       </c>
       <c r="E112">
-        <v>9.957866258829927</v>
+        <v>9.977215085870967</v>
       </c>
       <c r="F112">
-        <v>9.961523252381106</v>
+        <v>9.96323457299642</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>9.994314575083056</v>
+        <v>10.07865309828371</v>
       </c>
       <c r="C113">
-        <v>9.984648175623873</v>
+        <v>9.981177791515925</v>
       </c>
       <c r="D113">
-        <v>9.990001481753184</v>
+        <v>10.05145054147544</v>
       </c>
       <c r="E113">
-        <v>9.975069514098736</v>
+        <v>9.994603937755842</v>
       </c>
       <c r="F113">
-        <v>9.979379345816634</v>
+        <v>9.98049739235756</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>10.01161585399206</v>
+        <v>10.09675330520774</v>
       </c>
       <c r="C114">
-        <v>10.00236303558842</v>
+        <v>9.998203118637964</v>
       </c>
       <c r="D114">
-        <v>10.00780615707071</v>
+        <v>10.06940657244704</v>
       </c>
       <c r="E114">
-        <v>9.992169953019109</v>
+        <v>10.01188718519171</v>
       </c>
       <c r="F114">
-        <v>9.997125394655464</v>
+        <v>9.997658904802783</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>10.02880774411803</v>
+        <v>10.11475034605727</v>
       </c>
       <c r="C115">
-        <v>10.01996665586823</v>
+        <v>10.01512378312208</v>
       </c>
       <c r="D115">
-        <v>10.0254950336104</v>
+        <v>10.08725925471777</v>
       </c>
       <c r="E115">
-        <v>10.00916764559562</v>
+        <v>10.02906489731497</v>
       </c>
       <c r="F115">
-        <v>10.01476114153578</v>
+        <v>10.01471920710561</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>10.04589030936078</v>
+        <v>10.13264437855985</v>
       </c>
       <c r="C116">
-        <v>10.03745877605648</v>
+        <v>10.03193992917778</v>
       </c>
       <c r="D116">
-        <v>10.0430678277298</v>
+        <v>10.10500864047111</v>
       </c>
       <c r="E116">
-        <v>10.02606266179398</v>
+        <v>10.04613714314838</v>
       </c>
       <c r="F116">
-        <v>10.03228633580133</v>
+        <v>10.03167839619449</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>10.06286361580107</v>
+        <v>10.15043556077675</v>
       </c>
       <c r="C117">
-        <v>10.05483914397753</v>
+        <v>10.04865170130163</v>
       </c>
       <c r="D117">
-        <v>10.06052427109588</v>
+        <v>10.12265478277307</v>
       </c>
       <c r="E117">
-        <v>10.04285507152085</v>
+        <v>10.06310399725891</v>
       </c>
       <c r="F117">
-        <v>10.0497007334308</v>
+        <v>10.04853656933985</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>10.07972773190298</v>
+        <v>10.16812405107992</v>
       </c>
       <c r="C118">
-        <v>10.07210751471074</v>
+        <v>10.06525924388966</v>
       </c>
       <c r="D118">
-        <v>10.07786411006124</v>
+        <v>10.1401977348419</v>
       </c>
       <c r="E118">
-        <v>10.05954494463846</v>
+        <v>10.07996553507268</v>
       </c>
       <c r="F118">
-        <v>10.06700409694562</v>
+        <v>10.06529382360769</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>10.09648272838588</v>
+        <v>10.18571000813616</v>
       </c>
       <c r="C119">
-        <v>10.08926365030966</v>
+        <v>10.08176270130296</v>
       </c>
       <c r="D119">
-        <v>10.09508710538427</v>
+        <v>10.15763755254534</v>
       </c>
       <c r="E119">
-        <v>10.07613235096116</v>
+        <v>10.09672183240812</v>
       </c>
       <c r="F119">
-        <v>10.08419619531888</v>
+        <v>10.0819502563081</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>10.11312867802047</v>
+        <v>10.20319359088739</v>
       </c>
       <c r="C120">
-        <v>10.10630732033849</v>
+        <v>10.09816221916854</v>
       </c>
       <c r="D120">
-        <v>10.11219303237969</v>
+        <v>10.17497429288383</v>
       </c>
       <c r="E120">
-        <v>10.09261736025515</v>
+        <v>10.11337296753524</v>
       </c>
       <c r="F120">
-        <v>10.10127680388089</v>
+        <v>10.09850596489566</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>10.12966565578206</v>
+        <v>10.22057495853234</v>
       </c>
       <c r="C121">
-        <v>10.12323830192696</v>
+        <v>10.11445794171023</v>
       </c>
       <c r="D121">
-        <v>10.12918167985297</v>
+        <v>10.19220801423358</v>
       </c>
       <c r="E121">
-        <v>10.10900004225403</v>
+        <v>10.1299190208276</v>
       </c>
       <c r="F121">
-        <v>10.11824570423687</v>
+        <v>10.11496104700326</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>10.14609373857703</v>
+        <v>10.23785427051732</v>
       </c>
       <c r="C122">
-        <v>10.14005637935558</v>
+        <v>10.13065001493962</v>
       </c>
       <c r="D122">
-        <v>10.14605285076603</v>
+        <v>10.20933877637796</v>
       </c>
       <c r="E122">
-        <v>10.12528046662588</v>
+        <v>10.14636007395179</v>
       </c>
       <c r="F122">
-        <v>10.13510268418425</v>
+        <v>10.13131560033775</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>10.1624130052773</v>
+        <v>10.25503168651573</v>
       </c>
       <c r="C123">
-        <v>10.15676134343899</v>
+        <v>10.1467385841469</v>
       </c>
       <c r="D123">
-        <v>10.16280636128854</v>
+        <v>10.22636664006393</v>
       </c>
       <c r="E123">
-        <v>10.14145870299693</v>
+        <v>10.16269621051116</v>
       </c>
       <c r="F123">
-        <v>10.15184753760322</v>
+        <v>10.147569722772</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>10.17862353673163</v>
+        <v>10.27210736642154</v>
       </c>
       <c r="C124">
-        <v>10.17335299280522</v>
+        <v>10.16272379476347</v>
       </c>
       <c r="D124">
-        <v>10.17944204066389</v>
+        <v>10.24329166731541</v>
       </c>
       <c r="E124">
-        <v>10.15753482094645</v>
+        <v>10.1789275151206</v>
       </c>
       <c r="F124">
-        <v>10.16848006439516</v>
+        <v>10.16372351229833</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>10.19472541552482</v>
+        <v>10.28908147033414</v>
       </c>
       <c r="C125">
-        <v>10.18983113293736</v>
+        <v>10.17860579357844</v>
       </c>
       <c r="D125">
-        <v>10.19595973114357</v>
+        <v>10.26011392212412</v>
       </c>
       <c r="E125">
-        <v>10.17350889000636</v>
+        <v>10.19505407395946</v>
       </c>
       <c r="F125">
-        <v>10.18500007038335</v>
+        <v>10.179777067008</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>10.21071872609184</v>
+        <v>10.30595415854535</v>
       </c>
       <c r="C126">
-        <v>10.20619557621256</v>
+        <v>10.19438472586772</v>
       </c>
       <c r="D126">
-        <v>10.2123592873883</v>
+        <v>10.27683346883945</v>
       </c>
       <c r="E126">
-        <v>10.18938097966678</v>
+        <v>10.21107597506884</v>
       </c>
       <c r="F126">
-        <v>10.20140736721484</v>
+        <v>10.19573048520427</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>10.22660355460431</v>
+        <v>10.32272559152996</v>
       </c>
       <c r="C127">
-        <v>10.2224461415803</v>
+        <v>10.21006073885503</v>
       </c>
       <c r="D127">
-        <v>10.22864057643442</v>
+        <v>10.29345037320129</v>
       </c>
       <c r="E127">
-        <v>10.2051511593645</v>
+        <v>10.22699330811431</v>
       </c>
       <c r="F127">
-        <v>10.21770177231208</v>
+        <v>10.21158386530808</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>10.24237998885146</v>
+        <v>10.33939592993405</v>
       </c>
       <c r="C128">
-        <v>10.2385826552993</v>
+        <v>10.22563397878486</v>
       </c>
       <c r="D128">
-        <v>10.24480347725035</v>
+        <v>10.30996470229024</v>
       </c>
       <c r="E128">
-        <v>10.22081949849115</v>
+        <v>10.24280616351108</v>
       </c>
       <c r="F128">
-        <v>10.23388310874179</v>
+        <v>10.22733730586313</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>10.25804811835702</v>
+        <v>10.35596533456564</v>
       </c>
       <c r="C129">
-        <v>10.25460495024881</v>
+        <v>10.24110459230351</v>
       </c>
       <c r="D129">
-        <v>10.26084788050381</v>
+        <v>10.3263765243532</v>
       </c>
       <c r="E129">
-        <v>10.23638606639166</v>
+        <v>10.25851463325777</v>
       </c>
       <c r="F129">
-        <v>10.24995120515579</v>
+        <v>10.24299090553108</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>10.2736080341366</v>
+        <v>10.37243396638688</v>
       </c>
       <c r="C130">
-        <v>10.27051286580403</v>
+        <v>10.25647272719994</v>
       </c>
       <c r="D130">
-        <v>10.27677368827391</v>
+        <v>10.34268590850563</v>
       </c>
       <c r="E130">
-        <v>10.25185093236409</v>
+        <v>10.27411881125873</v>
       </c>
       <c r="F130">
-        <v>10.26590589572695</v>
+        <v>10.2585447631629</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>10.2890598287721</v>
+        <v>10.38880198650268</v>
       </c>
       <c r="C131">
-        <v>10.28630624792875</v>
+        <v>10.27173852986023</v>
       </c>
       <c r="D131">
-        <v>10.29258081370559</v>
+        <v>10.35889292500044</v>
       </c>
       <c r="E131">
-        <v>10.26721416565593</v>
+        <v>10.28961879221779</v>
       </c>
       <c r="F131">
-        <v>10.28174702001533</v>
+        <v>10.27399897773475</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>10.30440359638623</v>
+        <v>10.40506955615631</v>
       </c>
       <c r="C132">
-        <v>10.30198494933616</v>
+        <v>10.28690214873472</v>
       </c>
       <c r="D132">
-        <v>10.30826918079411</v>
+        <v>10.37499764491331</v>
       </c>
       <c r="E132">
-        <v>10.28247583547189</v>
+        <v>10.30501467223408</v>
       </c>
       <c r="F132">
-        <v>10.29747442294582</v>
+        <v>10.2893536483775</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>10.31963943248218</v>
+        <v>10.42123683671952</v>
       </c>
       <c r="C133">
-        <v>10.31754882912329</v>
+        <v>10.30196373100981</v>
       </c>
       <c r="D133">
-        <v>10.32383872402563</v>
+        <v>10.39100014050303</v>
       </c>
       <c r="E133">
-        <v>10.29763601096854</v>
+        <v>10.32030654861666</v>
       </c>
       <c r="F133">
-        <v>10.31308795470967</v>
+        <v>10.30460887437595</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>10.334767434028</v>
+        <v>10.43730398968626</v>
       </c>
       <c r="C134">
-        <v>10.33299775248735</v>
+        <v>10.31692342457095</v>
       </c>
       <c r="D134">
-        <v>10.3392893881203</v>
+        <v>10.40690048489776</v>
       </c>
       <c r="E134">
-        <v>10.31269476125537</v>
+        <v>10.33549451968031</v>
       </c>
       <c r="F134">
-        <v>10.32858747062027</v>
+        <v>10.31976475514863</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>10.34978769935275</v>
+        <v>10.45327117666772</v>
       </c>
       <c r="C135">
-        <v>10.3483315911663</v>
+        <v>10.331781378257</v>
       </c>
       <c r="D135">
-        <v>10.35462112774704</v>
+        <v>10.42269875219592</v>
       </c>
       <c r="E135">
-        <v>10.32765215539492</v>
+        <v>10.35057868514317</v>
       </c>
       <c r="F135">
-        <v>10.34397283108047</v>
+        <v>10.33482139027133</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>10.36470032808753</v>
+        <v>10.46913855938415</v>
       </c>
       <c r="C136">
-        <v>10.36355022309291</v>
+        <v>10.34653773956775</v>
       </c>
       <c r="D136">
-        <v>10.3698339072511</v>
+        <v>10.43839501736427</v>
       </c>
       <c r="E136">
-        <v>10.34250826239995</v>
+        <v>10.3655591457399</v>
       </c>
       <c r="F136">
-        <v>10.35924390158023</v>
+        <v>10.34977887950265</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>10.37950542122744</v>
+        <v>10.48490629966136</v>
       </c>
       <c r="C137">
-        <v>10.37865353229374</v>
+        <v>10.36119265825366</v>
       </c>
       <c r="D137">
-        <v>10.3849277003169</v>
+        <v>10.45398935619257</v>
       </c>
       <c r="E137">
-        <v>10.35726315123937</v>
+        <v>10.38043600335752</v>
       </c>
       <c r="F137">
-        <v>10.37440055261292</v>
+        <v>10.36463732276863</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>10.39420308096557</v>
+        <v>10.50057455942508</v>
       </c>
       <c r="C138">
-        <v>10.39364140865688</v>
+        <v>10.37574628245655</v>
       </c>
       <c r="D138">
-        <v>10.39990248983976</v>
+        <v>10.46948184539683</v>
       </c>
       <c r="E138">
-        <v>10.37191689083424</v>
+        <v>10.3952093608997</v>
       </c>
       <c r="F138">
-        <v>10.38944265934205</v>
+        <v>10.37939682012298</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>10.40879341074723</v>
+        <v>10.51614350069554</v>
       </c>
       <c r="C139">
-        <v>10.40851374827463</v>
+        <v>10.39019876135642</v>
       </c>
       <c r="D139">
-        <v>10.41475826746371</v>
+        <v>10.48487256280467</v>
       </c>
       <c r="E139">
-        <v>10.38646955005843</v>
+        <v>10.40987932224272</v>
       </c>
       <c r="F139">
-        <v>10.40437010175906</v>
+        <v>10.39405747179932</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>10.42327651523862</v>
+        <v>10.53161328558531</v>
       </c>
       <c r="C140">
-        <v>10.42327045305272</v>
+        <v>10.40455024488411</v>
       </c>
       <c r="D140">
-        <v>10.42949503346966</v>
+        <v>10.50016158658884</v>
       </c>
       <c r="E140">
-        <v>10.40092119773879</v>
+        <v>10.42444599230194</v>
       </c>
       <c r="F140">
-        <v>10.41918276464576</v>
+        <v>10.4086193782056</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>10.43765250022209</v>
+        <v>10.54698407629346</v>
       </c>
       <c r="C141">
-        <v>10.43791143064235</v>
+        <v>10.41880088169291</v>
       </c>
       <c r="D141">
-        <v>10.44411279649925</v>
+        <v>10.51534899581229</v>
       </c>
       <c r="E141">
-        <v>10.41527190265718</v>
+        <v>10.43890947753685</v>
       </c>
       <c r="F141">
-        <v>10.4338805375707</v>
+        <v>10.42308263992035</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>10.45192147265645</v>
+        <v>10.56225603510329</v>
       </c>
       <c r="C142">
-        <v>10.45243659436713</v>
+        <v>10.4329508229054</v>
       </c>
       <c r="D142">
-        <v>10.4586115731833</v>
+        <v>10.53043487024374</v>
       </c>
       <c r="E142">
-        <v>10.42952173354636</v>
+        <v>10.45326988458118</v>
       </c>
       <c r="F142">
-        <v>10.44846331435765</v>
+        <v>10.43744735768945</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>10.46608354058456</v>
+        <v>10.57742932437954</v>
       </c>
       <c r="C143">
-        <v>10.46684586329142</v>
+        <v>10.44700021764079</v>
       </c>
       <c r="D143">
-        <v>10.47299138811806</v>
+        <v>10.54541929032311</v>
       </c>
       <c r="E143">
-        <v>10.44367075909276</v>
+        <v>10.46752732119231</v>
       </c>
       <c r="F143">
-        <v>10.46293099340894</v>
+        <v>10.45171363243733</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>10.48013881311108</v>
+        <v>10.59250410656428</v>
       </c>
       <c r="C144">
-        <v>10.48113916199349</v>
+        <v>10.4609492160816</v>
       </c>
       <c r="D144">
-        <v>10.48725227335438</v>
+        <v>10.56030233841693</v>
       </c>
       <c r="E144">
-        <v>10.45771904793607</v>
+        <v>10.48168189596006</v>
       </c>
       <c r="F144">
-        <v>10.47728347761135</v>
+        <v>10.46588156524091</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>10.49408740043137</v>
+        <v>10.60748054417625</v>
       </c>
       <c r="C145">
-        <v>10.4953164204494</v>
+        <v>10.47479796915391</v>
       </c>
       <c r="D145">
-        <v>10.50139426838368</v>
+        <v>10.57508409647817</v>
       </c>
       <c r="E145">
-        <v>10.47166666866916</v>
+        <v>10.49573371826523</v>
       </c>
       <c r="F145">
-        <v>10.49152067442711</v>
+        <v>10.47995125736793</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>10.50792941371581</v>
+        <v>10.62235879980739</v>
       </c>
       <c r="C146">
-        <v>10.50937757405981</v>
+        <v>10.48854662784776</v>
       </c>
       <c r="D146">
-        <v>10.51541741981672</v>
+        <v>10.58976464698116</v>
       </c>
       <c r="E146">
-        <v>10.48551368984131</v>
+        <v>10.50968289825739</v>
       </c>
       <c r="F146">
-        <v>10.50564249523336</v>
+        <v>10.49392281028284</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>10.52166496515152</v>
+        <v>10.63713903612138</v>
       </c>
       <c r="C147">
-        <v>10.52332256353685</v>
+        <v>10.5021953431728</v>
       </c>
       <c r="D147">
-        <v>10.52932178109749</v>
+        <v>10.60434407327176</v>
       </c>
       <c r="E147">
-        <v>10.49926017995177</v>
+        <v>10.52352954976534</v>
       </c>
       <c r="F147">
-        <v>10.51964885573477</v>
+        <v>10.50779632562659</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>10.53529416790925</v>
+        <v>10.6518214158524</v>
       </c>
       <c r="C148">
-        <v>10.53715133479453</v>
+        <v>10.51574426660692</v>
       </c>
       <c r="D148">
-        <v>10.54310741248658</v>
+        <v>10.6188224592819</v>
       </c>
       <c r="E148">
-        <v>10.51290620745399</v>
+        <v>10.53727378342575</v>
       </c>
       <c r="F148">
-        <v>10.53353967581592</v>
+        <v>10.52157190522782</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>10.54881713607454</v>
+        <v>10.66640610180274</v>
       </c>
       <c r="C149">
-        <v>10.55086383884184</v>
+        <v>10.52919355000264</v>
       </c>
       <c r="D149">
-        <v>10.55677438056007</v>
+        <v>10.63319989006268</v>
       </c>
       <c r="E149">
-        <v>10.52645184075512</v>
+        <v>10.55091571206025</v>
       </c>
       <c r="F149">
-        <v>10.54731487967186</v>
+        <v>10.53524965110556</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>10.56223398472752</v>
+        <v>10.6808932568427</v>
       </c>
       <c r="C150">
-        <v>10.5644600317741</v>
+        <v>10.54254334515357</v>
       </c>
       <c r="D150">
-        <v>10.57032275828928</v>
+        <v>10.64747645244783</v>
       </c>
       <c r="E150">
-        <v>10.53989714821584</v>
+        <v>10.56445544917819</v>
       </c>
       <c r="F150">
-        <v>10.56097439518251</v>
+        <v>10.54882966546544</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>10.57554482979218</v>
+        <v>10.69528304391022</v>
       </c>
       <c r="C151">
-        <v>10.57793987463665</v>
+        <v>10.55579380380431</v>
       </c>
       <c r="D151">
-        <v>10.5837526246498</v>
+        <v>10.66165223162507</v>
       </c>
       <c r="E151">
-        <v>10.55324219815117</v>
+        <v>10.57789310894005</v>
       </c>
       <c r="F151">
-        <v>10.57451815428039</v>
+        <v>10.56231205064216</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>10.5887497880581</v>
+        <v>10.70957562600763</v>
       </c>
       <c r="C152">
-        <v>10.59130333335874</v>
+        <v>10.56894507907774</v>
       </c>
       <c r="D152">
-        <v>10.59706406446297</v>
+        <v>10.67572731427711</v>
       </c>
       <c r="E152">
-        <v>10.56648705882898</v>
+        <v>10.59122880612096</v>
       </c>
       <c r="F152">
-        <v>10.58794609279633</v>
+        <v>10.57569690926648</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>10.60184897715452</v>
+        <v>10.7237711662022</v>
       </c>
       <c r="C153">
-        <v>10.60455037867363</v>
+        <v>10.58199732302796</v>
       </c>
       <c r="D153">
-        <v>10.61025716834404</v>
+        <v>10.68970178764845</v>
       </c>
       <c r="E153">
-        <v>10.57963179847099</v>
+        <v>10.60446265865751</v>
       </c>
       <c r="F153">
-        <v>10.60125815061132</v>
+        <v>10.58898434412929</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>10.6148425157222</v>
+        <v>10.73786982762992</v>
       </c>
       <c r="C154">
-        <v>10.61768098602048</v>
+        <v>10.59495068846845</v>
       </c>
       <c r="D154">
-        <v>10.62333203225358</v>
+        <v>10.7035757395247</v>
       </c>
       <c r="E154">
-        <v>10.59267648525271</v>
+        <v>10.6175947825527</v>
       </c>
       <c r="F154">
-        <v>10.61445427106847</v>
+        <v>10.60217445822293</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>10.62773052303182</v>
+        <v>10.75187177348386</v>
       </c>
       <c r="C155">
-        <v>10.63069513547434</v>
+        <v>10.60780532907273</v>
       </c>
       <c r="D155">
-        <v>10.63628875763993</v>
+        <v>10.71734925956104</v>
       </c>
       <c r="E155">
-        <v>10.60562118730344</v>
+        <v>10.63062529517599</v>
       </c>
       <c r="F155">
-        <v>10.62753440130125</v>
+        <v>10.61526735474379</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>10.64051311914938</v>
+        <v>10.76577716702828</v>
       </c>
       <c r="C156">
-        <v>10.64359281169579</v>
+        <v>10.62056139797036</v>
       </c>
       <c r="D156">
-        <v>10.64912745097747</v>
+        <v>10.73102243669347</v>
       </c>
       <c r="E156">
-        <v>10.61846597270528</v>
+        <v>10.64355431478444</v>
       </c>
       <c r="F156">
-        <v>10.64049849207911</v>
+        <v>10.62826313709481</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>10.65319042490424</v>
+        <v>10.77958617158929</v>
       </c>
       <c r="C157">
-        <v>10.65637400380907</v>
+        <v>10.63321904900738</v>
       </c>
       <c r="D157">
-        <v>10.66184822376261</v>
+        <v>10.74459536045687</v>
       </c>
       <c r="E157">
-        <v>10.63121090949519</v>
+        <v>10.6563819603872</v>
       </c>
       <c r="F157">
-        <v>10.65334649799948</v>
+        <v>10.64116190887544</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>10.66576256219983</v>
+        <v>10.79329895055375</v>
       </c>
       <c r="C158">
-        <v>10.66903870531206</v>
+        <v>10.64577843637706</v>
       </c>
       <c r="D158">
-        <v>10.67445119238176</v>
+        <v>10.75806812114691</v>
       </c>
       <c r="E158">
-        <v>10.64385606566379</v>
+        <v>10.6691083517389</v>
       </c>
       <c r="F158">
-        <v>10.66607837687326</v>
+        <v>10.65396377389972</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>10.67822965337565</v>
+        <v>10.80691566738188</v>
       </c>
       <c r="C159">
-        <v>10.68158691402176</v>
+        <v>10.6582397143743</v>
       </c>
       <c r="D159">
-        <v>10.68693647776334</v>
+        <v>10.77144080959115</v>
       </c>
       <c r="E159">
-        <v>10.65640150915549</v>
+        <v>10.68173360922559</v>
       </c>
       <c r="F159">
-        <v>10.67869409006605</v>
+        <v>10.66666883620871</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>10.69059182152045</v>
+        <v>10.82043648559081</v>
       </c>
       <c r="C160">
-        <v>10.69401863208139</v>
+        <v>10.67060303767567</v>
       </c>
       <c r="D160">
-        <v>10.69930420552044</v>
+        <v>10.78471351732127</v>
       </c>
       <c r="E160">
-        <v>10.66884730786862</v>
+        <v>10.69425785395696</v>
       </c>
       <c r="F160">
-        <v>10.69119360233244</v>
+        <v>10.67927720005193</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>10.70284919044355</v>
+        <v>10.83386156876896</v>
       </c>
       <c r="C161">
-        <v>10.70633386569613</v>
+        <v>10.68286856124375</v>
       </c>
       <c r="D161">
-        <v>10.71155450548818</v>
+        <v>10.79788633668348</v>
       </c>
       <c r="E161">
-        <v>10.68119352965487</v>
+        <v>10.70668120772631</v>
       </c>
       <c r="F161">
-        <v>10.70357688207847</v>
+        <v>10.69178896989751</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>10.71500188490505</v>
+        <v>10.84719108057394</v>
       </c>
       <c r="C162">
-        <v>10.71853262517695</v>
+        <v>10.69503644033264</v>
       </c>
       <c r="D162">
-        <v>10.7236875118147</v>
+        <v>10.81095935993454</v>
       </c>
       <c r="E162">
-        <v>10.69344024232046</v>
+        <v>10.71900379222699</v>
       </c>
       <c r="F162">
-        <v>10.71584390065562</v>
+        <v>10.70420425043474</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>10.72705003011024</v>
+        <v>10.86042518472661</v>
       </c>
       <c r="C163">
-        <v>10.73061492485886</v>
+        <v>10.70710683046402</v>
       </c>
       <c r="D163">
-        <v>10.73570336276655</v>
+        <v>10.82393268009524</v>
       </c>
       <c r="E163">
-        <v>10.70558751362556</v>
+        <v>10.73122573052757</v>
       </c>
       <c r="F163">
-        <v>10.72799463276091</v>
+        <v>10.7165231465766</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>10.73899375195324</v>
+        <v>10.87356404501953</v>
       </c>
       <c r="C164">
-        <v>10.74258078308355</v>
+        <v>10.71907988748894</v>
       </c>
       <c r="D164">
-        <v>10.74760220049209</v>
+        <v>10.8368063906854</v>
       </c>
       <c r="E164">
-        <v>10.71763541128424</v>
+        <v>10.74334714611663</v>
       </c>
       <c r="F164">
-        <v>10.74002905626486</v>
+        <v>10.72874576353365</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>10.75083317699812</v>
+        <v>10.88660782531284</v>
       </c>
       <c r="C165">
-        <v>10.75443022193917</v>
+        <v>10.7309557675431</v>
       </c>
       <c r="D165">
-        <v>10.7593841711173</v>
+        <v>10.84958058571279</v>
       </c>
       <c r="E165">
-        <v>10.72958400296468</v>
+        <v>10.75536816300034</v>
       </c>
       <c r="F165">
-        <v>10.75194715244555</v>
+        <v>10.74087220664881</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>10.76256843260376</v>
+        <v>10.89955668953754</v>
       </c>
       <c r="C166">
-        <v>10.76616326732497</v>
+        <v>10.74273462705746</v>
       </c>
       <c r="D166">
-        <v>10.77104942435262</v>
+        <v>10.86225535992125</v>
       </c>
       <c r="E166">
-        <v>10.7414333562896</v>
+        <v>10.76728890575303</v>
       </c>
       <c r="F166">
-        <v>10.76374890538894</v>
+        <v>10.75290258153452</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>10.77419964662104</v>
+        <v>10.91241080169651</v>
       </c>
       <c r="C167">
-        <v>10.77777994891202</v>
+        <v>10.75441662275821</v>
       </c>
       <c r="D167">
-        <v>10.78259811369996</v>
+        <v>10.87483080826542</v>
       </c>
       <c r="E167">
-        <v>10.7531835388354</v>
+        <v>10.77910949950337</v>
       </c>
       <c r="F167">
-        <v>10.77543430226514</v>
+        <v>10.76483699403971</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>10.785726947529</v>
+        <v>10.92517032586318</v>
       </c>
       <c r="C168">
-        <v>10.78928030001604</v>
+        <v>10.76600191166677</v>
       </c>
       <c r="D168">
-        <v>10.79403039607558</v>
+        <v>10.88730702620353</v>
       </c>
       <c r="E168">
-        <v>10.76483461813274</v>
+        <v>10.7908300698564</v>
       </c>
       <c r="F168">
-        <v>10.78700333323167</v>
+        <v>10.77667555025194</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>10.79715046442166</v>
+        <v>10.93783542618768</v>
       </c>
       <c r="C169">
-        <v>10.80066435744117</v>
+        <v>10.77749065149327</v>
       </c>
       <c r="D169">
-        <v>10.80534643163617</v>
+        <v>10.89968410968473</v>
       </c>
       <c r="E169">
-        <v>10.77638666166657</v>
+        <v>10.8024507429364</v>
       </c>
       <c r="F169">
-        <v>10.79845599159423</v>
+        <v>10.78841835650003</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>10.80847032704471</v>
+        <v>10.95040626689324</v>
       </c>
       <c r="C170">
-        <v>10.81193216150661</v>
+        <v>10.78888299985804</v>
       </c>
       <c r="D170">
-        <v>10.81654638377072</v>
+        <v>10.91196215510766</v>
       </c>
       <c r="E170">
-        <v>10.78783973687607</v>
+        <v>10.81397164535283</v>
       </c>
       <c r="F170">
-        <v>10.80979227336211</v>
+        <v>10.80006551940593</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>10.81968666566687</v>
+        <v>10.96288301227924</v>
       </c>
       <c r="C171">
-        <v>10.82308375609047</v>
+        <v>10.8001791146446</v>
       </c>
       <c r="D171">
-        <v>10.8276304197633</v>
+        <v>10.92414125942577</v>
       </c>
       <c r="E171">
-        <v>10.79919391115538</v>
+        <v>10.82539290486785</v>
       </c>
       <c r="F171">
-        <v>10.82101217738078</v>
+        <v>10.81161714585951</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>10.83079961112491</v>
+        <v>10.97526582672646</v>
       </c>
       <c r="C172">
-        <v>10.83411918830651</v>
+        <v>10.81137915413433</v>
       </c>
       <c r="D172">
-        <v>10.83859870903471</v>
+        <v>10.93622152016324</v>
       </c>
       <c r="E172">
-        <v>10.81044925185242</v>
+        <v>10.83671464907074</v>
       </c>
       <c r="F172">
-        <v>10.83211570530317</v>
+        <v>10.82307334290611</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>10.84180929481146</v>
+        <v>10.98755487469171</v>
       </c>
       <c r="C173">
-        <v>10.84503850856114</v>
+        <v>10.82248327690963</v>
       </c>
       <c r="D173">
-        <v>10.84945142414083</v>
+        <v>10.94820303496883</v>
       </c>
       <c r="E173">
-        <v>10.82160582626957</v>
+        <v>10.84793700618521</v>
       </c>
       <c r="F173">
-        <v>10.84310286169819</v>
+        <v>10.83443421789393</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>10.85271584879299</v>
+        <v>10.99975032071513</v>
       </c>
       <c r="C174">
-        <v>10.85584177050397</v>
+        <v>10.83349164185386</v>
       </c>
       <c r="D174">
-        <v>10.86018874075186</v>
+        <v>10.96008590205308</v>
       </c>
       <c r="E174">
-        <v>10.83266370166375</v>
+        <v>10.85906010496559</v>
       </c>
       <c r="F174">
-        <v>10.85397365372127</v>
+        <v>10.84569987842998</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>10.86351940556193</v>
+        <v>11.01185232941987</v>
       </c>
       <c r="C175">
-        <v>10.86652903107799</v>
+        <v>10.84440440865731</v>
       </c>
       <c r="D175">
-        <v>10.87081083801078</v>
+        <v>10.97187022004671</v>
       </c>
       <c r="E175">
-        <v>10.84362294524639</v>
+        <v>10.87008407481818</v>
       </c>
       <c r="F175">
-        <v>10.86472809113969</v>
+        <v>10.85687043238297</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>10.87422009814389</v>
+        <v>11.02386106551239</v>
       </c>
       <c r="C176">
-        <v>10.87710035014004</v>
+        <v>10.855221737559</v>
       </c>
       <c r="D176">
-        <v>10.88131789661477</v>
+        <v>10.98355608799219</v>
       </c>
       <c r="E176">
-        <v>10.85448362418354</v>
+        <v>10.88100904582952</v>
       </c>
       <c r="F176">
-        <v>10.87536618635638</v>
+        <v>10.86794598788628</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>10.88481806009181</v>
+        <v>11.03577669378732</v>
       </c>
       <c r="C177">
-        <v>10.88755579062097</v>
+        <v>10.86594378797649</v>
       </c>
       <c r="D177">
-        <v>10.89171010020105</v>
+        <v>10.99514360592787</v>
       </c>
       <c r="E177">
-        <v>10.86524580559577</v>
+        <v>10.89183514817959</v>
       </c>
       <c r="F177">
-        <v>10.88588795448561</v>
+        <v>10.87892665345709</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>10.89531342558664</v>
+        <v>11.04759937912572</v>
       </c>
       <c r="C178">
-        <v>10.89789541847513</v>
+        <v>10.87657072019525</v>
       </c>
       <c r="D178">
-        <v>10.90198763555337</v>
+        <v>11.00663287366127</v>
       </c>
       <c r="E178">
-        <v>10.87590955655829</v>
+        <v>10.90256251269985</v>
       </c>
       <c r="F178">
-        <v>10.89629341310544</v>
+        <v>10.88981253774765</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.90570632921327</v>
+        <v>11.0593292864992</v>
       </c>
       <c r="C179">
-        <v>10.90811930260845</v>
+        <v>10.88710269481905</v>
       </c>
       <c r="D179">
-        <v>10.91215069181605</v>
+        <v>11.01802399155307</v>
       </c>
       <c r="E179">
-        <v>10.88647494410098</v>
+        <v>10.91319127070454</v>
       </c>
       <c r="F179">
-        <v>10.9065825821978</v>
+        <v>10.90060374971657</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>10.91599690605637</v>
+        <v>11.07096658097139</v>
       </c>
       <c r="C180">
-        <v>10.91822751463955</v>
+        <v>10.89753987277005</v>
       </c>
       <c r="D180">
-        <v>10.92219946007736</v>
+        <v>11.02931706042825</v>
       </c>
       <c r="E180">
-        <v>10.89694203520844</v>
+        <v>10.92372155388532</v>
       </c>
       <c r="F180">
-        <v>10.9167554842205</v>
+        <v>10.91130039861536</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10.92618529169799</v>
+        <v>11.08251142769837</v>
       </c>
       <c r="C181">
-        <v>10.92822012900057</v>
+        <v>10.90788241538336</v>
       </c>
       <c r="D181">
-        <v>10.93213413394219</v>
+        <v>11.04051218151878</v>
       </c>
       <c r="E181">
-        <v>10.90731089681978</v>
+        <v>10.9341534944938</v>
       </c>
       <c r="F181">
-        <v>10.92681214415087</v>
+        <v>10.92190259397926</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.9362716222829</v>
+        <v>11.09396399193385</v>
       </c>
       <c r="C182">
-        <v>10.9380972229743</v>
+        <v>10.918130486051</v>
       </c>
       <c r="D182">
-        <v>10.94195490995903</v>
+        <v>11.05160945660846</v>
       </c>
       <c r="E182">
-        <v>10.91758159582913</v>
+        <v>10.94448722521764</v>
       </c>
       <c r="F182">
-        <v>10.93675258931357</v>
+        <v>10.93241044563045</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10.94625603436109</v>
+        <v>11.10532443902754</v>
       </c>
       <c r="C183">
-        <v>10.94785887641868</v>
+        <v>10.92828424583582</v>
       </c>
       <c r="D183">
-        <v>10.95166198622208</v>
+        <v>11.06260898800647</v>
       </c>
       <c r="E183">
-        <v>10.92775419908541</v>
+        <v>10.95472287918564</v>
       </c>
       <c r="F183">
-        <v>10.94657684924521</v>
+        <v>10.94282406372415</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>10.95613866495108</v>
+        <v>11.11659293442917</v>
       </c>
       <c r="C184">
-        <v>10.95750517175931</v>
+        <v>10.93834385719216</v>
       </c>
       <c r="D184">
-        <v>10.96125556313462</v>
+        <v>11.07351087809397</v>
       </c>
       <c r="E184">
-        <v>10.93782877339239</v>
+        <v>10.9648605900266</v>
       </c>
       <c r="F184">
-        <v>10.9562849558082</v>
+        <v>10.95314355877669</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10.96591965153803</v>
+        <v>11.12776964369164</v>
       </c>
       <c r="C185">
-        <v>10.96703619400301</v>
+        <v>10.94830948291606</v>
       </c>
       <c r="D185">
-        <v>10.9707358432786</v>
+        <v>11.08431522980671</v>
       </c>
       <c r="E185">
-        <v>10.94780538550871</v>
+        <v>10.9749004918577</v>
       </c>
       <c r="F185">
-        <v>10.96587694320162</v>
+        <v>10.96336904145209</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>10.97559913212672</v>
+        <v>11.13885473247006</v>
       </c>
       <c r="C186">
-        <v>10.97645203103084</v>
+        <v>10.95818128614527</v>
       </c>
       <c r="D186">
-        <v>10.98010303160485</v>
+        <v>11.09502214648254</v>
       </c>
       <c r="E186">
-        <v>10.95768410214786</v>
+        <v>10.98484271908695</v>
       </c>
       <c r="F186">
-        <v>10.97535284785894</v>
+        <v>10.97350062278591</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>10.98517724511495</v>
+        <v>11.14984836652703</v>
       </c>
       <c r="C187">
-        <v>10.98575277265163</v>
+        <v>10.96795943035923</v>
       </c>
       <c r="D187">
-        <v>10.98935733461235</v>
+        <v>11.1056317318574</v>
       </c>
       <c r="E187">
-        <v>10.96746498997839</v>
+        <v>10.99468740660407</v>
       </c>
       <c r="F187">
-        <v>10.98471270825345</v>
+        <v>10.98353841412186</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>10.99465412934219</v>
+        <v>11.16075071173315</v>
       </c>
       <c r="C188">
-        <v>10.99493851119301</v>
+        <v>10.97764408077001</v>
       </c>
       <c r="D188">
-        <v>10.99849896086259</v>
+        <v>11.11614409027903</v>
       </c>
       <c r="E188">
-        <v>10.97714811562387</v>
+        <v>11.00443468971408</v>
       </c>
       <c r="F188">
-        <v>10.99395656504027</v>
+        <v>10.9934825271153</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>11.00402992408867</v>
+        <v>11.17156193406914</v>
       </c>
       <c r="C189">
-        <v>11.00400934127027</v>
+        <v>10.98723540165926</v>
       </c>
       <c r="D189">
-        <v>11.00752812100831</v>
+        <v>11.12655932624093</v>
       </c>
       <c r="E189">
-        <v>10.98673354566291</v>
+        <v>11.01408470412986</v>
       </c>
       <c r="F189">
-        <v>11.00308446104107</v>
+        <v>11.00333307373682</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>11.01330476912857</v>
+        <v>11.18228219962987</v>
       </c>
       <c r="C190">
-        <v>11.01296535972097</v>
+        <v>10.9967335573854</v>
       </c>
       <c r="D190">
-        <v>11.01644502760755</v>
+        <v>11.13687754470249</v>
       </c>
       <c r="E190">
-        <v>10.99622134662919</v>
+        <v>11.02363758596467</v>
       </c>
       <c r="F190">
-        <v>11.01209644119955</v>
+        <v>11.01309016636425</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>11.02247880460933</v>
+        <v>11.19291167462413</v>
       </c>
       <c r="C191">
-        <v>11.02180666554275</v>
+        <v>11.00613871308661</v>
       </c>
       <c r="D191">
-        <v>11.02524989473396</v>
+        <v>11.14709885102948</v>
       </c>
       <c r="E191">
-        <v>11.00561158501162</v>
+        <v>11.03309347203882</v>
       </c>
       <c r="F191">
-        <v>11.02099255234348</v>
+        <v>11.02275391761568</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>11.03155217109773</v>
+        <v>11.20345052537905</v>
       </c>
       <c r="C192">
-        <v>11.03053336168202</v>
+        <v>11.01545103426769</v>
       </c>
       <c r="D192">
-        <v>11.03394293829918</v>
+        <v>11.15722335097905</v>
       </c>
       <c r="E192">
-        <v>11.01490432725423</v>
+        <v>11.04245249955447</v>
       </c>
       <c r="F192">
-        <v>11.02977284334526</v>
+        <v>11.03232444043112</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>11.0405250095811</v>
+        <v>11.21389891834194</v>
       </c>
       <c r="C193">
-        <v>11.03914555070955</v>
+        <v>11.02467068680001</v>
       </c>
       <c r="D193">
-        <v>11.04252437635472</v>
+        <v>11.16725115074955</v>
       </c>
       <c r="E193">
-        <v>11.02409963975622</v>
+        <v>11.05171480567194</v>
       </c>
       <c r="F193">
-        <v>11.03843736508762</v>
+        <v>11.04180184810431</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>11.04939746151772</v>
+        <v>11.22425702008158</v>
       </c>
       <c r="C194">
-        <v>11.04764333812646</v>
+        <v>11.03379783758733</v>
       </c>
       <c r="D194">
-        <v>11.05099442828891</v>
+        <v>11.17718235695442</v>
       </c>
       <c r="E194">
-        <v>11.03319758887208</v>
+        <v>11.06088052817072</v>
       </c>
       <c r="F194">
-        <v>11.04698617046604</v>
+        <v>11.0511862542659</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>11.05816966872413</v>
+        <v>11.23452499729326</v>
       </c>
       <c r="C195">
-        <v>11.05602683139434</v>
+        <v>11.04283265442754</v>
       </c>
       <c r="D195">
-        <v>11.05935331512589</v>
+        <v>11.18701707649757</v>
       </c>
       <c r="E195">
-        <v>11.04219824091159</v>
+        <v>11.06994980521188</v>
       </c>
       <c r="F195">
-        <v>11.05541931411513</v>
+        <v>11.06047777288722</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>11.06684177341783</v>
+        <v>11.24470301679823</v>
       </c>
       <c r="C196">
-        <v>11.06429613987299</v>
+        <v>11.05177530371725</v>
       </c>
       <c r="D196">
-        <v>11.06760125957071</v>
+        <v>11.19675541671395</v>
       </c>
       <c r="E196">
-        <v>11.05110166214</v>
+        <v>11.07892277533149</v>
       </c>
       <c r="F196">
-        <v>11.06373685258537</v>
+        <v>11.06967651831338</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>11.07541391822012</v>
+        <v>11.25479124554824</v>
       </c>
       <c r="C197">
-        <v>11.07245137475835</v>
+        <v>11.06062595308109</v>
       </c>
       <c r="D197">
-        <v>11.07573848629706</v>
+        <v>11.20639748532234</v>
       </c>
       <c r="E197">
-        <v>11.05990791877783</v>
+        <v>11.08779957743398</v>
       </c>
       <c r="F197">
-        <v>11.07193884429337</v>
+        <v>11.07878260535612</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>11.08388624620069</v>
+        <v>11.26478985062828</v>
       </c>
       <c r="C198">
-        <v>11.0804926518764</v>
+        <v>11.06938477053549</v>
       </c>
       <c r="D198">
-        <v>11.08376522106058</v>
+        <v>11.21594339042291</v>
       </c>
       <c r="E198">
-        <v>11.068617077001</v>
+        <v>11.09658035149575</v>
       </c>
       <c r="F198">
-        <v>11.08002534956356</v>
+        <v>11.0877961489791</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>11.09225890077812</v>
+        <v>11.27469899925734</v>
       </c>
       <c r="C199">
-        <v>11.08842008534842</v>
+        <v>11.07805192448864</v>
       </c>
       <c r="D199">
-        <v>11.0916816912791</v>
+        <v>11.22539324079076</v>
       </c>
       <c r="E199">
-        <v>11.07722920294094</v>
+        <v>11.10526523750773</v>
       </c>
       <c r="F199">
-        <v>11.08799643032478</v>
+        <v>11.09671726459101</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>11.10053202575677</v>
+        <v>11.28451885879345</v>
       </c>
       <c r="C200">
-        <v>11.0962337920359</v>
+        <v>11.08662758376349</v>
       </c>
       <c r="D200">
-        <v>11.09948812598274</v>
+        <v>11.23474714522649</v>
       </c>
       <c r="E200">
-        <v>11.08574436268457</v>
+        <v>11.11385437530341</v>
       </c>
       <c r="F200">
-        <v>11.09585215030125</v>
+        <v>11.10554606796584</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.10870576533074</v>
+        <v>11.29424959673452</v>
       </c>
       <c r="C201">
-        <v>11.10393389067255</v>
+        <v>11.09511191875571</v>
       </c>
       <c r="D201">
-        <v>11.10718475579955</v>
+        <v>11.24400521303611</v>
       </c>
       <c r="E201">
-        <v>11.09416262227439</v>
+        <v>11.12234790544812</v>
       </c>
       <c r="F201">
-        <v>11.10359257494921</v>
+        <v>11.11428267524711</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>11.11678026412401</v>
+        <v>11.30389138072156</v>
       </c>
       <c r="C202">
-        <v>11.11152050164235</v>
+        <v>11.10350509884619</v>
       </c>
       <c r="D202">
-        <v>11.11477181253938</v>
+        <v>11.25316755392036</v>
       </c>
       <c r="E202">
-        <v>11.10248404770845</v>
+        <v>11.13074596887852</v>
       </c>
       <c r="F202">
-        <v>11.11121777153029</v>
+        <v>11.12292720295193</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>11.12475566710205</v>
+        <v>11.31344437854267</v>
       </c>
       <c r="C203">
-        <v>11.1189937469254</v>
+        <v>11.11180729436568</v>
       </c>
       <c r="D203">
-        <v>11.122249529516</v>
+        <v>11.26223427796584</v>
       </c>
       <c r="E203">
-        <v>11.11070870494044</v>
+        <v>11.13904870689814</v>
       </c>
       <c r="F203">
-        <v>11.11872780878853</v>
+        <v>11.13147976810359</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>11.13263211960395</v>
+        <v>11.32290875813351</v>
       </c>
       <c r="C204">
-        <v>11.12635375258383</v>
+        <v>11.12001867608346</v>
       </c>
       <c r="D204">
-        <v>11.12961814158949</v>
+        <v>11.27120549575575</v>
       </c>
       <c r="E204">
-        <v>11.11883665987972</v>
+        <v>11.14725626117293</v>
       </c>
       <c r="F204">
-        <v>11.12612275714918</v>
+        <v>11.13994048802992</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>11.14040976734732</v>
+        <v>11.33228468758227</v>
       </c>
       <c r="C205">
-        <v>11.13360064347904</v>
+        <v>11.12813941554682</v>
       </c>
       <c r="D205">
-        <v>11.13687788490366</v>
+        <v>11.28008131829133</v>
       </c>
       <c r="E205">
-        <v>11.12686797839137</v>
+        <v>11.15536877454286</v>
       </c>
       <c r="F205">
-        <v>11.13340268864507</v>
+        <v>11.14830948038219</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>11.14808875646585</v>
+        <v>11.34157233513165</v>
       </c>
       <c r="C206">
-        <v>11.1407345464074</v>
+        <v>11.13616968442221</v>
       </c>
       <c r="D206">
-        <v>11.14402899689588</v>
+        <v>11.28886185679637</v>
       </c>
       <c r="E206">
-        <v>11.13480272629617</v>
+        <v>11.16338638954869</v>
       </c>
       <c r="F206">
-        <v>11.1405676770136</v>
+        <v>11.15658686326056</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>11.15566923342854</v>
+        <v>11.35077186918111</v>
       </c>
       <c r="C207">
-        <v>11.14775558999224</v>
+        <v>11.14410965487743</v>
       </c>
       <c r="D207">
-        <v>11.15107171635813</v>
+        <v>11.29754722297057</v>
       </c>
       <c r="E207">
-        <v>11.14264096937073</v>
+        <v>11.1713092488622</v>
       </c>
       <c r="F207">
-        <v>11.14761779736476</v>
+        <v>11.16477275516664</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>11.16315134506883</v>
+        <v>11.35988345829186</v>
       </c>
       <c r="C208">
-        <v>11.15466390430733</v>
+        <v>11.15195949956627</v>
       </c>
       <c r="D208">
-        <v>11.15800628370257</v>
+        <v>11.3061375289077</v>
       </c>
       <c r="E208">
-        <v>11.15038277334748</v>
+        <v>11.17913749580016</v>
       </c>
       <c r="F208">
-        <v>11.15455312638127</v>
+        <v>11.17286727500806</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>11.17053523859033</v>
+        <v>11.36890727118719</v>
       </c>
       <c r="C209">
-        <v>11.16145962083099</v>
+        <v>11.15971939178592</v>
       </c>
       <c r="D209">
-        <v>11.16483294028898</v>
+        <v>11.31463288709583</v>
       </c>
       <c r="E209">
-        <v>11.15802820391473</v>
+        <v>11.18687127405434</v>
       </c>
       <c r="F209">
-        <v>11.16137374223813</v>
+        <v>11.18087054211832</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>11.17782106160189</v>
+        <v>11.37784347675802</v>
       </c>
       <c r="C210">
-        <v>11.16814287400564</v>
+        <v>11.16738950518011</v>
       </c>
       <c r="D210">
-        <v>11.17155192885928</v>
+        <v>11.32303341062279</v>
       </c>
       <c r="E210">
-        <v>11.1655773267167</v>
+        <v>11.19451072768918</v>
       </c>
       <c r="F210">
-        <v>11.16807972471732</v>
+        <v>11.18878267644638</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>11.18500896204398</v>
+        <v>11.38669224406539</v>
       </c>
       <c r="C211">
-        <v>11.17471379815762</v>
+        <v>11.17497001379779</v>
       </c>
       <c r="D211">
-        <v>11.17816349348422</v>
+        <v>11.33133921271418</v>
       </c>
       <c r="E211">
-        <v>11.17303020735354</v>
+        <v>11.20205600113942</v>
       </c>
       <c r="F211">
-        <v>11.17467115487262</v>
+        <v>11.19660379806781</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>11.19209908821486</v>
+        <v>11.39545374234065</v>
       </c>
       <c r="C212">
-        <v>11.1811725288393</v>
+        <v>11.1824610922002</v>
       </c>
       <c r="D212">
-        <v>11.18466787963988</v>
+        <v>11.33955040709468</v>
       </c>
       <c r="E212">
-        <v>11.18038691138143</v>
+        <v>11.20950723980667</v>
       </c>
       <c r="F212">
-        <v>11.18114811522813</v>
+        <v>11.20433402760612</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>11.19909158877729</v>
+        <v>11.40412814099058</v>
       </c>
       <c r="C213">
-        <v>11.18751920325339</v>
+        <v>11.18986291574589</v>
       </c>
       <c r="D213">
-        <v>11.19106533380888</v>
+        <v>11.34766710789256</v>
       </c>
       <c r="E213">
-        <v>11.18764750431256</v>
+        <v>11.21686458883568</v>
       </c>
       <c r="F213">
-        <v>11.18751068969358</v>
+        <v>11.21197348612105</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>11.20598661279123</v>
+        <v>11.41271560960442</v>
       </c>
       <c r="C214">
-        <v>11.19375395986679</v>
+        <v>11.19717566023776</v>
       </c>
       <c r="D214">
-        <v>11.19735610377745</v>
+        <v>11.35568942964032</v>
       </c>
       <c r="E214">
-        <v>11.1948120516152</v>
+        <v>11.22412819377571</v>
       </c>
       <c r="F214">
-        <v>11.19375896369178</v>
+        <v>11.21952229511363</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>11.21278430964666</v>
+        <v>11.42121631795417</v>
       </c>
       <c r="C215">
-        <v>11.19987693837079</v>
+        <v>11.20439950162635</v>
       </c>
       <c r="D215">
-        <v>11.20354043866896</v>
+        <v>11.36361748735709</v>
       </c>
       <c r="E215">
-        <v>11.20188061871372</v>
+        <v>11.23129820067522</v>
       </c>
       <c r="F215">
-        <v>11.19989302382475</v>
+        <v>11.22698057653118</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>11.21948482908735</v>
+        <v>11.4296304359906</v>
       </c>
       <c r="C216">
-        <v>11.20588828065849</v>
+        <v>11.21153461650463</v>
       </c>
       <c r="D216">
-        <v>11.20961858879348</v>
+        <v>11.37145139647506</v>
       </c>
       <c r="E216">
-        <v>11.20885327098873</v>
+        <v>11.23837475596322</v>
       </c>
       <c r="F216">
-        <v>11.20591295806793</v>
+        <v>11.23434845288802</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>11.2260883212182</v>
+        <v>11.43795813385415</v>
       </c>
       <c r="C217">
-        <v>11.2117881290713</v>
+        <v>11.21858118194185</v>
       </c>
       <c r="D217">
-        <v>11.21559080557442</v>
+        <v>11.37919127273804</v>
       </c>
       <c r="E217">
-        <v>11.21573007377698</v>
+        <v>11.24535800644827</v>
       </c>
       <c r="F217">
-        <v>11.21181885569007</v>
+        <v>11.24162604713881</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>11.23259493653688</v>
+        <v>11.44619958188359</v>
       </c>
       <c r="C218">
-        <v>11.21757662675237</v>
+        <v>11.22553937548167</v>
       </c>
       <c r="D218">
-        <v>11.22145734165722</v>
+        <v>11.38683723235684</v>
       </c>
       <c r="E218">
-        <v>11.22251109237145</v>
+        <v>11.25224809931742</v>
       </c>
       <c r="F218">
-        <v>11.21761080735728</v>
+        <v>11.24881348257002</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>11.23900482587108</v>
+        <v>11.45435495061353</v>
       </c>
       <c r="C219">
-        <v>11.22325391829471</v>
+        <v>11.23240937514019</v>
       </c>
       <c r="D219">
-        <v>11.22721845104705</v>
+        <v>11.39438939195932</v>
       </c>
       <c r="E219">
-        <v>11.22919639202143</v>
+        <v>11.25904518256532</v>
       </c>
       <c r="F219">
-        <v>11.22328890486829</v>
+        <v>11.25591088301742</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>11.24531814040055</v>
+        <v>11.46242441076795</v>
       </c>
       <c r="C220">
-        <v>11.22882014938013</v>
+        <v>11.23919136028529</v>
       </c>
       <c r="D220">
-        <v>11.23287438874685</v>
+        <v>11.40184786859732</v>
       </c>
       <c r="E220">
-        <v>11.23578603793252</v>
+        <v>11.26574940403541</v>
       </c>
       <c r="F220">
-        <v>11.22885324127814</v>
+        <v>11.26291837279638</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>11.25153503166545</v>
+        <v>11.47040813327553</v>
       </c>
       <c r="C221">
-        <v>11.23427546674369</v>
+        <v>11.24588550997128</v>
       </c>
       <c r="D221">
-        <v>11.23842541097016</v>
+        <v>11.40921277992582</v>
       </c>
       <c r="E221">
-        <v>11.24228009526677</v>
+        <v>11.27236091208944</v>
       </c>
       <c r="F221">
-        <v>11.2343039108552</v>
+        <v>11.2698360767074</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>11.25765565159769</v>
+        <v>11.47830628927773</v>
       </c>
       <c r="C222">
-        <v>11.2396200190111</v>
+        <v>11.25249200391264</v>
       </c>
       <c r="D222">
-        <v>11.24387177512449</v>
+        <v>11.41648424378758</v>
       </c>
       <c r="E222">
-        <v>11.24867862914258</v>
+        <v>11.27887985551659</v>
       </c>
       <c r="F222">
-        <v>11.23964100915797</v>
+        <v>11.27666412004174</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>11.26368015246089</v>
+        <v>11.48611905012522</v>
       </c>
       <c r="C223">
-        <v>11.24485395541733</v>
+        <v>11.25901102247514</v>
       </c>
       <c r="D223">
-        <v>11.24921373990238</v>
+        <v>11.42366237854547</v>
       </c>
       <c r="E223">
-        <v>11.2549817046348</v>
+        <v>11.28530638349322</v>
       </c>
       <c r="F223">
-        <v>11.24486463283034</v>
+        <v>11.28340262886089</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>11.26960868687144</v>
+        <v>11.49384658737282</v>
       </c>
       <c r="C224">
-        <v>11.24997742558687</v>
+        <v>11.26544274661268</v>
       </c>
       <c r="D224">
-        <v>11.25445156498737</v>
+        <v>11.43074730299597</v>
       </c>
       <c r="E224">
-        <v>11.26118938677478</v>
+        <v>11.29164064558262</v>
       </c>
       <c r="F224">
-        <v>11.24997487966595</v>
+        <v>11.29005172936625</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>11.27544140780799</v>
+        <v>11.50148907279457</v>
       </c>
       <c r="C225">
-        <v>11.25499058050681</v>
+        <v>11.27178735795636</v>
       </c>
       <c r="D225">
-        <v>11.25958551126668</v>
+        <v>11.43773913637124</v>
       </c>
       <c r="E225">
-        <v>11.26730174055042</v>
+        <v>11.29788279173485</v>
       </c>
       <c r="F225">
-        <v>11.25497184859579</v>
+        <v>11.29661154840295</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>11.28117846864257</v>
+        <v>11.50904667839047</v>
       </c>
       <c r="C226">
-        <v>11.25989357210251</v>
+        <v>11.27804503857288</v>
       </c>
       <c r="D226">
-        <v>11.2646158408538</v>
+        <v>11.44463799843942</v>
       </c>
       <c r="E226">
-        <v>11.27331883090624</v>
+        <v>11.30403297281445</v>
       </c>
       <c r="F226">
-        <v>11.25985563974175</v>
+        <v>11.30308221334405</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>11.28682002308293</v>
+        <v>11.51651957638379</v>
       </c>
       <c r="C227">
-        <v>11.26468655320632</v>
+        <v>11.28421597118017</v>
       </c>
       <c r="D227">
-        <v>11.2695428170357</v>
+        <v>11.45144400939925</v>
       </c>
       <c r="E227">
-        <v>11.27924072274337</v>
+        <v>11.31009133934497</v>
       </c>
       <c r="F227">
-        <v>11.26462635426332</v>
+        <v>11.30946385209038</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>11.29236622519274</v>
+        <v>11.52390793921893</v>
       </c>
       <c r="C228">
-        <v>11.26936967833552</v>
+        <v>11.29030033909923</v>
       </c>
       <c r="D228">
-        <v>11.2743667041526</v>
+        <v>11.45815728980086</v>
       </c>
       <c r="E228">
-        <v>11.28506748091957</v>
+        <v>11.31605804252349</v>
       </c>
       <c r="F228">
-        <v>11.2692840943728</v>
+        <v>11.3157565930767</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>11.29781722940223</v>
+        <v>11.53121193957364</v>
       </c>
       <c r="C229">
-        <v>11.27394310277455</v>
+        <v>11.2962983260944</v>
       </c>
       <c r="D229">
-        <v>11.27908776772652</v>
+        <v>11.46477796070141</v>
       </c>
       <c r="E229">
-        <v>11.29079917024934</v>
+        <v>11.32193323395233</v>
       </c>
       <c r="F229">
-        <v>11.27382896334772</v>
+        <v>11.32196056539117</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>11.30317319053905</v>
+        <v>11.53843175036662</v>
       </c>
       <c r="C230">
-        <v>11.27840698175023</v>
+        <v>11.30221011655432</v>
       </c>
       <c r="D230">
-        <v>11.28370627455838</v>
+        <v>11.47130614361495</v>
       </c>
       <c r="E230">
-        <v>11.29643585550392</v>
+        <v>11.32771706563449</v>
       </c>
       <c r="F230">
-        <v>11.27826106556502</v>
+        <v>11.3280758987342</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>11.308434263773</v>
+        <v>11.54556754475464</v>
       </c>
       <c r="C231">
-        <v>11.2827614718345</v>
+        <v>11.30803589561721</v>
       </c>
       <c r="D231">
-        <v>11.28822249249782</v>
+        <v>11.47774196052721</v>
       </c>
       <c r="E231">
-        <v>11.30197760141143</v>
+        <v>11.33340968997431</v>
       </c>
       <c r="F231">
-        <v>11.28258050639087</v>
+        <v>11.33410272311934</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>11.31360060463539</v>
+        <v>11.55261949613177</v>
       </c>
       <c r="C232">
-        <v>11.28700673041789</v>
+        <v>11.31377584895657</v>
       </c>
       <c r="D232">
-        <v>11.29263669054791</v>
+        <v>11.48408553407258</v>
       </c>
       <c r="E232">
-        <v>11.30742447265678</v>
+        <v>11.33901125982147</v>
       </c>
       <c r="F232">
-        <v>11.28678739215604</v>
+        <v>11.34004116924539</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>11.31867236903078</v>
+        <v>11.55958777814079</v>
       </c>
       <c r="C233">
-        <v>11.29114291568278</v>
+        <v>11.31943016286137</v>
       </c>
       <c r="D233">
-        <v>11.29694913888975</v>
+        <v>11.49033698710786</v>
       </c>
       <c r="E233">
-        <v>11.31277653388173</v>
+        <v>11.34452192899603</v>
       </c>
       <c r="F233">
-        <v>11.29088183018817</v>
+        <v>11.34589136838597</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>11.32364971326804</v>
+        <v>11.56647256468153</v>
       </c>
       <c r="C234">
-        <v>11.2951701869734</v>
+        <v>11.32499902407902</v>
       </c>
       <c r="D234">
-        <v>11.30116010898135</v>
+        <v>11.49649644306177</v>
       </c>
       <c r="E234">
-        <v>11.31803384968501</v>
+        <v>11.34994185086865</v>
       </c>
       <c r="F234">
-        <v>11.29486392882997</v>
+        <v>11.35165345239633</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>11.32853279400674</v>
+        <v>11.57327402990727</v>
       </c>
       <c r="C235">
-        <v>11.29908870466948</v>
+        <v>11.33048262015169</v>
       </c>
       <c r="D235">
-        <v>11.3052698733028</v>
+        <v>11.50256402584498</v>
       </c>
       <c r="E235">
-        <v>11.32319648462231</v>
+        <v>11.3552711795735</v>
       </c>
       <c r="F235">
-        <v>11.29873379736496</v>
+        <v>11.35732755372011</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>11.33332176827597</v>
+        <v>11.57999234822506</v>
       </c>
       <c r="C236">
-        <v>11.30289862925283</v>
+        <v>11.33588113918949</v>
       </c>
       <c r="D236">
-        <v>11.30927870554387</v>
+        <v>11.5085398598539</v>
       </c>
       <c r="E236">
-        <v>11.32826450320643</v>
+        <v>11.36051006966707</v>
       </c>
       <c r="F236">
-        <v>11.3024915459608</v>
+        <v>11.36291380568375</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>11.33801679348726</v>
+        <v>11.58662769430686</v>
       </c>
       <c r="C237">
-        <v>11.30660012228416</v>
+        <v>11.34119476992237</v>
       </c>
       <c r="D237">
-        <v>11.31318688060803</v>
+        <v>11.51442407008893</v>
       </c>
       <c r="E237">
-        <v>11.33323796990717</v>
+        <v>11.36565867612994</v>
       </c>
       <c r="F237">
-        <v>11.30613728571726</v>
+        <v>11.3684123418908</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>11.34261802746656</v>
+        <v>11.59318024309959</v>
       </c>
       <c r="C238">
-        <v>11.31019334608509</v>
+        <v>11.34642370174068</v>
       </c>
       <c r="D238">
-        <v>11.31699467462004</v>
+        <v>11.52021678201395</v>
       </c>
       <c r="E238">
-        <v>11.33811694915143</v>
+        <v>11.3707171543686</v>
       </c>
       <c r="F238">
-        <v>11.30967112867133</v>
+        <v>11.37382329662089</v>
       </c>
     </row>
   </sheetData>
